--- a/prod_result_AGV.xlsx
+++ b/prod_result_AGV.xlsx
@@ -12,6 +12,7 @@
     <sheet name="RESIDUS" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="CALAGE" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="PREVISION" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="VATRIM" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -11423,4 +11424,826 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>132947.420754456</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="n">
+        <v>212179.739504027</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="n">
+        <v>212276.33848145</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="n">
+        <v>227150.506767315</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>141393.103621597</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="n">
+        <v>226795.429710672</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="n">
+        <v>226141.013334937</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="n">
+        <v>239206.415486733</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="n">
+        <v>151583.382586458</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="n">
+        <v>241196.029205423</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="n">
+        <v>240580.767817142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="n">
+        <v>257163.48842593</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="n">
+        <v>162331.055571178</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="n">
+        <v>255636.177730075</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="n">
+        <v>254761.346080887</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="n">
+        <v>268794.802071233</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="n">
+        <v>172152.944149418</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="n">
+        <v>262959.217922613</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="n">
+        <v>259489.313219138</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="n">
+        <v>272553.853557768</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="n">
+        <v>165954.121361025</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="n">
+        <v>254451.023334684</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="n">
+        <v>251850.110041742</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="n">
+        <v>265605.637329344</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="n">
+        <v>165394.611610315</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="n">
+        <v>260338.040947399</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="n">
+        <v>259586.928674046</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="n">
+        <v>276279.52476645</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="n">
+        <v>169633.912671073</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="n">
+        <v>266450.157233896</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="n">
+        <v>266503.51816605</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="n">
+        <v>283239.162626905</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="n">
+        <v>181107.650782012</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="n">
+        <v>276683.096726239</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="n">
+        <v>274530.816452221</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="n">
+        <v>288409.591236635</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="n">
+        <v>181453.27855698</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="n">
+        <v>270137.047097937</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="n">
+        <v>263887.320242544</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="n">
+        <v>272851.771650393</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="n">
+        <v>169545.058154116</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="n">
+        <v>270276.397914076</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" t="n">
+        <v>268450.180533682</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="n">
+        <v>288675.05677442</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="n">
+        <v>171154.950219043</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" t="n">
+        <v>288532.41522993</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" t="n">
+        <v>289609.170758743</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" t="n">
+        <v>308698.106163459</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="n">
+        <v>183405.31431924</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" t="n">
+        <v>296357.683513839</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" t="n">
+        <v>291988.326762593</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="n">
+        <v>307280.861394363</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="n">
+        <v>168979.639599388</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" t="n">
+        <v>274326.632053725</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" t="n">
+        <v>270052.111531832</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" t="n">
+        <v>285782.401860167</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="n">
+        <v>153859.834863015</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="n">
+        <v>262279.881650588</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" t="n">
+        <v>262568.888808087</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" t="n">
+        <v>283600.019780695</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="n">
+        <v>158488.861968795</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="n">
+        <v>264177.013235019</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" t="n">
+        <v>257066.434451383</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" t="n">
+        <v>263471.781077842</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" t="n">
+        <v>147564.46110679</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" t="n">
+        <v>270161.370594591</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" t="n">
+        <v>270234.255710547</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" t="n">
+        <v>302423.029869192</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" t="n">
+        <v>174444.054917061</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" t="n">
+        <v>338611.306219553</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" t="n">
+        <v>342392.336499563</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" t="n">
+        <v>365941.859530217</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" t="n">
+        <v>203613.060426295</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" t="n">
+        <v>348369.318706765</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" t="n">
+        <v>341264.200852872</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" t="n">
+        <v>362592.580291987</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" t="n">
+        <v>197030.448484361</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" t="n">
+        <v>347853.535772949</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" t="n">
+        <v>345871.87410849</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" t="n">
+        <v>371745.201973878</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" t="n">
+        <v>211599.878486715</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" t="n">
+        <v>374923.023234774</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" t="n">
+        <v>374356.279947385</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" t="n">
+        <v>402250.239172714</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" t="n">
+        <v>218161.644542643</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" t="n">
+        <v>374051.031218892</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" t="n">
+        <v>370119.002327364</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" t="n">
+        <v>392365.714838474</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" t="n">
+        <v>224956.232518354</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" t="n">
+        <v>383870.997190286</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" t="n">
+        <v>379616.057817982</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" t="n">
+        <v>405535.752239579</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" t="n">
+        <v>225694.858612034</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" t="n">
+        <v>391619.225768974</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" t="n">
+        <v>389280.648419773</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" t="n">
+        <v>415879.343420858</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" t="n">
+        <v>232721.751457131</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" t="n">
+        <v>403904.474216792</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" t="n">
+        <v>401534.97246494</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" t="n">
+        <v>429647.176254566</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/prod_result_AGV.xlsx
+++ b/prod_result_AGV.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t xml:space="preserve">ANNEE</t>
   </si>
@@ -353,6 +353,54 @@
     <t xml:space="preserve">2021-10-01</t>
   </si>
   <si>
+    <t xml:space="preserve">2022-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Indicateur_Base</t>
   </si>
   <si>
@@ -522,6 +570,30 @@
   </si>
   <si>
     <t xml:space="preserve">118.988281806791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.987308992901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.148378473445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.454211878386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.906426917133</t>
   </si>
   <si>
     <t xml:space="preserve">time</t>
@@ -2551,6 +2623,182 @@
         <v>144.889144445401</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" t="n">
+        <v>652337.430519783</v>
+      </c>
+      <c r="C106" t="n">
+        <v>65.2337430519783</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1391602.35233014</v>
+      </c>
+      <c r="C107" t="n">
+        <v>139.160235233014</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1377764.88603498</v>
+      </c>
+      <c r="C108" t="n">
+        <v>137.776488603498</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1497787.69083112</v>
+      </c>
+      <c r="C109" t="n">
+        <v>149.778769083112</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" t="n">
+        <v>674382.277702118</v>
+      </c>
+      <c r="C110" t="n">
+        <v>67.4382277702118</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1438670.81950154</v>
+      </c>
+      <c r="C111" t="n">
+        <v>143.867081950154</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1424390.5208906</v>
+      </c>
+      <c r="C112" t="n">
+        <v>142.43905208906</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1548491.52084353</v>
+      </c>
+      <c r="C113" t="n">
+        <v>154.849152084353</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" t="n">
+        <v>697216.302293026</v>
+      </c>
+      <c r="C114" t="n">
+        <v>69.7216302293026</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1487388.90415494</v>
+      </c>
+      <c r="C115" t="n">
+        <v>148.738890415494</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1472628.57410196</v>
+      </c>
+      <c r="C116" t="n">
+        <v>147.262857410196</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1600934.6945855</v>
+      </c>
+      <c r="C117" t="n">
+        <v>160.09346945855</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" t="n">
+        <v>720829.756119316</v>
+      </c>
+      <c r="C118" t="n">
+        <v>72.0829756119316</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1537764.91054443</v>
+      </c>
+      <c r="C119" t="n">
+        <v>153.776491054443</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1522505.17145261</v>
+      </c>
+      <c r="C120" t="n">
+        <v>152.250517145261</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1655157.23856895</v>
+      </c>
+      <c r="C121" t="n">
+        <v>165.515723856895</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2573,27 +2821,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B2" t="n">
         <v>1268339.44776394</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -2601,13 +2849,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B3" t="n">
         <v>1181742.02474809</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D3" t="n">
         <v>-6.82762198783019</v>
@@ -2616,18 +2864,18 @@
         <v>-6.82762198783021</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B4" t="n">
         <v>1255521.7432531</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D4" t="n">
         <v>6.24330158020237</v>
@@ -2636,18 +2884,18 @@
         <v>6.24329724991903</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B5" t="n">
         <v>1341359.11229986</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D5" t="n">
         <v>6.83678873010638</v>
@@ -2656,18 +2904,18 @@
         <v>7.6663847391887</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B6" t="n">
         <v>1418177.87380604</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D6" t="n">
         <v>5.72693477844768</v>
@@ -2676,18 +2924,18 @@
         <v>1.54743982776746</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B7" t="n">
         <v>1456786.02615356</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D7" t="n">
         <v>2.72237728853451</v>
@@ -2696,18 +2944,18 @@
         <v>1.5788753246931</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B8" t="n">
         <v>1412661.46918943</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D8" t="n">
         <v>-3.02889759868384</v>
@@ -2716,18 +2964,18 @@
         <v>-3.02889206895451</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B9" t="n">
         <v>1448417.39136552</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D9" t="n">
         <v>2.53110337868925</v>
@@ -2736,18 +2984,18 @@
         <v>5.28968892387627</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B10" t="n">
         <v>1484911.37799451</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D10" t="n">
         <v>2.51957666668019</v>
@@ -2756,18 +3004,18 @@
         <v>0.271335430596431</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B11" t="n">
         <v>1537487.07336937</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D11" t="n">
         <v>3.54066216704965</v>
@@ -2776,18 +3024,18 @@
         <v>0.276483893436885</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B12" t="n">
         <v>1488681.63006098</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D12" t="n">
         <v>-3.17436446483018</v>
@@ -2796,18 +3044,18 @@
         <v>-3.17435401271137</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B13" t="n">
         <v>1501661.9697565</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="D13" t="n">
         <v>0.87193523674971</v>
@@ -2816,18 +3064,18 @@
         <v>13.12875360473</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B14" t="n">
         <v>1593615.66063709</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D14" t="n">
         <v>6.12346138695274</v>
@@ -2836,18 +3084,18 @@
         <v>7.78774190127929</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B15" t="n">
         <v>1625302.76330134</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="D15" t="n">
         <v>1.98837796633946</v>
@@ -2856,18 +3104,18 @@
         <v>1.98837980725486</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B16" t="n">
         <v>1504965.93291003</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D16" t="n">
         <v>-7.40396393265668</v>
@@ -2876,18 +3124,18 @@
         <v>-5.37090609171479</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B17" t="n">
         <v>1449487.28229673</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D17" t="n">
         <v>-3.68637252180388</v>
@@ -2896,18 +3144,18 @@
         <v>-0.58101303558894</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B18" t="n">
         <v>1420710.16137235</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D18" t="n">
         <v>-1.98533103917834</v>
@@ -2916,18 +3164,18 @@
         <v>-1.98534113567506</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B19" t="n">
         <v>1491774.18825657</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D19" t="n">
         <v>5.00200736338601</v>
@@ -2936,18 +3184,18 @@
         <v>22.4243776501392</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B20" t="n">
         <v>1839729.48695581</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D20" t="n">
         <v>23.3249309069959</v>
@@ -2956,18 +3204,18 @@
         <v>16.4994671431798</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B21" t="n">
         <v>1891618.24141996</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D21" t="n">
         <v>2.82045566112026</v>
@@ -2976,18 +3224,18 @@
         <v>0.0777316922210947</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B22" t="n">
         <v>1884039.09004532</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="D22" t="n">
         <v>-0.400670241419665</v>
@@ -2996,18 +3244,18 @@
         <v>-0.725733953069041</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B23" t="n">
         <v>2035994.69986112</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D23" t="n">
         <v>8.06541704037287</v>
@@ -3016,18 +3264,18 @@
         <v>6.56474270928626</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B24" t="n">
         <v>2151223.49965331</v>
       </c>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D24" t="n">
         <v>5.65958250284511</v>
@@ -3036,18 +3284,18 @@
         <v>2.80718634633208</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B25" t="n">
         <v>2213601.71210574</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="D25" t="n">
         <v>2.89966209752155</v>
@@ -3056,18 +3304,18 @@
         <v>3.94848100525615</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B26" t="n">
         <v>2258851.0735989</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D26" t="n">
         <v>2.04415099815394</v>
@@ -3076,18 +3324,18 @@
         <v>1.99430666623375</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="B27" t="n">
         <v>2296968.61209565</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D27" t="n">
         <v>1.68747461673175</v>
@@ -3096,7 +3344,87 @@
         <v>3.18971591250974</v>
       </c>
       <c r="F27" t="s">
-        <v>119</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2357307.20684955</v>
+      </c>
+      <c r="C28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.62687937641646</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.36085799827193</v>
+      </c>
+      <c r="F28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2420090.74730695</v>
+      </c>
+      <c r="C29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.66335844029884</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.38333240609754</v>
+      </c>
+      <c r="F29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2485058.53192241</v>
+      </c>
+      <c r="C30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.68451853252822</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.38646348198632</v>
+      </c>
+      <c r="F30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2552234.96921028</v>
+      </c>
+      <c r="C31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.70321348269804</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.38689417031837</v>
+      </c>
+      <c r="F31" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3115,22 +3443,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2">
@@ -3629,46 +3957,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
@@ -3712,7 +4040,7 @@
         <v>132947.420754456</v>
       </c>
       <c r="N2" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
@@ -3756,7 +4084,7 @@
         <v>212179.739504027</v>
       </c>
       <c r="N3" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
@@ -3800,7 +4128,7 @@
         <v>212276.33848145</v>
       </c>
       <c r="N4" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5">
@@ -3844,7 +4172,7 @@
         <v>227150.506767315</v>
       </c>
       <c r="N5" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
@@ -3888,7 +4216,7 @@
         <v>141393.103621597</v>
       </c>
       <c r="N6" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7">
@@ -3932,7 +4260,7 @@
         <v>226795.429710672</v>
       </c>
       <c r="N7" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
@@ -3976,7 +4304,7 @@
         <v>226141.013334937</v>
       </c>
       <c r="N8" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9">
@@ -4020,7 +4348,7 @@
         <v>239206.415486733</v>
       </c>
       <c r="N9" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10">
@@ -4064,7 +4392,7 @@
         <v>151583.382586458</v>
       </c>
       <c r="N10" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11">
@@ -4108,7 +4436,7 @@
         <v>241196.029205423</v>
       </c>
       <c r="N11" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12">
@@ -4152,7 +4480,7 @@
         <v>240580.767817142</v>
       </c>
       <c r="N12" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13">
@@ -4196,7 +4524,7 @@
         <v>257163.48842593</v>
       </c>
       <c r="N13" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14">
@@ -4240,7 +4568,7 @@
         <v>162331.055571178</v>
       </c>
       <c r="N14" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15">
@@ -4284,7 +4612,7 @@
         <v>255636.177730075</v>
       </c>
       <c r="N15" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16">
@@ -4328,7 +4656,7 @@
         <v>254761.346080887</v>
       </c>
       <c r="N16" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17">
@@ -4372,7 +4700,7 @@
         <v>268794.802071233</v>
       </c>
       <c r="N17" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18">
@@ -4416,7 +4744,7 @@
         <v>172152.944149418</v>
       </c>
       <c r="N18" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19">
@@ -4460,7 +4788,7 @@
         <v>262959.217922613</v>
       </c>
       <c r="N19" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20">
@@ -4504,7 +4832,7 @@
         <v>259489.313219138</v>
       </c>
       <c r="N20" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
@@ -4548,7 +4876,7 @@
         <v>272553.853557768</v>
       </c>
       <c r="N21" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22">
@@ -4592,7 +4920,7 @@
         <v>165954.121361025</v>
       </c>
       <c r="N22" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23">
@@ -4636,7 +4964,7 @@
         <v>254451.023334684</v>
       </c>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
@@ -4680,7 +5008,7 @@
         <v>251850.110041742</v>
       </c>
       <c r="N24" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25">
@@ -4724,7 +5052,7 @@
         <v>265605.637329344</v>
       </c>
       <c r="N25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26">
@@ -4768,7 +5096,7 @@
         <v>165394.611610315</v>
       </c>
       <c r="N26" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27">
@@ -4812,7 +5140,7 @@
         <v>260338.040947399</v>
       </c>
       <c r="N27" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28">
@@ -4856,7 +5184,7 @@
         <v>259586.928674046</v>
       </c>
       <c r="N28" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
@@ -4900,7 +5228,7 @@
         <v>276279.52476645</v>
       </c>
       <c r="N29" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
@@ -4944,7 +5272,7 @@
         <v>169633.912671073</v>
       </c>
       <c r="N30" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31">
@@ -4988,7 +5316,7 @@
         <v>266450.157233896</v>
       </c>
       <c r="N31" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32">
@@ -5032,7 +5360,7 @@
         <v>266503.51816605</v>
       </c>
       <c r="N32" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33">
@@ -5076,7 +5404,7 @@
         <v>283239.162626905</v>
       </c>
       <c r="N33" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34">
@@ -5120,7 +5448,7 @@
         <v>181107.650782012</v>
       </c>
       <c r="N34" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35">
@@ -5164,7 +5492,7 @@
         <v>276683.096726239</v>
       </c>
       <c r="N35" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36">
@@ -5208,7 +5536,7 @@
         <v>274530.816452221</v>
       </c>
       <c r="N36" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37">
@@ -5252,7 +5580,7 @@
         <v>288409.591236635</v>
       </c>
       <c r="N37" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38">
@@ -5296,7 +5624,7 @@
         <v>181453.27855698</v>
       </c>
       <c r="N38" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39">
@@ -5340,7 +5668,7 @@
         <v>270137.047097937</v>
       </c>
       <c r="N39" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40">
@@ -5384,7 +5712,7 @@
         <v>263887.320242544</v>
       </c>
       <c r="N40" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41">
@@ -5428,7 +5756,7 @@
         <v>272851.771650393</v>
       </c>
       <c r="N41" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42">
@@ -5472,7 +5800,7 @@
         <v>169545.058154116</v>
       </c>
       <c r="N42" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43">
@@ -5516,7 +5844,7 @@
         <v>270276.397914076</v>
       </c>
       <c r="N43" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44">
@@ -5560,7 +5888,7 @@
         <v>268450.180533682</v>
       </c>
       <c r="N44" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45">
@@ -5604,7 +5932,7 @@
         <v>288675.05677442</v>
       </c>
       <c r="N45" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46">
@@ -5648,7 +5976,7 @@
         <v>171154.950219043</v>
       </c>
       <c r="N46" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47">
@@ -5692,7 +6020,7 @@
         <v>288532.41522993</v>
       </c>
       <c r="N47" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48">
@@ -5736,7 +6064,7 @@
         <v>289609.170758743</v>
       </c>
       <c r="N48" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49">
@@ -5780,7 +6108,7 @@
         <v>308698.106163459</v>
       </c>
       <c r="N49" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50">
@@ -5824,7 +6152,7 @@
         <v>183405.31431924</v>
       </c>
       <c r="N50" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51">
@@ -5868,7 +6196,7 @@
         <v>296357.683513839</v>
       </c>
       <c r="N51" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52">
@@ -5912,7 +6240,7 @@
         <v>291988.326762593</v>
       </c>
       <c r="N52" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53">
@@ -5956,7 +6284,7 @@
         <v>307280.861394363</v>
       </c>
       <c r="N53" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54">
@@ -6000,7 +6328,7 @@
         <v>168979.639599388</v>
       </c>
       <c r="N54" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55">
@@ -6044,7 +6372,7 @@
         <v>274326.632053725</v>
       </c>
       <c r="N55" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56">
@@ -6088,7 +6416,7 @@
         <v>270052.111531832</v>
       </c>
       <c r="N56" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57">
@@ -6132,7 +6460,7 @@
         <v>285782.401860167</v>
       </c>
       <c r="N57" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58">
@@ -6176,7 +6504,7 @@
         <v>153859.834863015</v>
       </c>
       <c r="N58" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59">
@@ -6220,7 +6548,7 @@
         <v>262279.881650588</v>
       </c>
       <c r="N59" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60">
@@ -6264,7 +6592,7 @@
         <v>262568.888808087</v>
       </c>
       <c r="N60" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61">
@@ -6308,7 +6636,7 @@
         <v>283600.019780695</v>
       </c>
       <c r="N61" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62">
@@ -6352,7 +6680,7 @@
         <v>158488.861968795</v>
       </c>
       <c r="N62" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63">
@@ -6396,7 +6724,7 @@
         <v>264177.013235019</v>
       </c>
       <c r="N63" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64">
@@ -6440,7 +6768,7 @@
         <v>257066.434451383</v>
       </c>
       <c r="N64" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65">
@@ -6484,7 +6812,7 @@
         <v>263471.781077842</v>
       </c>
       <c r="N65" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66">
@@ -6528,7 +6856,7 @@
         <v>147564.46110679</v>
       </c>
       <c r="N66" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67">
@@ -6572,7 +6900,7 @@
         <v>270161.370594591</v>
       </c>
       <c r="N67" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68">
@@ -6616,7 +6944,7 @@
         <v>270234.255710547</v>
       </c>
       <c r="N68" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69">
@@ -6660,7 +6988,7 @@
         <v>302423.029869192</v>
       </c>
       <c r="N69" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70">
@@ -6704,7 +7032,7 @@
         <v>174444.054917061</v>
       </c>
       <c r="N70" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71">
@@ -6748,7 +7076,7 @@
         <v>338611.306219553</v>
       </c>
       <c r="N71" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72">
@@ -6792,7 +7120,7 @@
         <v>342392.336499563</v>
       </c>
       <c r="N72" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73">
@@ -6836,7 +7164,7 @@
         <v>365941.859530217</v>
       </c>
       <c r="N73" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74">
@@ -6880,7 +7208,7 @@
         <v>203613.060426295</v>
       </c>
       <c r="N74" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75">
@@ -6924,7 +7252,7 @@
         <v>348369.318706765</v>
       </c>
       <c r="N75" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76">
@@ -6968,7 +7296,7 @@
         <v>341264.200852872</v>
       </c>
       <c r="N76" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77">
@@ -7012,7 +7340,7 @@
         <v>362592.580291987</v>
       </c>
       <c r="N77" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78">
@@ -7056,7 +7384,7 @@
         <v>197030.448484361</v>
       </c>
       <c r="N78" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79">
@@ -7100,7 +7428,7 @@
         <v>347853.535772949</v>
       </c>
       <c r="N79" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80">
@@ -7144,7 +7472,7 @@
         <v>345871.87410849</v>
       </c>
       <c r="N80" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81">
@@ -7188,7 +7516,7 @@
         <v>371745.201973878</v>
       </c>
       <c r="N81" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82">
@@ -7232,7 +7560,7 @@
         <v>211599.878486715</v>
       </c>
       <c r="N82" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83">
@@ -7276,7 +7604,7 @@
         <v>374923.023234774</v>
       </c>
       <c r="N83" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84">
@@ -7320,7 +7648,7 @@
         <v>374356.279947385</v>
       </c>
       <c r="N84" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85">
@@ -7364,7 +7692,7 @@
         <v>402250.239172714</v>
       </c>
       <c r="N85" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86">
@@ -7408,7 +7736,7 @@
         <v>218161.644542643</v>
       </c>
       <c r="N86" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87">
@@ -7452,7 +7780,7 @@
         <v>374051.031218892</v>
       </c>
       <c r="N87" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88">
@@ -7496,7 +7824,7 @@
         <v>370119.002327364</v>
       </c>
       <c r="N88" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89">
@@ -7540,7 +7868,7 @@
         <v>392365.714838474</v>
       </c>
       <c r="N89" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90">
@@ -7584,7 +7912,7 @@
         <v>224956.232518354</v>
       </c>
       <c r="N90" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91">
@@ -7628,7 +7956,7 @@
         <v>383870.997190286</v>
       </c>
       <c r="N91" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92">
@@ -7672,7 +8000,7 @@
         <v>379616.057817982</v>
       </c>
       <c r="N92" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93">
@@ -7716,7 +8044,7 @@
         <v>405535.752239579</v>
       </c>
       <c r="N93" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94">
@@ -7760,7 +8088,7 @@
         <v>225694.858612034</v>
       </c>
       <c r="N94" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95">
@@ -7804,7 +8132,7 @@
         <v>391619.225768974</v>
       </c>
       <c r="N95" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96">
@@ -7848,7 +8176,7 @@
         <v>389280.648419773</v>
       </c>
       <c r="N96" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97">
@@ -7892,7 +8220,7 @@
         <v>415879.343420858</v>
       </c>
       <c r="N97" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -7911,37 +8239,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2">
@@ -8092,7 +8420,7 @@
         <v>6.35264890376479</v>
       </c>
       <c r="K6" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
@@ -8127,7 +8455,7 @@
         <v>6.88835335589</v>
       </c>
       <c r="K7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
@@ -8162,7 +8490,7 @@
         <v>6.53142736146208</v>
       </c>
       <c r="K8" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9">
@@ -8197,7 +8525,7 @@
         <v>5.30745402728372</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10">
@@ -8232,7 +8560,7 @@
         <v>7.20705515605058</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
@@ -8267,7 +8595,7 @@
         <v>6.34959862865088</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
@@ -8302,7 +8630,7 @@
         <v>6.38528777653384</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
@@ -8337,7 +8665,7 @@
         <v>7.50693617587928</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
@@ -8372,7 +8700,7 @@
         <v>7.09027124301691</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
@@ -8407,7 +8735,7 @@
         <v>5.98689313925374</v>
       </c>
       <c r="K15" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
@@ -8442,7 +8770,7 @@
         <v>5.89431083473937</v>
       </c>
       <c r="K16" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17">
@@ -8477,7 +8805,7 @@
         <v>4.52292575298954</v>
       </c>
       <c r="K17" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
@@ -8512,7 +8840,7 @@
         <v>6.05052960672288</v>
       </c>
       <c r="K18" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19">
@@ -8547,7 +8875,7 @@
         <v>2.86463373751038</v>
       </c>
       <c r="K19" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20">
@@ -8582,7 +8910,7 @@
         <v>1.85584163805963</v>
       </c>
       <c r="K20" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21">
@@ -8617,7 +8945,7 @@
         <v>1.39848369744096</v>
       </c>
       <c r="K21" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22">
@@ -8652,7 +8980,7 @@
         <v>-3.60076490066445</v>
       </c>
       <c r="K22" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23">
@@ -8687,7 +9015,7 @@
         <v>-3.23555669778132</v>
       </c>
       <c r="K23" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24">
@@ -8722,7 +9050,7 @@
         <v>-2.94393749115398</v>
       </c>
       <c r="K24" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25">
@@ -8757,7 +9085,7 @@
         <v>-2.54930030807687</v>
       </c>
       <c r="K25" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26">
@@ -8792,7 +9120,7 @@
         <v>-0.337147246552794</v>
       </c>
       <c r="K26" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27">
@@ -8827,7 +9155,7 @@
         <v>2.31361522369311</v>
       </c>
       <c r="K27" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28">
@@ -8862,7 +9190,7 @@
         <v>3.07199334994235</v>
       </c>
       <c r="K28" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29">
@@ -8897,7 +9225,7 @@
         <v>4.01869762420375</v>
       </c>
       <c r="K29" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30">
@@ -8932,7 +9260,7 @@
         <v>2.5631433935382</v>
       </c>
       <c r="K30" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31">
@@ -8967,7 +9295,7 @@
         <v>2.34776149665059</v>
       </c>
       <c r="K31" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32">
@@ -9002,7 +9330,7 @@
         <v>2.66445985063009</v>
       </c>
       <c r="K32" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33">
@@ -9037,7 +9365,7 @@
         <v>2.51905669315833</v>
       </c>
       <c r="K33" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34">
@@ -9072,7 +9400,7 @@
         <v>6.76382330058449</v>
       </c>
       <c r="K34" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35">
@@ -9107,7 +9435,7 @@
         <v>3.84047042740525</v>
       </c>
       <c r="K35" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36">
@@ -9142,7 +9470,7 @@
         <v>3.01207966837036</v>
       </c>
       <c r="K36" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37">
@@ -9177,7 +9505,7 @@
         <v>1.82546388069236</v>
       </c>
       <c r="K37" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38">
@@ -9212,7 +9540,7 @@
         <v>0.190841067991987</v>
       </c>
       <c r="K38" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39">
@@ -9247,7 +9575,7 @@
         <v>-2.36590153347123</v>
       </c>
       <c r="K39" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40">
@@ -9282,7 +9610,7 @@
         <v>-3.87697685353653</v>
       </c>
       <c r="K40" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41">
@@ -9317,7 +9645,7 @@
         <v>-5.39434889094124</v>
       </c>
       <c r="K41" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42">
@@ -9352,7 +9680,7 @@
         <v>-6.56269233466888</v>
       </c>
       <c r="K42" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43">
@@ -9387,7 +9715,7 @@
         <v>0.0515852296589792</v>
       </c>
       <c r="K43" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44">
@@ -9422,7 +9750,7 @@
         <v>1.72909417813034</v>
       </c>
       <c r="K44" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45">
@@ -9457,7 +9785,7 @@
         <v>5.79922388933638</v>
       </c>
       <c r="K45" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46">
@@ -9492,7 +9820,7 @@
         <v>0.949536413773622</v>
       </c>
       <c r="K46" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47">
@@ -9527,7 +9855,7 @@
         <v>6.75457326527529</v>
       </c>
       <c r="K47" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48">
@@ -9562,7 +9890,7 @@
         <v>7.8819057536103</v>
       </c>
       <c r="K48" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49">
@@ -9597,7 +9925,7 @@
         <v>6.93618964269758</v>
       </c>
       <c r="K49" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50">
@@ -9632,7 +9960,7 @@
         <v>7.15746993266588</v>
       </c>
       <c r="K50" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51">
@@ -9667,7 +9995,7 @@
         <v>2.71209329380688</v>
       </c>
       <c r="K51" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52">
@@ -9702,7 +10030,7 @@
         <v>0.821505754675167</v>
       </c>
       <c r="K52" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
@@ -9737,7 +10065,7 @@
         <v>-0.459103810745698</v>
       </c>
       <c r="K53" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54">
@@ -9772,7 +10100,7 @@
         <v>-7.86546168162926</v>
       </c>
       <c r="K54" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55">
@@ -9807,7 +10135,7 @@
         <v>-7.43393969034245</v>
       </c>
       <c r="K55" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -9842,7 +10170,7 @@
         <v>-7.51270281040968</v>
       </c>
       <c r="K56" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -9877,7 +10205,7 @@
         <v>-6.99635487763263</v>
       </c>
       <c r="K57" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -9912,7 +10240,7 @@
         <v>-8.9477080032947</v>
       </c>
       <c r="K58" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59">
@@ -9947,7 +10275,7 @@
         <v>-4.39138931315189</v>
       </c>
       <c r="K59" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
@@ -9982,7 +10310,7 @@
         <v>-2.77102914741079</v>
       </c>
       <c r="K60" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61">
@@ -10017,7 +10345,7 @@
         <v>-0.763651668285437</v>
       </c>
       <c r="K61" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
@@ -10052,7 +10380,7 @@
         <v>3.0086000741522</v>
       </c>
       <c r="K62" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63">
@@ -10087,7 +10415,7 @@
         <v>0.723323334024673</v>
       </c>
       <c r="K63" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
@@ -10122,7 +10450,7 @@
         <v>-2.09562312644199</v>
       </c>
       <c r="K64" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65">
@@ -10157,7 +10485,7 @@
         <v>-7.097403843067</v>
       </c>
       <c r="K65" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66">
@@ -10192,7 +10520,7 @@
         <v>-6.89285084535163</v>
       </c>
       <c r="K66" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67">
@@ -10227,7 +10555,7 @@
         <v>2.26528314719361</v>
       </c>
       <c r="K67" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
@@ -10262,7 +10590,7 @@
         <v>5.12234173522768</v>
       </c>
       <c r="K68" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
@@ -10297,7 +10625,7 @@
         <v>14.7838408470175</v>
       </c>
       <c r="K69" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
@@ -10332,7 +10660,7 @@
         <v>18.2154928149118</v>
       </c>
       <c r="K70" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71">
@@ -10367,7 +10695,7 @@
         <v>25.336685061344</v>
       </c>
       <c r="K71" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72">
@@ -10402,7 +10730,7 @@
         <v>26.7020480432006</v>
       </c>
       <c r="K72" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73">
@@ -10437,7 +10765,7 @@
         <v>21.0033044403063</v>
       </c>
       <c r="K73" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
@@ -10472,7 +10800,7 @@
         <v>16.7211232982986</v>
       </c>
       <c r="K74" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
@@ -10507,7 +10835,7 @@
         <v>2.88177397150609</v>
       </c>
       <c r="K75" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
@@ -10542,7 +10870,7 @@
         <v>-0.32948624324507</v>
       </c>
       <c r="K76" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77">
@@ -10577,7 +10905,7 @@
         <v>-0.915249007733054</v>
       </c>
       <c r="K77" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78">
@@ -10612,7 +10940,7 @@
         <v>-3.23290260858101</v>
       </c>
       <c r="K78" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79">
@@ -10647,7 +10975,7 @@
         <v>-0.14805636033931</v>
       </c>
       <c r="K79" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80">
@@ -10682,7 +11010,7 @@
         <v>1.35017773446566</v>
       </c>
       <c r="K80" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81">
@@ -10717,7 +11045,7 @@
         <v>2.52421648411028</v>
       </c>
       <c r="K81" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82">
@@ -10752,7 +11080,7 @@
         <v>7.3945068462401</v>
       </c>
       <c r="K82" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83">
@@ -10787,7 +11115,7 @@
         <v>7.78186353681165</v>
       </c>
       <c r="K83" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84">
@@ -10822,7 +11150,7 @@
         <v>8.23553690577354</v>
       </c>
       <c r="K84" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85">
@@ -10857,7 +11185,7 @@
         <v>8.20589937324314</v>
       </c>
       <c r="K85" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86">
@@ -10892,7 +11220,7 @@
         <v>3.10102543671367</v>
       </c>
       <c r="K86" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87">
@@ -10927,7 +11255,7 @@
         <v>-0.232578946035011</v>
       </c>
       <c r="K87" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88">
@@ -10962,7 +11290,7 @@
         <v>-1.13188367525611</v>
       </c>
       <c r="K88" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89">
@@ -10997,7 +11325,7 @@
         <v>-2.45730726091526</v>
       </c>
       <c r="K89" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90">
@@ -11032,7 +11360,7 @@
         <v>3.11447412763819</v>
       </c>
       <c r="K90" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91">
@@ -11067,7 +11395,7 @@
         <v>2.6253011358889</v>
       </c>
       <c r="K91" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92">
@@ -11102,7 +11430,7 @@
         <v>2.56594647421471</v>
       </c>
       <c r="K92" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93">
@@ -11137,7 +11465,7 @@
         <v>3.35657191824914</v>
       </c>
       <c r="K93" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94">
@@ -11172,7 +11500,7 @@
         <v>0.328342133672543</v>
       </c>
       <c r="K94" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95">
@@ -11207,7 +11535,7 @@
         <v>2.01844594548708</v>
       </c>
       <c r="K95" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96">
@@ -11242,7 +11570,7 @@
         <v>2.54588561330682</v>
       </c>
       <c r="K96" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97">
@@ -11277,7 +11605,7 @@
         <v>2.55059908384299</v>
       </c>
       <c r="K97" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98">
@@ -11312,7 +11640,7 @@
         <v>1.431351342006</v>
       </c>
       <c r="K98" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99">
@@ -11347,7 +11675,7 @@
         <v>1.83801569760271</v>
       </c>
       <c r="K99" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100">
@@ -11382,7 +11710,7 @@
         <v>1.62099038678343</v>
       </c>
       <c r="K100" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101">
@@ -11417,7 +11745,567 @@
         <v>1.74694366532624</v>
       </c>
       <c r="K101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="n">
+        <v>371475.7564003</v>
+      </c>
+      <c r="C102" t="n">
+        <v>240489.994115164</v>
+      </c>
+      <c r="D102" t="n">
+        <v>233930.709111495</v>
+      </c>
+      <c r="E102" t="n">
+        <v>137545.047288806</v>
+      </c>
+      <c r="F102" t="n">
+        <v>16.3084357629946</v>
+      </c>
+      <c r="G102" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H102" t="n">
+        <v>14746.3556658732</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3.33799595843256</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.18646131641183</v>
+      </c>
+      <c r="K102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="n">
+        <v>650332.366126681</v>
+      </c>
+      <c r="C103" t="n">
+        <v>417440.390918196</v>
+      </c>
+      <c r="D103" t="n">
+        <v>409536.043591047</v>
+      </c>
+      <c r="E103" t="n">
+        <v>240796.322535634</v>
+      </c>
+      <c r="F103" t="n">
+        <v>34.7900588082535</v>
+      </c>
+      <c r="G103" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H103" t="n">
+        <v>11998.8411982553</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3.3512668379452</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2.68764578635323</v>
+      </c>
+      <c r="K103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="n">
+        <v>645112.763756231</v>
+      </c>
+      <c r="C104" t="n">
+        <v>415051.803435576</v>
+      </c>
+      <c r="D104" t="n">
+        <v>406249.085390514</v>
+      </c>
+      <c r="E104" t="n">
+        <v>238863.678365718</v>
+      </c>
+      <c r="F104" t="n">
+        <v>34.4441221508745</v>
+      </c>
+      <c r="G104" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H104" t="n">
+        <v>12050.0038182869</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3.36628983713656</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.69425722914043</v>
+      </c>
+      <c r="K104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" t="n">
+        <v>690386.320566341</v>
+      </c>
+      <c r="C105" t="n">
+        <v>444146.629795952</v>
+      </c>
+      <c r="D105" t="n">
+        <v>434759.35844633</v>
+      </c>
+      <c r="E105" t="n">
+        <v>255626.962120011</v>
+      </c>
+      <c r="F105" t="n">
+        <v>37.444692270778</v>
+      </c>
+      <c r="G105" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H105" t="n">
+        <v>11861.4041900557</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3.37473497854324</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.74488658045891</v>
+      </c>
+      <c r="K105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" t="n">
+        <v>379791.248135182</v>
+      </c>
+      <c r="C106" t="n">
+        <v>248617.023043927</v>
+      </c>
+      <c r="D106" t="n">
+        <v>239167.252397661</v>
+      </c>
+      <c r="E106" t="n">
+        <v>140623.995737521</v>
+      </c>
+      <c r="F106" t="n">
+        <v>16.8595569425529</v>
+      </c>
+      <c r="G106" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H106" t="n">
+        <v>14746.3556658732</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3.37936260452962</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.23850186495644</v>
+      </c>
+      <c r="K106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" t="n">
+        <v>668086.96639676</v>
+      </c>
+      <c r="C107" t="n">
+        <v>431559.567494069</v>
+      </c>
+      <c r="D107" t="n">
+        <v>420716.709245834</v>
+      </c>
+      <c r="E107" t="n">
+        <v>247370.257150926</v>
+      </c>
+      <c r="F107" t="n">
+        <v>35.9667704875385</v>
+      </c>
+      <c r="G107" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H107" t="n">
+        <v>11998.8411982553</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3.38232161598366</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.73008098548495</v>
+      </c>
+      <c r="K107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" t="n">
+        <v>662700.324153847</v>
+      </c>
+      <c r="C108" t="n">
+        <v>429097.780386583</v>
+      </c>
+      <c r="D108" t="n">
+        <v>417324.560450377</v>
+      </c>
+      <c r="E108" t="n">
+        <v>245375.76370347</v>
+      </c>
+      <c r="F108" t="n">
+        <v>35.609763022265</v>
+      </c>
+      <c r="G108" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H108" t="n">
+        <v>12050.0038182869</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3.38415032406598</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.72627692176022</v>
+      </c>
+      <c r="K108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" t="n">
+        <v>709512.208621166</v>
+      </c>
+      <c r="C109" t="n">
+        <v>459182.095339979</v>
+      </c>
+      <c r="D109" t="n">
+        <v>446803.569886688</v>
+      </c>
+      <c r="E109" t="n">
+        <v>262708.638734477</v>
+      </c>
+      <c r="F109" t="n">
+        <v>38.7122880210883</v>
+      </c>
+      <c r="G109" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H109" t="n">
+        <v>11861.4041900557</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3.38524814450003</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.77031677556052</v>
+      </c>
+      <c r="K109" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
         <v>119</v>
+      </c>
+      <c r="B110" t="n">
+        <v>388404.423866876</v>
+      </c>
+      <c r="C110" t="n">
+        <v>257034.989241448</v>
+      </c>
+      <c r="D110" t="n">
+        <v>244591.257253703</v>
+      </c>
+      <c r="E110" t="n">
+        <v>143813.166613173</v>
+      </c>
+      <c r="F110" t="n">
+        <v>17.4304075573257</v>
+      </c>
+      <c r="G110" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H110" t="n">
+        <v>14746.3556658732</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3.38591706008533</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2.26787104073234</v>
+      </c>
+      <c r="K110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" t="n">
+        <v>686463.815504575</v>
+      </c>
+      <c r="C111" t="n">
+        <v>446173.581525052</v>
+      </c>
+      <c r="D111" t="n">
+        <v>432289.225807032</v>
+      </c>
+      <c r="E111" t="n">
+        <v>254174.589697543</v>
+      </c>
+      <c r="F111" t="n">
+        <v>37.1847226038735</v>
+      </c>
+      <c r="G111" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H111" t="n">
+        <v>11998.8411982553</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3.38632604436084</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2.75066720833197</v>
+      </c>
+      <c r="K111" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" t="n">
+        <v>680896.101582837</v>
+      </c>
+      <c r="C112" t="n">
+        <v>443629.498521174</v>
+      </c>
+      <c r="D112" t="n">
+        <v>428783.050118843</v>
+      </c>
+      <c r="E112" t="n">
+        <v>252113.051463993</v>
+      </c>
+      <c r="F112" t="n">
+        <v>36.815714352549</v>
+      </c>
+      <c r="G112" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H112" t="n">
+        <v>12050.0038182869</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3.38657499498096</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.74570220743777</v>
+      </c>
+      <c r="K112" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" t="n">
+        <v>729294.190968123</v>
+      </c>
+      <c r="C113" t="n">
+        <v>474733.33735905</v>
+      </c>
+      <c r="D113" t="n">
+        <v>459260.945848171</v>
+      </c>
+      <c r="E113" t="n">
+        <v>270033.245119952</v>
+      </c>
+      <c r="F113" t="n">
+        <v>40.0233673646375</v>
+      </c>
+      <c r="G113" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H113" t="n">
+        <v>11861.4041900557</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3.38672656815078</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2.78811021242336</v>
+      </c>
+      <c r="K113" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" t="n">
+        <v>397311.606506902</v>
+      </c>
+      <c r="C114" t="n">
+        <v>265740.298957001</v>
+      </c>
+      <c r="D114" t="n">
+        <v>250200.408094012</v>
+      </c>
+      <c r="E114" t="n">
+        <v>147111.198412891</v>
+      </c>
+      <c r="F114" t="n">
+        <v>18.0207439029829</v>
+      </c>
+      <c r="G114" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H114" t="n">
+        <v>14746.3556658732</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3.38681894680737</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.29327528027314</v>
+      </c>
+      <c r="K114" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" t="n">
+        <v>705466.045880834</v>
+      </c>
+      <c r="C115" t="n">
+        <v>461284.924046796</v>
+      </c>
+      <c r="D115" t="n">
+        <v>444255.565871034</v>
+      </c>
+      <c r="E115" t="n">
+        <v>261210.4800098</v>
+      </c>
+      <c r="F115" t="n">
+        <v>38.4441227636107</v>
+      </c>
+      <c r="G115" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H115" t="n">
+        <v>11998.8411982553</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3.38687523140502</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.76813284940474</v>
+      </c>
+      <c r="K115" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" t="n">
+        <v>699709.950896599</v>
+      </c>
+      <c r="C116" t="n">
+        <v>458654.828234136</v>
+      </c>
+      <c r="D116" t="n">
+        <v>440630.760326727</v>
+      </c>
+      <c r="E116" t="n">
+        <v>259079.190569872</v>
+      </c>
+      <c r="F116" t="n">
+        <v>38.0626292863152</v>
+      </c>
+      <c r="G116" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H116" t="n">
+        <v>12050.0038182869</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3.3869095186521</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.76310134101614</v>
+      </c>
+      <c r="K116" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" t="n">
+        <v>749747.36592594</v>
+      </c>
+      <c r="C117" t="n">
+        <v>490812.225119069</v>
+      </c>
+      <c r="D117" t="n">
+        <v>472140.994247098</v>
+      </c>
+      <c r="E117" t="n">
+        <v>277606.371678843</v>
+      </c>
+      <c r="F117" t="n">
+        <v>41.3789309642237</v>
+      </c>
+      <c r="G117" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H117" t="n">
+        <v>11861.4041900557</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3.38693040801947</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.80451636817045</v>
+      </c>
+      <c r="K117" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -11436,10 +12324,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2">
@@ -12240,6 +13128,134 @@
       </c>
       <c r="B101" t="n">
         <v>429647.176254566</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="n">
+        <v>240489.994115164</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="n">
+        <v>417440.390918196</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="n">
+        <v>415051.803435576</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" t="n">
+        <v>444146.629795952</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" t="n">
+        <v>248617.023043927</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" t="n">
+        <v>431559.567494069</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" t="n">
+        <v>429097.780386583</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" t="n">
+        <v>459182.095339979</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" t="n">
+        <v>257034.989241448</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" t="n">
+        <v>446173.581525052</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" t="n">
+        <v>443629.498521174</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" t="n">
+        <v>474733.33735905</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" t="n">
+        <v>265740.298957001</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" t="n">
+        <v>461284.924046796</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" t="n">
+        <v>458654.828234136</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" t="n">
+        <v>490812.225119069</v>
       </c>
     </row>
   </sheetData>

--- a/prod_result_AGV.xlsx
+++ b/prod_result_AGV.xlsx
@@ -1115,10 +1115,10 @@
         <v>337599.23039295</v>
       </c>
       <c r="C2" t="n">
-        <v>117932.700642307</v>
+        <v>109694.025141769</v>
       </c>
       <c r="D2" t="n">
-        <v>0.349327516253633</v>
+        <v>0.324923800963914</v>
       </c>
     </row>
     <row r="3">
@@ -1129,10 +1129,10 @@
         <v>362951.61224775</v>
       </c>
       <c r="C3" t="n">
-        <v>136717.739459252</v>
+        <v>117932.700642307</v>
       </c>
       <c r="D3" t="n">
-        <v>0.376683102776599</v>
+        <v>0.324926785452068</v>
       </c>
     </row>
     <row r="4">
@@ -1143,10 +1143,10 @@
         <v>420763.405103661</v>
       </c>
       <c r="C4" t="n">
-        <v>151276.075953567</v>
+        <v>136717.739459252</v>
       </c>
       <c r="D4" t="n">
-        <v>0.359527644559057</v>
+        <v>0.324927828325682</v>
       </c>
     </row>
     <row r="5">
@@ -1157,10 +1157,10 @@
         <v>465567.042549756</v>
       </c>
       <c r="C5" t="n">
-        <v>147350.807192459</v>
+        <v>151276.075953567</v>
       </c>
       <c r="D5" t="n">
-        <v>0.316497504603134</v>
+        <v>0.32492866145567</v>
       </c>
     </row>
     <row r="6">
@@ -1171,10 +1171,10 @@
         <v>453489.699975393</v>
       </c>
       <c r="C6" t="n">
-        <v>149686.250391068</v>
+        <v>147350.807192459</v>
       </c>
       <c r="D6" t="n">
-        <v>0.330076406143712</v>
+        <v>0.324926469554776</v>
       </c>
     </row>
     <row r="7">
@@ -1185,10 +1185,10 @@
         <v>460677.98622973</v>
       </c>
       <c r="C7" t="n">
-        <v>149796.896333062</v>
+        <v>149686.250391068</v>
       </c>
       <c r="D7" t="n">
-        <v>0.325166169885881</v>
+        <v>0.324925989227587</v>
       </c>
     </row>
     <row r="8">
@@ -1199,10 +1199,10 @@
         <v>461019.050866138</v>
       </c>
       <c r="C8" t="n">
-        <v>146745.719357229</v>
+        <v>149796.896333062</v>
       </c>
       <c r="D8" t="n">
-        <v>0.318307278368499</v>
+        <v>0.324925610019004</v>
       </c>
     </row>
     <row r="9">
@@ -1213,10 +1213,10 @@
         <v>451628.46852433</v>
       </c>
       <c r="C9" t="n">
-        <v>144089.673053089</v>
+        <v>146745.719357229</v>
       </c>
       <c r="D9" t="n">
-        <v>0.31904470841684</v>
+        <v>0.324925751108455</v>
       </c>
     </row>
     <row r="10">
@@ -1227,10 +1227,10 @@
         <v>443452.948855107</v>
       </c>
       <c r="C10" t="n">
-        <v>144764.946022176</v>
+        <v>144089.673053089</v>
       </c>
       <c r="D10" t="n">
-        <v>0.326449393100048</v>
+        <v>0.324926631844697</v>
       </c>
     </row>
     <row r="11">
@@ -1241,10 +1241,10 @@
         <v>445530.548349865</v>
       </c>
       <c r="C11" t="n">
-        <v>153773.49517347</v>
+        <v>144764.946022176</v>
       </c>
       <c r="D11" t="n">
-        <v>0.345146916957791</v>
+        <v>0.324927093233786</v>
       </c>
     </row>
     <row r="12">
@@ -1255,10 +1255,10 @@
         <v>473256.602568002</v>
       </c>
       <c r="C12" t="n">
-        <v>158727.934634695</v>
+        <v>153773.49517347</v>
       </c>
       <c r="D12" t="n">
-        <v>0.33539507694853</v>
+        <v>0.324926254254159</v>
       </c>
     </row>
     <row r="13">
@@ -1269,10 +1269,10 @@
         <v>488502.65745269</v>
       </c>
       <c r="C13" t="n">
-        <v>184071.974201413</v>
+        <v>158727.934634695</v>
       </c>
       <c r="D13" t="n">
-        <v>0.37680854217101</v>
+        <v>0.324927474217615</v>
       </c>
     </row>
     <row r="14">
@@ -1283,10 +1283,10 @@
         <v>566501.380704318</v>
       </c>
       <c r="C14" t="n">
-        <v>181306.845727584</v>
+        <v>184071.974201413</v>
       </c>
       <c r="D14" t="n">
-        <v>0.320046608716416</v>
+        <v>0.324927670913282</v>
       </c>
     </row>
     <row r="15">
@@ -1297,10 +1297,10 @@
         <v>557991.361831373</v>
       </c>
       <c r="C15" t="n">
-        <v>184262.729920365</v>
+        <v>181306.845727584</v>
       </c>
       <c r="D15" t="n">
-        <v>0.330225058172226</v>
+        <v>0.324927692666281</v>
       </c>
     </row>
     <row r="16">
@@ -1311,10 +1311,10 @@
         <v>567088.499082604</v>
       </c>
       <c r="C16" t="n">
-        <v>166664.380076588</v>
+        <v>184262.729920365</v>
       </c>
       <c r="D16" t="n">
-        <v>0.293894833603937</v>
+        <v>0.324927643954078</v>
       </c>
     </row>
     <row r="17">
@@ -1325,10 +1325,10 @@
         <v>512928.316379446</v>
       </c>
       <c r="C17" t="n">
-        <v>182585.238527713</v>
+        <v>166664.380076588</v>
       </c>
       <c r="D17" t="n">
-        <v>0.355966384964878</v>
+        <v>0.324927235940111</v>
       </c>
     </row>
     <row r="18">
@@ -1339,10 +1339,10 @@
         <v>561927.281382695</v>
       </c>
       <c r="C18" t="n">
-        <v>203028.236480717</v>
+        <v>182585.238527713</v>
       </c>
       <c r="D18" t="n">
-        <v>0.361306957692353</v>
+        <v>0.32492680917438</v>
       </c>
     </row>
     <row r="19">
@@ -1353,10 +1353,10 @@
         <v>624842.417676914</v>
       </c>
       <c r="C19" t="n">
-        <v>217971.44817132</v>
+        <v>203028.236480717</v>
       </c>
       <c r="D19" t="n">
-        <v>0.348842271274909</v>
+        <v>0.324927102797454</v>
       </c>
     </row>
     <row r="20">
@@ -1367,10 +1367,10 @@
         <v>670833.675508944</v>
       </c>
       <c r="C20" t="n">
-        <v>253486</v>
+        <v>217971.44817132</v>
       </c>
       <c r="D20" t="n">
-        <v>0.377867136451799</v>
+        <v>0.324926216630301</v>
       </c>
     </row>
     <row r="21">
@@ -1381,10 +1381,10 @@
         <v>780135</v>
       </c>
       <c r="C21" t="n">
-        <v>335766</v>
+        <v>253486</v>
       </c>
       <c r="D21" t="n">
-        <v>0.430394739372032</v>
+        <v>0.324925814121915</v>
       </c>
     </row>
     <row r="22">
@@ -1395,10 +1395,10 @@
         <v>898015</v>
       </c>
       <c r="C22" t="n">
-        <v>323998.024813585</v>
+        <v>335766</v>
       </c>
       <c r="D22" t="n">
-        <v>0.360793555579344</v>
+        <v>0.373897986113818</v>
       </c>
     </row>
     <row r="23">
@@ -1409,10 +1409,10 @@
         <v>995874.978659677</v>
       </c>
       <c r="C23" t="n">
-        <v>464205.395848346</v>
+        <v>323998.024813585</v>
       </c>
       <c r="D23" t="n">
-        <v>0.466128184556969</v>
+        <v>0.325340059501892</v>
       </c>
     </row>
     <row r="24">
@@ -1423,10 +1423,10 @@
         <v>1006122.19980364</v>
       </c>
       <c r="C24" t="n">
-        <v>483682.106568631</v>
+        <v>464205.395848346</v>
       </c>
       <c r="D24" t="n">
-        <v>0.48073892680534</v>
+        <v>0.461380730828662</v>
       </c>
     </row>
     <row r="25">
@@ -1437,10 +1437,10 @@
         <v>1048336.16631521</v>
       </c>
       <c r="C25" t="n">
-        <v>473097.501468016</v>
+        <v>483682.106568631</v>
       </c>
       <c r="D25" t="n">
-        <v>0.451284155473623</v>
+        <v>0.461380730828662</v>
       </c>
     </row>
     <row r="26">
@@ -1451,10 +1451,10 @@
         <v>1025395.01512842</v>
       </c>
       <c r="C26" t="n">
-        <v>3489936.78038338</v>
+        <v>473097.501468016</v>
       </c>
       <c r="D26" t="n">
-        <v>3.40350472636763</v>
+        <v>0.461380730828662</v>
       </c>
     </row>
   </sheetData>
@@ -4034,13 +4034,13 @@
         <v>362951.61224775</v>
       </c>
       <c r="K2" t="n">
-        <v>0.376683102776599</v>
+        <v>0.324926785452068</v>
       </c>
       <c r="L2" t="n">
-        <v>33228.8815953822</v>
+        <v>28663.228059259</v>
       </c>
       <c r="M2" t="n">
-        <v>54985.5388297607</v>
+        <v>59551.192365884</v>
       </c>
       <c r="N2" t="s">
         <v>211</v>
@@ -4078,13 +4078,13 @@
         <v>362951.61224775</v>
       </c>
       <c r="K3" t="n">
-        <v>0.376683102776599</v>
+        <v>0.324926785452068</v>
       </c>
       <c r="L3" t="n">
-        <v>32797.8567513765</v>
+        <v>28291.4260963346</v>
       </c>
       <c r="M3" t="n">
-        <v>54272.2998593596</v>
+        <v>58778.7305144014</v>
       </c>
       <c r="N3" t="s">
         <v>212</v>
@@ -4122,13 +4122,13 @@
         <v>362951.61224775</v>
       </c>
       <c r="K4" t="n">
-        <v>0.376683102776599</v>
+        <v>0.324926785452068</v>
       </c>
       <c r="L4" t="n">
-        <v>33379.4778258642</v>
+        <v>28793.1323440835</v>
       </c>
       <c r="M4" t="n">
-        <v>55234.7381552033</v>
+        <v>59821.0836369839</v>
       </c>
       <c r="N4" t="s">
         <v>213</v>
@@ -4166,13 +4166,13 @@
         <v>362951.61224775</v>
       </c>
       <c r="K5" t="n">
-        <v>0.376683102776599</v>
+        <v>0.324926785452068</v>
       </c>
       <c r="L5" t="n">
-        <v>37311.5232866287</v>
+        <v>32184.9141426299</v>
       </c>
       <c r="M5" t="n">
-        <v>61741.295944175</v>
+        <v>66867.9050881739</v>
       </c>
       <c r="N5" t="s">
         <v>214</v>
@@ -4210,13 +4210,13 @@
         <v>420764.00259986</v>
       </c>
       <c r="K6" t="n">
-        <v>0.359527644559057</v>
+        <v>0.324927828325682</v>
       </c>
       <c r="L6" t="n">
-        <v>36478.899022864</v>
+        <v>32968.283854078</v>
       </c>
       <c r="M6" t="n">
-        <v>64984.5060168336</v>
+        <v>68495.1211856196</v>
       </c>
       <c r="N6" t="s">
         <v>215</v>
@@ -4254,13 +4254,13 @@
         <v>420764.00259986</v>
       </c>
       <c r="K7" t="n">
-        <v>0.359527644559057</v>
+        <v>0.324927828325682</v>
       </c>
       <c r="L7" t="n">
-        <v>36822.7996607504</v>
+        <v>33279.088569986</v>
       </c>
       <c r="M7" t="n">
-        <v>65597.1399962176</v>
+        <v>69140.851086982</v>
       </c>
       <c r="N7" t="s">
         <v>216</v>
@@ -4298,13 +4298,13 @@
         <v>420764.00259986</v>
       </c>
       <c r="K8" t="n">
-        <v>0.359527644559057</v>
+        <v>0.324927828325682</v>
       </c>
       <c r="L8" t="n">
-        <v>37206.7227411421</v>
+        <v>33626.0640936868</v>
       </c>
       <c r="M8" t="n">
-        <v>66281.0710466608</v>
+        <v>69861.7296941161</v>
       </c>
       <c r="N8" t="s">
         <v>217</v>
@@ -4342,13 +4342,13 @@
         <v>420764.00259986</v>
       </c>
       <c r="K9" t="n">
-        <v>0.359527644559057</v>
+        <v>0.324927828325682</v>
       </c>
       <c r="L9" t="n">
-        <v>40767.8693452119</v>
+        <v>36844.4970846433</v>
       </c>
       <c r="M9" t="n">
-        <v>72624.9947701796</v>
+        <v>76548.3670307482</v>
       </c>
       <c r="N9" t="s">
         <v>218</v>
@@ -4386,13 +4386,13 @@
         <v>465567.433174618</v>
       </c>
       <c r="K10" t="n">
-        <v>0.316497504603134</v>
+        <v>0.32492866145567</v>
       </c>
       <c r="L10" t="n">
-        <v>37703.7318966143</v>
+        <v>38708.1192074872</v>
       </c>
       <c r="M10" t="n">
-        <v>81424.322347896</v>
+        <v>80419.9350370231</v>
       </c>
       <c r="N10" t="s">
         <v>219</v>
@@ -4430,13 +4430,13 @@
         <v>465567.433174618</v>
       </c>
       <c r="K11" t="n">
-        <v>0.316497504603134</v>
+        <v>0.32492866145567</v>
       </c>
       <c r="L11" t="n">
-        <v>36358.1218811194</v>
+        <v>37326.6635725546</v>
       </c>
       <c r="M11" t="n">
-        <v>78518.3664081326</v>
+        <v>77549.8247166974</v>
       </c>
       <c r="N11" t="s">
         <v>220</v>
@@ -4474,13 +4474,13 @@
         <v>465567.433174618</v>
       </c>
       <c r="K12" t="n">
-        <v>0.316497504603134</v>
+        <v>0.32492866145567</v>
       </c>
       <c r="L12" t="n">
-        <v>36058.9539745824</v>
+        <v>37019.5261512234</v>
       </c>
       <c r="M12" t="n">
-        <v>77872.2886107197</v>
+        <v>76911.7164340787</v>
       </c>
       <c r="N12" t="s">
         <v>221</v>
@@ -4518,13 +4518,13 @@
         <v>465567.433174618</v>
       </c>
       <c r="K13" t="n">
-        <v>0.316497504603134</v>
+        <v>0.32492866145567</v>
       </c>
       <c r="L13" t="n">
-        <v>37230.1230719369</v>
+        <v>38221.8939475156</v>
       </c>
       <c r="M13" t="n">
-        <v>80401.524983617</v>
+        <v>79409.7541080383</v>
       </c>
       <c r="N13" t="s">
         <v>222</v>
@@ -4562,13 +4562,13 @@
         <v>453489.930276764</v>
       </c>
       <c r="K14" t="n">
-        <v>0.330076406143712</v>
+        <v>0.324926469554776</v>
       </c>
       <c r="L14" t="n">
-        <v>37547.2437654874</v>
+        <v>36961.4220560818</v>
       </c>
       <c r="M14" t="n">
-        <v>76205.9450920637</v>
+        <v>76791.7668014693</v>
       </c>
       <c r="N14" t="s">
         <v>223</v>
@@ -4606,13 +4606,13 @@
         <v>453489.930276764</v>
       </c>
       <c r="K15" t="n">
-        <v>0.330076406143712</v>
+        <v>0.324926469554776</v>
       </c>
       <c r="L15" t="n">
-        <v>37090.004814497</v>
+        <v>36511.3170642589</v>
       </c>
       <c r="M15" t="n">
-        <v>75277.932196876</v>
+        <v>75856.6199471141</v>
       </c>
       <c r="N15" t="s">
         <v>224</v>
@@ -4650,13 +4650,13 @@
         <v>453489.930276764</v>
       </c>
       <c r="K16" t="n">
-        <v>0.330076406143712</v>
+        <v>0.324926469554776</v>
       </c>
       <c r="L16" t="n">
-        <v>36926.2043038039</v>
+        <v>36350.0722110669</v>
       </c>
       <c r="M16" t="n">
-        <v>74945.4824223494</v>
+        <v>75521.6145150864</v>
       </c>
       <c r="N16" t="s">
         <v>225</v>
@@ -4694,13 +4694,13 @@
         <v>453489.930276764</v>
       </c>
       <c r="K17" t="n">
-        <v>0.330076406143712</v>
+        <v>0.324926469554776</v>
       </c>
       <c r="L17" t="n">
-        <v>38122.8735243286</v>
+        <v>37528.0706920631</v>
       </c>
       <c r="M17" t="n">
-        <v>77374.2441573585</v>
+        <v>77969.046989624</v>
       </c>
       <c r="N17" t="s">
         <v>226</v>
@@ -4738,13 +4738,13 @@
         <v>460678.259748167</v>
       </c>
       <c r="K18" t="n">
-        <v>0.325166169885881</v>
+        <v>0.324925989227587</v>
       </c>
       <c r="L18" t="n">
-        <v>36057.9594946015</v>
+        <v>36031.3256524302</v>
       </c>
       <c r="M18" t="n">
-        <v>74832.9105711751</v>
+        <v>74859.5444133463</v>
       </c>
       <c r="N18" t="s">
         <v>227</v>
@@ -4782,13 +4782,13 @@
         <v>460678.259748167</v>
       </c>
       <c r="K19" t="n">
-        <v>0.325166169885881</v>
+        <v>0.324925989227587</v>
       </c>
       <c r="L19" t="n">
-        <v>36864.1560491203</v>
+        <v>36836.9267181279</v>
       </c>
       <c r="M19" t="n">
-        <v>76506.0511346651</v>
+        <v>76533.2804656575</v>
       </c>
       <c r="N19" t="s">
         <v>228</v>
@@ -4826,13 +4826,13 @@
         <v>460678.259748167</v>
       </c>
       <c r="K20" t="n">
-        <v>0.325166169885881</v>
+        <v>0.324925989227587</v>
       </c>
       <c r="L20" t="n">
-        <v>36391.1939499872</v>
+        <v>36364.3139676013</v>
       </c>
       <c r="M20" t="n">
-        <v>75524.4889230462</v>
+        <v>75551.3689054321</v>
       </c>
       <c r="N20" t="s">
         <v>229</v>
@@ -4870,13 +4870,13 @@
         <v>460678.259748167</v>
       </c>
       <c r="K21" t="n">
-        <v>0.325166169885881</v>
+        <v>0.324925989227587</v>
       </c>
       <c r="L21" t="n">
-        <v>40483.6757782957</v>
+        <v>40453.772926157</v>
       </c>
       <c r="M21" t="n">
-        <v>84017.8238472762</v>
+        <v>84047.7266994149</v>
       </c>
       <c r="N21" t="s">
         <v>230</v>
@@ -4914,13 +4914,13 @@
         <v>461019.298662307</v>
       </c>
       <c r="K22" t="n">
-        <v>0.318307278368499</v>
+        <v>0.324925610019004</v>
       </c>
       <c r="L22" t="n">
-        <v>35790.2923634024</v>
+        <v>36534.4538728207</v>
       </c>
       <c r="M22" t="n">
-        <v>76649.1483771533</v>
+        <v>75904.9868677349</v>
       </c>
       <c r="N22" t="s">
         <v>231</v>
@@ -4958,13 +4958,13 @@
         <v>461019.298662307</v>
       </c>
       <c r="K23" t="n">
-        <v>0.318307278368499</v>
+        <v>0.324925610019004</v>
       </c>
       <c r="L23" t="n">
-        <v>36167.1400595342</v>
+        <v>36919.1370889178</v>
       </c>
       <c r="M23" t="n">
-        <v>77456.2123341365</v>
+        <v>76704.215304753</v>
       </c>
       <c r="N23" t="s">
         <v>232</v>
@@ -5002,13 +5002,13 @@
         <v>461019.298662307</v>
       </c>
       <c r="K24" t="n">
-        <v>0.318307278368499</v>
+        <v>0.324925610019004</v>
       </c>
       <c r="L24" t="n">
-        <v>36498.8528789683</v>
+        <v>37257.7469716644</v>
       </c>
       <c r="M24" t="n">
-        <v>78166.6146090676</v>
+        <v>77407.7205163716</v>
       </c>
       <c r="N24" t="s">
         <v>233</v>
@@ -5046,13 +5046,13 @@
         <v>461019.298662307</v>
       </c>
       <c r="K25" t="n">
-        <v>0.318307278368499</v>
+        <v>0.324925610019004</v>
       </c>
       <c r="L25" t="n">
-        <v>38289.5129306482</v>
+        <v>39085.6389149808</v>
       </c>
       <c r="M25" t="n">
-        <v>82001.5251093965</v>
+        <v>81205.399125064</v>
       </c>
       <c r="N25" t="s">
         <v>234</v>
@@ -5090,13 +5090,13 @@
         <v>451628.715100048</v>
       </c>
       <c r="K26" t="n">
-        <v>0.31904470841684</v>
+        <v>0.324925751108455</v>
       </c>
       <c r="L26" t="n">
-        <v>36206.5382916273</v>
+        <v>36873.9438049965</v>
       </c>
       <c r="M26" t="n">
-        <v>77277.6767304335</v>
+        <v>76610.2712170643</v>
       </c>
       <c r="N26" t="s">
         <v>211</v>
@@ -5134,13 +5134,13 @@
         <v>451628.715100048</v>
       </c>
       <c r="K27" t="n">
-        <v>0.31904470841684</v>
+        <v>0.324925751108455</v>
       </c>
       <c r="L27" t="n">
-        <v>35872.3244784593</v>
+        <v>36533.5693326747</v>
       </c>
       <c r="M27" t="n">
-        <v>76564.3451546607</v>
+        <v>75903.1003004453</v>
       </c>
       <c r="N27" t="s">
         <v>212</v>
@@ -5178,13 +5178,13 @@
         <v>451628.715100048</v>
       </c>
       <c r="K28" t="n">
-        <v>0.31904470841684</v>
+        <v>0.324925751108455</v>
       </c>
       <c r="L28" t="n">
-        <v>35399.2034209826</v>
+        <v>36051.7270989368</v>
       </c>
       <c r="M28" t="n">
-        <v>75554.5359362385</v>
+        <v>74902.0122582843</v>
       </c>
       <c r="N28" t="s">
         <v>213</v>
@@ -5222,13 +5222,13 @@
         <v>451628.715100048</v>
       </c>
       <c r="K29" t="n">
-        <v>0.31904470841684</v>
+        <v>0.324925751108455</v>
       </c>
       <c r="L29" t="n">
-        <v>36611.6855306974</v>
+        <v>37286.5592394213</v>
       </c>
       <c r="M29" t="n">
-        <v>78142.4055569483</v>
+        <v>77467.5318482244</v>
       </c>
       <c r="N29" t="s">
         <v>214</v>
@@ -5266,13 +5266,13 @@
         <v>443453.229033698</v>
       </c>
       <c r="K30" t="n">
-        <v>0.326449393100048</v>
+        <v>0.324926631844697</v>
       </c>
       <c r="L30" t="n">
-        <v>35998.4920124709</v>
+        <v>35830.5728493592</v>
       </c>
       <c r="M30" t="n">
-        <v>74274.31833225</v>
+        <v>74442.2374953617</v>
       </c>
       <c r="N30" t="s">
         <v>215</v>
@@ -5310,13 +5310,13 @@
         <v>443453.229033698</v>
       </c>
       <c r="K31" t="n">
-        <v>0.326449393100048</v>
+        <v>0.324926631844697</v>
       </c>
       <c r="L31" t="n">
-        <v>35548.9721533374</v>
+        <v>35383.1498280188</v>
       </c>
       <c r="M31" t="n">
-        <v>73346.8411173049</v>
+        <v>73512.6634426234</v>
       </c>
       <c r="N31" t="s">
         <v>216</v>
@@ -5354,13 +5354,13 @@
         <v>443453.229033698</v>
       </c>
       <c r="K32" t="n">
-        <v>0.326449393100048</v>
+        <v>0.324926631844697</v>
       </c>
       <c r="L32" t="n">
-        <v>35265.7773007942</v>
+        <v>35101.2759708835</v>
       </c>
       <c r="M32" t="n">
-        <v>72762.5359575065</v>
+        <v>72927.0372874172</v>
       </c>
       <c r="N32" t="s">
         <v>217</v>
@@ -5398,13 +5398,13 @@
         <v>443453.229033698</v>
       </c>
       <c r="K33" t="n">
-        <v>0.326449393100048</v>
+        <v>0.324926631844697</v>
       </c>
       <c r="L33" t="n">
-        <v>37951.7960197049</v>
+        <v>37774.7654423128</v>
       </c>
       <c r="M33" t="n">
-        <v>78304.4961403288</v>
+        <v>78481.5267177209</v>
       </c>
       <c r="N33" t="s">
         <v>218</v>
@@ -5442,13 +5442,13 @@
         <v>445530.857783398</v>
       </c>
       <c r="K34" t="n">
-        <v>0.345146916957791</v>
+        <v>0.324927093233786</v>
       </c>
       <c r="L34" t="n">
-        <v>37172.9763491317</v>
+        <v>34995.2630561922</v>
       </c>
       <c r="M34" t="n">
-        <v>70528.9167368136</v>
+        <v>72706.6300297531</v>
       </c>
       <c r="N34" t="s">
         <v>219</v>
@@ -5486,13 +5486,13 @@
         <v>445530.857783398</v>
       </c>
       <c r="K35" t="n">
-        <v>0.345146916957791</v>
+        <v>0.324927093233786</v>
       </c>
       <c r="L35" t="n">
-        <v>37992.237182072</v>
+        <v>35766.5289373826</v>
       </c>
       <c r="M35" t="n">
-        <v>72083.3141713772</v>
+        <v>74309.0224160666</v>
       </c>
       <c r="N35" t="s">
         <v>220</v>
@@ -5530,13 +5530,13 @@
         <v>445530.857783398</v>
       </c>
       <c r="K36" t="n">
-        <v>0.345146916957791</v>
+        <v>0.324927093233786</v>
       </c>
       <c r="L36" t="n">
-        <v>38320.2070322978</v>
+        <v>36075.2852520601</v>
       </c>
       <c r="M36" t="n">
-        <v>72705.5769151916</v>
+        <v>74950.4986954293</v>
       </c>
       <c r="N36" t="s">
         <v>221</v>
@@ -5574,13 +5574,13 @@
         <v>445530.857783398</v>
       </c>
       <c r="K37" t="n">
-        <v>0.345146916957791</v>
+        <v>0.324927093233786</v>
       </c>
       <c r="L37" t="n">
-        <v>40288.1814099986</v>
+        <v>37927.9693198801</v>
       </c>
       <c r="M37" t="n">
-        <v>76439.4479865158</v>
+        <v>78799.6600766343</v>
       </c>
       <c r="N37" t="s">
         <v>222</v>
@@ -5618,13 +5618,13 @@
         <v>473256.904567139</v>
       </c>
       <c r="K38" t="n">
-        <v>0.33539507694853</v>
+        <v>0.324926254254159</v>
       </c>
       <c r="L38" t="n">
-        <v>38445.0196726173</v>
+        <v>37245.0196663678</v>
       </c>
       <c r="M38" t="n">
-        <v>76181.0506394315</v>
+        <v>77381.050645681</v>
       </c>
       <c r="N38" t="s">
         <v>223</v>
@@ -5662,13 +5662,13 @@
         <v>473256.904567139</v>
       </c>
       <c r="K39" t="n">
-        <v>0.33539507694853</v>
+        <v>0.324926254254159</v>
       </c>
       <c r="L39" t="n">
-        <v>38922.7829411269</v>
+        <v>37707.8703160238</v>
       </c>
       <c r="M39" t="n">
-        <v>77127.7664445457</v>
+        <v>78342.6790696487</v>
       </c>
       <c r="N39" t="s">
         <v>224</v>
@@ -5706,13 +5706,13 @@
         <v>473256.904567139</v>
       </c>
       <c r="K40" t="n">
-        <v>0.33539507694853</v>
+        <v>0.324926254254159</v>
       </c>
       <c r="L40" t="n">
-        <v>38683.5105853719</v>
+        <v>37476.0664654445</v>
       </c>
       <c r="M40" t="n">
-        <v>76653.6343045284</v>
+        <v>77861.0784244558</v>
       </c>
       <c r="N40" t="s">
         <v>225</v>
@@ -5750,13 +5750,13 @@
         <v>473256.904567139</v>
       </c>
       <c r="K41" t="n">
-        <v>0.33539507694853</v>
+        <v>0.324926254254159</v>
       </c>
       <c r="L41" t="n">
-        <v>42676.7227246029</v>
+        <v>41344.6368530822</v>
       </c>
       <c r="M41" t="n">
-        <v>84566.4172549146</v>
+        <v>85898.5031264353</v>
       </c>
       <c r="N41" t="s">
         <v>226</v>
@@ -5794,13 +5794,13 @@
         <v>488502.860238057</v>
       </c>
       <c r="K42" t="n">
-        <v>0.37680854217101</v>
+        <v>0.324927474217615</v>
       </c>
       <c r="L42" t="n">
-        <v>42671.9689457555</v>
+        <v>36796.6580841052</v>
       </c>
       <c r="M42" t="n">
-        <v>70573.7889659356</v>
+        <v>76449.0998275858</v>
       </c>
       <c r="N42" t="s">
         <v>227</v>
@@ -5838,13 +5838,13 @@
         <v>488502.860238057</v>
       </c>
       <c r="K43" t="n">
-        <v>0.37680854217101</v>
+        <v>0.324927474217615</v>
       </c>
       <c r="L43" t="n">
-        <v>43530.9000052899</v>
+        <v>37537.3268016815</v>
       </c>
       <c r="M43" t="n">
-        <v>71994.3472581701</v>
+        <v>77987.9204617785</v>
       </c>
       <c r="N43" t="s">
         <v>228</v>
@@ -5882,13 +5882,13 @@
         <v>488502.860238057</v>
       </c>
       <c r="K44" t="n">
-        <v>0.37680854217101</v>
+        <v>0.324927474217615</v>
       </c>
       <c r="L44" t="n">
-        <v>46222.3001996973</v>
+        <v>39858.1602473328</v>
       </c>
       <c r="M44" t="n">
-        <v>76445.5669706808</v>
+        <v>82809.7069230453</v>
       </c>
       <c r="N44" t="s">
         <v>229</v>
@@ -5926,13 +5926,13 @@
         <v>488502.860238057</v>
       </c>
       <c r="K45" t="n">
-        <v>0.37680854217101</v>
+        <v>0.324927474217615</v>
       </c>
       <c r="L45" t="n">
-        <v>51646.8814619284</v>
+        <v>44535.8553921128</v>
       </c>
       <c r="M45" t="n">
-        <v>85417.1064305994</v>
+        <v>92528.132500415</v>
       </c>
       <c r="N45" t="s">
         <v>230</v>
@@ -5970,13 +5970,13 @@
         <v>566501.52893383</v>
       </c>
       <c r="K46" t="n">
-        <v>0.320046608716416</v>
+        <v>0.324927670913282</v>
       </c>
       <c r="L46" t="n">
-        <v>43668.5898028187</v>
+        <v>44334.5837458006</v>
       </c>
       <c r="M46" t="n">
-        <v>92775.8798885076</v>
+        <v>92109.8859455257</v>
       </c>
       <c r="N46" t="s">
         <v>231</v>
@@ -6014,13 +6014,13 @@
         <v>566501.52893383</v>
       </c>
       <c r="K47" t="n">
-        <v>0.320046608716416</v>
+        <v>0.324927670913282</v>
       </c>
       <c r="L47" t="n">
-        <v>45126.6703493187</v>
+        <v>45814.9016216197</v>
       </c>
       <c r="M47" t="n">
-        <v>95873.6374817953</v>
+        <v>95185.4062094943</v>
       </c>
       <c r="N47" t="s">
         <v>232</v>
@@ -6058,13 +6058,13 @@
         <v>566501.52893383</v>
       </c>
       <c r="K48" t="n">
-        <v>0.320046608716416</v>
+        <v>0.324927670913282</v>
       </c>
       <c r="L48" t="n">
-        <v>45498.4828893664</v>
+        <v>46192.3847111565</v>
       </c>
       <c r="M48" t="n">
-        <v>96663.5699186399</v>
+        <v>95969.6680968498</v>
       </c>
       <c r="N48" t="s">
         <v>233</v>
@@ -6102,13 +6102,13 @@
         <v>566501.52893383</v>
       </c>
       <c r="K49" t="n">
-        <v>0.320046608716416</v>
+        <v>0.324927670913282</v>
       </c>
       <c r="L49" t="n">
-        <v>47013.1501264329</v>
+        <v>47730.152286706</v>
       </c>
       <c r="M49" t="n">
-        <v>99881.5484769508</v>
+        <v>99164.5463166777</v>
       </c>
       <c r="N49" t="s">
         <v>234</v>
@@ -6146,13 +6146,13 @@
         <v>557991.230953468</v>
       </c>
       <c r="K50" t="n">
-        <v>0.330225058172226</v>
+        <v>0.324927692666281</v>
       </c>
       <c r="L50" t="n">
-        <v>46933.6817377887</v>
+        <v>46180.7865211722</v>
       </c>
       <c r="M50" t="n">
-        <v>95192.6668729541</v>
+        <v>95945.5620895707</v>
       </c>
       <c r="N50" t="s">
         <v>211</v>
@@ -6190,13 +6190,13 @@
         <v>557991.230953468</v>
       </c>
       <c r="K51" t="n">
-        <v>0.330225058172226</v>
+        <v>0.324927692666281</v>
       </c>
       <c r="L51" t="n">
-        <v>45094.9961808214</v>
+        <v>44371.5965739556</v>
       </c>
       <c r="M51" t="n">
-        <v>91463.3753444019</v>
+        <v>92186.7749512677</v>
       </c>
       <c r="N51" t="s">
         <v>212</v>
@@ -6234,13 +6234,13 @@
         <v>557991.230953468</v>
       </c>
       <c r="K52" t="n">
-        <v>0.330225058172226</v>
+        <v>0.324927692666281</v>
       </c>
       <c r="L52" t="n">
-        <v>45235.811797589</v>
+        <v>44510.153271321</v>
       </c>
       <c r="M52" t="n">
-        <v>91748.9828995977</v>
+        <v>92474.6414258656</v>
       </c>
       <c r="N52" t="s">
         <v>213</v>
@@ -6278,13 +6278,13 @@
         <v>557991.230953468</v>
       </c>
       <c r="K53" t="n">
-        <v>0.330225058172226</v>
+        <v>0.324927692666281</v>
       </c>
       <c r="L53" t="n">
-        <v>46998.1969850023</v>
+        <v>46244.2668352796</v>
       </c>
       <c r="M53" t="n">
-        <v>95323.5191353132</v>
+        <v>96077.449285036</v>
       </c>
       <c r="N53" t="s">
         <v>214</v>
@@ -6322,13 +6322,13 @@
         <v>567088.398656601</v>
       </c>
       <c r="K54" t="n">
-        <v>0.293894833603937</v>
+        <v>0.324927643954078</v>
       </c>
       <c r="L54" t="n">
-        <v>40326.4966132482</v>
+        <v>44584.6338051766</v>
       </c>
       <c r="M54" t="n">
-        <v>96887.5405262872</v>
+        <v>92629.4033343588</v>
       </c>
       <c r="N54" t="s">
         <v>215</v>
@@ -6366,13 +6366,13 @@
         <v>567088.398656601</v>
       </c>
       <c r="K55" t="n">
-        <v>0.293894833603937</v>
+        <v>0.324927643954078</v>
       </c>
       <c r="L55" t="n">
-        <v>40945.3466102475</v>
+        <v>45268.8291311719</v>
       </c>
       <c r="M55" t="n">
-        <v>98374.3757140547</v>
+        <v>94050.8931931303</v>
       </c>
       <c r="N55" t="s">
         <v>216</v>
@@ -6410,13 +6410,13 @@
         <v>567088.398656601</v>
       </c>
       <c r="K56" t="n">
-        <v>0.293894833603937</v>
+        <v>0.324927643954078</v>
       </c>
       <c r="L56" t="n">
-        <v>41955.2140865572</v>
+        <v>46385.3300773075</v>
       </c>
       <c r="M56" t="n">
-        <v>100800.660768656</v>
+        <v>96370.5447779052</v>
       </c>
       <c r="N56" t="s">
         <v>217</v>
@@ -6454,13 +6454,13 @@
         <v>567088.398656601</v>
       </c>
       <c r="K57" t="n">
-        <v>0.293894833603937</v>
+        <v>0.324927643954078</v>
       </c>
       <c r="L57" t="n">
-        <v>43437.2932518518</v>
+        <v>48023.9042755242</v>
       </c>
       <c r="M57" t="n">
-        <v>104361.471085698</v>
+        <v>99774.860062026</v>
       </c>
       <c r="N57" t="s">
         <v>218</v>
@@ -6498,13 +6498,13 @@
         <v>512928.183400621</v>
       </c>
       <c r="K58" t="n">
-        <v>0.355966384964878</v>
+        <v>0.324927235940111</v>
       </c>
       <c r="L58" t="n">
-        <v>46563.4817122604</v>
+        <v>42503.2925791728</v>
       </c>
       <c r="M58" t="n">
-        <v>84245.1667415946</v>
+        <v>88305.3558746822</v>
       </c>
       <c r="N58" t="s">
         <v>219</v>
@@ -6542,13 +6542,13 @@
         <v>512928.183400621</v>
       </c>
       <c r="K59" t="n">
-        <v>0.355966384964878</v>
+        <v>0.324927235940111</v>
       </c>
       <c r="L59" t="n">
-        <v>45380.7493675445</v>
+        <v>41423.6907744591</v>
       </c>
       <c r="M59" t="n">
-        <v>82105.3034855135</v>
+        <v>86062.3620785989</v>
       </c>
       <c r="N59" t="s">
         <v>220</v>
@@ -6586,13 +6586,13 @@
         <v>512928.183400621</v>
       </c>
       <c r="K60" t="n">
-        <v>0.355966384964878</v>
+        <v>0.324927235940111</v>
       </c>
       <c r="L60" t="n">
-        <v>44087.1215542206</v>
+        <v>40242.8632371621</v>
       </c>
       <c r="M60" t="n">
-        <v>79764.8021564142</v>
+        <v>83609.0604734727</v>
       </c>
       <c r="N60" t="s">
         <v>221</v>
@@ -6630,13 +6630,13 @@
         <v>512928.183400621</v>
       </c>
       <c r="K61" t="n">
-        <v>0.355966384964878</v>
+        <v>0.324927235940111</v>
       </c>
       <c r="L61" t="n">
-        <v>46553.8385576958</v>
+        <v>42494.4902773523</v>
       </c>
       <c r="M61" t="n">
-        <v>84227.7198253775</v>
+        <v>88287.068105721</v>
       </c>
       <c r="N61" t="s">
         <v>222</v>
@@ -6674,13 +6674,13 @@
         <v>561927.342208436</v>
       </c>
       <c r="K62" t="n">
-        <v>0.361306957692353</v>
+        <v>0.32492680917438</v>
       </c>
       <c r="L62" t="n">
-        <v>47746.4073681122</v>
+        <v>42938.8016625763</v>
       </c>
       <c r="M62" t="n">
-        <v>84402.7426871919</v>
+        <v>89210.3483927279</v>
       </c>
       <c r="N62" t="s">
         <v>223</v>
@@ -6718,13 +6718,13 @@
         <v>561927.342208436</v>
       </c>
       <c r="K63" t="n">
-        <v>0.361306957692353</v>
+        <v>0.32492680917438</v>
       </c>
       <c r="L63" t="n">
-        <v>50029.2168524707</v>
+        <v>44991.7541062355</v>
       </c>
       <c r="M63" t="n">
-        <v>88438.1328271601</v>
+        <v>93475.5955733953</v>
       </c>
       <c r="N63" t="s">
         <v>224</v>
@@ -6762,13 +6762,13 @@
         <v>561927.342208436</v>
       </c>
       <c r="K64" t="n">
-        <v>0.361306957692353</v>
+        <v>0.32492680917438</v>
       </c>
       <c r="L64" t="n">
-        <v>51579.9212152431</v>
+        <v>46386.3173988623</v>
       </c>
       <c r="M64" t="n">
-        <v>91179.3589953597</v>
+        <v>96372.9628117405</v>
       </c>
       <c r="N64" t="s">
         <v>225</v>
@@ -6806,13 +6806,13 @@
         <v>561927.342208436</v>
       </c>
       <c r="K65" t="n">
-        <v>0.361306957692353</v>
+        <v>0.32492680917438</v>
       </c>
       <c r="L65" t="n">
-        <v>53672.713021654</v>
+        <v>48268.3851239527</v>
       </c>
       <c r="M65" t="n">
-        <v>94878.8492412443</v>
+        <v>100283.177138946</v>
       </c>
       <c r="N65" t="s">
         <v>226</v>
@@ -6850,13 +6850,13 @@
         <v>624842.234638633</v>
       </c>
       <c r="K66" t="n">
-        <v>0.348842271274909</v>
+        <v>0.324927102797454</v>
       </c>
       <c r="L66" t="n">
-        <v>53687.4425515714</v>
+        <v>50006.8558237872</v>
       </c>
       <c r="M66" t="n">
-        <v>100214.32616287</v>
+        <v>103894.912890654</v>
       </c>
       <c r="N66" t="s">
         <v>227</v>
@@ -6894,13 +6894,13 @@
         <v>624842.234638633</v>
       </c>
       <c r="K67" t="n">
-        <v>0.348842271274909</v>
+        <v>0.324927102797454</v>
       </c>
       <c r="L67" t="n">
-        <v>54094.5742316995</v>
+        <v>50386.0762571299</v>
       </c>
       <c r="M67" t="n">
-        <v>100974.288363423</v>
+        <v>104682.786337993</v>
       </c>
       <c r="N67" t="s">
         <v>228</v>
@@ -6938,13 +6938,13 @@
         <v>624842.234638633</v>
       </c>
       <c r="K68" t="n">
-        <v>0.348842271274909</v>
+        <v>0.324927102797454</v>
       </c>
       <c r="L68" t="n">
-        <v>54158.5697380146</v>
+        <v>50445.6844989379</v>
       </c>
       <c r="M68" t="n">
-        <v>101093.743979821</v>
+        <v>104806.629218898</v>
       </c>
       <c r="N68" t="s">
         <v>229</v>
@@ -6982,13 +6982,13 @@
         <v>624842.234638633</v>
       </c>
       <c r="K69" t="n">
-        <v>0.348842271274909</v>
+        <v>0.324927102797454</v>
       </c>
       <c r="L69" t="n">
-        <v>56030.7977985449</v>
+        <v>52189.5604267632</v>
       </c>
       <c r="M69" t="n">
-        <v>104588.491812688</v>
+        <v>108429.72918447</v>
       </c>
       <c r="N69" t="s">
         <v>230</v>
@@ -7026,13 +7026,13 @@
         <v>670833.275476693</v>
       </c>
       <c r="K70" t="n">
-        <v>0.377867136451799</v>
+        <v>0.324926216630301</v>
       </c>
       <c r="L70" t="n">
-        <v>61150.6255615295</v>
+        <v>52583.1423046193</v>
       </c>
       <c r="M70" t="n">
-        <v>100680.398262713</v>
+        <v>109247.881519624</v>
       </c>
       <c r="N70" t="s">
         <v>231</v>
@@ -7070,13 +7070,13 @@
         <v>670833.275476693</v>
       </c>
       <c r="K71" t="n">
-        <v>0.377867136451799</v>
+        <v>0.324926216630301</v>
       </c>
       <c r="L71" t="n">
-        <v>62682.0557407945</v>
+        <v>53900.0120881484</v>
       </c>
       <c r="M71" t="n">
-        <v>103201.795205821</v>
+        <v>111983.838858467</v>
       </c>
       <c r="N71" t="s">
         <v>232</v>
@@ -7114,13 +7114,13 @@
         <v>670833.275476693</v>
       </c>
       <c r="K72" t="n">
-        <v>0.377867136451799</v>
+        <v>0.324926216630301</v>
       </c>
       <c r="L72" t="n">
-        <v>62773.2255762108</v>
+        <v>53978.4086112512</v>
       </c>
       <c r="M72" t="n">
-        <v>103351.900217093</v>
+        <v>112146.717182053</v>
       </c>
       <c r="N72" t="s">
         <v>233</v>
@@ -7158,13 +7158,13 @@
         <v>670833.275476693</v>
       </c>
       <c r="K73" t="n">
-        <v>0.377867136451799</v>
+        <v>0.324926216630301</v>
       </c>
       <c r="L73" t="n">
-        <v>66879.941962424</v>
+        <v>57509.7551863354</v>
       </c>
       <c r="M73" t="n">
-        <v>110113.332950107</v>
+        <v>119483.519726195</v>
       </c>
       <c r="N73" t="s">
         <v>234</v>
@@ -7202,13 +7202,13 @@
         <v>780134.714322739</v>
       </c>
       <c r="K74" t="n">
-        <v>0.430394739372032</v>
+        <v>0.324925814121915</v>
       </c>
       <c r="L74" t="n">
-        <v>78252.5852982515</v>
+        <v>59076.6630239887</v>
       </c>
       <c r="M74" t="n">
-        <v>103563.264524695</v>
+        <v>122739.186798958</v>
       </c>
       <c r="N74" t="s">
         <v>211</v>
@@ -7246,13 +7246,13 @@
         <v>780134.714322739</v>
       </c>
       <c r="K75" t="n">
-        <v>0.430394739372032</v>
+        <v>0.324925814121915</v>
       </c>
       <c r="L75" t="n">
-        <v>81868.257261071</v>
+        <v>61806.3087390619</v>
       </c>
       <c r="M75" t="n">
-        <v>108348.420062915</v>
+        <v>128410.368584925</v>
       </c>
       <c r="N75" t="s">
         <v>212</v>
@@ -7290,13 +7290,13 @@
         <v>780134.714322739</v>
       </c>
       <c r="K76" t="n">
-        <v>0.430394739372032</v>
+        <v>0.324925814121915</v>
       </c>
       <c r="L76" t="n">
-        <v>84364.8414017707</v>
+        <v>63691.1009082791</v>
       </c>
       <c r="M76" t="n">
-        <v>111652.52053175</v>
+        <v>132326.261025241</v>
       </c>
       <c r="N76" t="s">
         <v>213</v>
@@ -7334,13 +7334,13 @@
         <v>780134.714322739</v>
       </c>
       <c r="K77" t="n">
-        <v>0.430394739372032</v>
+        <v>0.324925814121915</v>
       </c>
       <c r="L77" t="n">
-        <v>91280.1930849164</v>
+        <v>68911.8345047537</v>
       </c>
       <c r="M77" t="n">
-        <v>120804.632157369</v>
+        <v>143172.990737532</v>
       </c>
       <c r="N77" t="s">
         <v>214</v>
@@ -7378,13 +7378,13 @@
         <v>898014.568720142</v>
       </c>
       <c r="K78" t="n">
-        <v>0.360793555579344</v>
+        <v>0.373897986113818</v>
       </c>
       <c r="L78" t="n">
-        <v>78804.9049911677</v>
+        <v>81667.1883863749</v>
       </c>
       <c r="M78" t="n">
-        <v>139616.13876785</v>
+        <v>136753.855372643</v>
       </c>
       <c r="N78" t="s">
         <v>215</v>
@@ -7422,13 +7422,13 @@
         <v>898014.568720142</v>
       </c>
       <c r="K79" t="n">
-        <v>0.360793555579344</v>
+        <v>0.373897986113818</v>
       </c>
       <c r="L79" t="n">
-        <v>79330.5301728081</v>
+        <v>82211.9048698789</v>
       </c>
       <c r="M79" t="n">
-        <v>140547.372151204</v>
+        <v>137665.997454133</v>
       </c>
       <c r="N79" t="s">
         <v>216</v>
@@ -7466,13 +7466,13 @@
         <v>898014.568720142</v>
       </c>
       <c r="K80" t="n">
-        <v>0.360793555579344</v>
+        <v>0.373897986113818</v>
       </c>
       <c r="L80" t="n">
-        <v>80299.3338143534</v>
+        <v>83215.8965568475</v>
       </c>
       <c r="M80" t="n">
-        <v>142263.770688477</v>
+        <v>139347.207945983</v>
       </c>
       <c r="N80" t="s">
         <v>217</v>
@@ -7510,13 +7510,13 @@
         <v>898014.568720142</v>
       </c>
       <c r="K81" t="n">
-        <v>0.360793555579344</v>
+        <v>0.373897986113818</v>
       </c>
       <c r="L81" t="n">
-        <v>85563.1002322622</v>
+        <v>88670.8489322284</v>
       </c>
       <c r="M81" t="n">
-        <v>151589.417902019</v>
+        <v>148481.669202053</v>
       </c>
       <c r="N81" t="s">
         <v>218</v>
@@ -7554,13 +7554,13 @@
         <v>995874.353199378</v>
       </c>
       <c r="K82" t="n">
-        <v>0.466128184556969</v>
+        <v>0.325340059501892</v>
       </c>
       <c r="L82" t="n">
-        <v>115411.299454786</v>
+        <v>80552.7755578607</v>
       </c>
       <c r="M82" t="n">
-        <v>132184.326122926</v>
+        <v>167042.85001985</v>
       </c>
       <c r="N82" t="s">
         <v>219</v>
@@ -7598,13 +7598,13 @@
         <v>995874.353199378</v>
       </c>
       <c r="K83" t="n">
-        <v>0.466128184556969</v>
+        <v>0.325340059501892</v>
       </c>
       <c r="L83" t="n">
-        <v>116457.01722687</v>
+        <v>81282.6474975191</v>
       </c>
       <c r="M83" t="n">
-        <v>133382.020799883</v>
+        <v>168556.390529233</v>
       </c>
       <c r="N83" t="s">
         <v>220</v>
@@ -7642,13 +7642,13 @@
         <v>995874.353199378</v>
       </c>
       <c r="K84" t="n">
-        <v>0.466128184556969</v>
+        <v>0.325340059501892</v>
       </c>
       <c r="L84" t="n">
-        <v>115244.66939057</v>
+        <v>80436.4739978981</v>
       </c>
       <c r="M84" t="n">
-        <v>131993.479274704</v>
+        <v>166801.674667377</v>
       </c>
       <c r="N84" t="s">
         <v>221</v>
@@ -7686,13 +7686,13 @@
         <v>995874.353199378</v>
       </c>
       <c r="K85" t="n">
-        <v>0.466128184556969</v>
+        <v>0.325340059501892</v>
       </c>
       <c r="L85" t="n">
-        <v>117092.118231446</v>
+        <v>81725.9242730159</v>
       </c>
       <c r="M85" t="n">
-        <v>134109.422698194</v>
+        <v>169475.616656624</v>
       </c>
       <c r="N85" t="s">
         <v>222</v>
@@ -7730,13 +7730,13 @@
         <v>1006121.50589083</v>
       </c>
       <c r="K86" t="n">
-        <v>0.48073892680534</v>
+        <v>0.461380730828662</v>
       </c>
       <c r="L86" t="n">
-        <v>120696.066588921</v>
+        <v>115835.9273733</v>
       </c>
       <c r="M86" t="n">
-        <v>130367.577021103</v>
+        <v>135227.716236725</v>
       </c>
       <c r="N86" t="s">
         <v>223</v>
@@ -7774,13 +7774,13 @@
         <v>1006121.50589083</v>
       </c>
       <c r="K87" t="n">
-        <v>0.48073892680534</v>
+        <v>0.461380730828662</v>
       </c>
       <c r="L87" t="n">
-        <v>118879.221132767</v>
+        <v>114092.241897414</v>
       </c>
       <c r="M87" t="n">
-        <v>128405.145712157</v>
+        <v>133192.12494751</v>
       </c>
       <c r="N87" t="s">
         <v>224</v>
@@ -7818,13 +7818,13 @@
         <v>1006121.50589083</v>
       </c>
       <c r="K88" t="n">
-        <v>0.48073892680534</v>
+        <v>0.461380730828662</v>
       </c>
       <c r="L88" t="n">
-        <v>118787.029820183</v>
+        <v>114003.762906419</v>
       </c>
       <c r="M88" t="n">
-        <v>128305.567006872</v>
+        <v>133088.833920636</v>
       </c>
       <c r="N88" t="s">
         <v>225</v>
@@ -7862,13 +7862,13 @@
         <v>1006121.50589083</v>
       </c>
       <c r="K89" t="n">
-        <v>0.48073892680534</v>
+        <v>0.461380730828662</v>
       </c>
       <c r="L89" t="n">
-        <v>125319.455435857</v>
+        <v>120273.143513211</v>
       </c>
       <c r="M89" t="n">
-        <v>135361.443172966</v>
+        <v>140407.755095612</v>
       </c>
       <c r="N89" t="s">
         <v>226</v>
@@ -7906,13 +7906,13 @@
         <v>1048335.96804682</v>
       </c>
       <c r="K90" t="n">
-        <v>0.451284155473623</v>
+        <v>0.461380730828662</v>
       </c>
       <c r="L90" t="n">
-        <v>117935.139153912</v>
+        <v>120573.70070107</v>
       </c>
       <c r="M90" t="n">
-        <v>143397.189321345</v>
+        <v>140758.627774187</v>
       </c>
       <c r="N90" t="s">
         <v>227</v>
@@ -7950,13 +7950,13 @@
         <v>1048335.96804682</v>
       </c>
       <c r="K91" t="n">
-        <v>0.451284155473623</v>
+        <v>0.461380730828662</v>
       </c>
       <c r="L91" t="n">
-        <v>117973.557128427</v>
+        <v>120612.978200499</v>
       </c>
       <c r="M91" t="n">
-        <v>143443.901688875</v>
+        <v>140804.480616803</v>
       </c>
       <c r="N91" t="s">
         <v>228</v>
@@ -7994,13 +7994,13 @@
         <v>1048335.96804682</v>
       </c>
       <c r="K92" t="n">
-        <v>0.451284155473623</v>
+        <v>0.461380730828662</v>
       </c>
       <c r="L92" t="n">
-        <v>116822.378112657</v>
+        <v>119436.043869505</v>
       </c>
       <c r="M92" t="n">
-        <v>142044.184552394</v>
+        <v>139430.518795546</v>
       </c>
       <c r="N92" t="s">
         <v>229</v>
@@ -8038,13 +8038,13 @@
         <v>1048335.96804682</v>
       </c>
       <c r="K93" t="n">
-        <v>0.451284155473623</v>
+        <v>0.461380730828662</v>
       </c>
       <c r="L93" t="n">
-        <v>120366.337597637</v>
+        <v>123059.292320342</v>
       </c>
       <c r="M93" t="n">
-        <v>146353.280491574</v>
+        <v>143660.325768869</v>
       </c>
       <c r="N93" t="s">
         <v>230</v>
@@ -8082,13 +8082,13 @@
         <v>1025395.06053302</v>
       </c>
       <c r="K94" t="n">
-        <v>3.40350472636763</v>
+        <v>0.461380730828662</v>
       </c>
       <c r="L94" t="n">
-        <v>868026.889229856</v>
+        <v>117670.140848966</v>
       </c>
       <c r="M94" t="n">
-        <v>-612987.757800104</v>
+        <v>137368.990580786</v>
       </c>
       <c r="N94" t="s">
         <v>231</v>
@@ -8126,13 +8126,13 @@
         <v>1025395.06053302</v>
       </c>
       <c r="K95" t="n">
-        <v>3.40350472636763</v>
+        <v>0.461380730828662</v>
       </c>
       <c r="L95" t="n">
-        <v>868699.303037109</v>
+        <v>117761.293586733</v>
       </c>
       <c r="M95" t="n">
-        <v>-613462.60649101</v>
+        <v>137475.402959367</v>
       </c>
       <c r="N95" t="s">
         <v>232</v>
@@ -8170,13 +8170,13 @@
         <v>1025395.06053302</v>
       </c>
       <c r="K96" t="n">
-        <v>3.40350472636763</v>
+        <v>0.461380730828662</v>
       </c>
       <c r="L96" t="n">
-        <v>864528.446872114</v>
+        <v>117195.890327358</v>
       </c>
       <c r="M96" t="n">
-        <v>-610517.20952185</v>
+        <v>136815.347022907</v>
       </c>
       <c r="N96" t="s">
         <v>233</v>
@@ -8214,13 +8214,13 @@
         <v>1025395.06053302</v>
       </c>
       <c r="K97" t="n">
-        <v>3.40350472636763</v>
+        <v>0.461380730828662</v>
       </c>
       <c r="L97" t="n">
-        <v>888682.295779089</v>
+        <v>120470.19765377</v>
       </c>
       <c r="M97" t="n">
-        <v>-627574.30057218</v>
+        <v>140637.797553138</v>
       </c>
       <c r="N97" t="s">
         <v>234</v>
@@ -8283,13 +8283,13 @@
         <v>88214.4204251429</v>
       </c>
       <c r="C2" t="n">
-        <v>54985.5388297607</v>
+        <v>59551.192365884</v>
       </c>
       <c r="D2" t="n">
-        <v>54985.5388297607</v>
+        <v>59551.192365884</v>
       </c>
       <c r="E2" t="n">
-        <v>33228.8815953822</v>
+        <v>28663.228059259</v>
       </c>
       <c r="F2" t="n">
         <v>10.2652239161242</v>
@@ -8298,7 +8298,7 @@
         <v>-27149.7447784941</v>
       </c>
       <c r="H2" t="n">
-        <v>5356.4870361368</v>
+        <v>5801.25605174022</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -8312,13 +8312,13 @@
         <v>87070.1566107361</v>
       </c>
       <c r="C3" t="n">
-        <v>54272.2998593596</v>
+        <v>58778.7305144014</v>
       </c>
       <c r="D3" t="n">
-        <v>54272.2998593596</v>
+        <v>58778.7305144014</v>
       </c>
       <c r="E3" t="n">
-        <v>32797.8567513765</v>
+        <v>28291.4260963346</v>
       </c>
       <c r="F3" t="n">
         <v>9.82284951601229</v>
@@ -8327,7 +8327,7 @@
         <v>-27149.7447784941</v>
       </c>
       <c r="H3" t="n">
-        <v>5525.10753329672</v>
+        <v>5983.87773513031</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -8341,13 +8341,13 @@
         <v>88614.2159810674</v>
       </c>
       <c r="C4" t="n">
-        <v>55234.7381552033</v>
+        <v>59821.0836369839</v>
       </c>
       <c r="D4" t="n">
-        <v>55234.7381552033</v>
+        <v>59821.0836369839</v>
       </c>
       <c r="E4" t="n">
-        <v>33379.4778258642</v>
+        <v>28793.1323440835</v>
       </c>
       <c r="F4" t="n">
         <v>9.72024214780637</v>
@@ -8356,7 +8356,7 @@
         <v>-27149.7447784941</v>
       </c>
       <c r="H4" t="n">
-        <v>5682.44466704653</v>
+        <v>6154.2791555336</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -8370,13 +8370,13 @@
         <v>99052.8192308037</v>
       </c>
       <c r="C5" t="n">
-        <v>61741.295944175</v>
+        <v>66867.9050881739</v>
       </c>
       <c r="D5" t="n">
-        <v>61741.295944175</v>
+        <v>66867.9050881739</v>
       </c>
       <c r="E5" t="n">
-        <v>37311.5232866287</v>
+        <v>32184.9141426299</v>
       </c>
       <c r="F5" t="n">
         <v>11.2239464046568</v>
@@ -8385,7 +8385,7 @@
         <v>-27149.7447784941</v>
       </c>
       <c r="H5" t="n">
-        <v>5500.85448720233</v>
+        <v>5957.61086852929</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -8399,13 +8399,13 @@
         <v>101463.405039698</v>
       </c>
       <c r="C6" t="n">
-        <v>64984.5060168336</v>
+        <v>68495.1211856196</v>
       </c>
       <c r="D6" t="n">
-        <v>64984.5060168336</v>
+        <v>68495.1211856196</v>
       </c>
       <c r="E6" t="n">
-        <v>36478.899022864</v>
+        <v>32968.283854078</v>
       </c>
       <c r="F6" t="n">
         <v>11.7823344509117</v>
@@ -8414,13 +8414,13 @@
         <v>-47712.5015651089</v>
       </c>
       <c r="H6" t="n">
-        <v>5515.41855203449</v>
+        <v>5813.37437593442</v>
       </c>
       <c r="I6" t="n">
-        <v>18.1847216556893</v>
+        <v>15.0188912503782</v>
       </c>
       <c r="J6" t="n">
-        <v>18.1847216556893</v>
+        <v>15.0188912503782</v>
       </c>
       <c r="K6" t="s">
         <v>135</v>
@@ -8434,13 +8434,13 @@
         <v>102419.939656968</v>
       </c>
       <c r="C7" t="n">
-        <v>65597.1399962176</v>
+        <v>69140.851086982</v>
       </c>
       <c r="D7" t="n">
-        <v>65597.1399962176</v>
+        <v>69140.851086982</v>
       </c>
       <c r="E7" t="n">
-        <v>36822.7996607504</v>
+        <v>33279.088569986</v>
       </c>
       <c r="F7" t="n">
         <v>11.382947724484</v>
@@ -8449,13 +8449,13 @@
         <v>-47712.5015651089</v>
       </c>
       <c r="H7" t="n">
-        <v>5762.75509507279</v>
+        <v>6074.07261813776</v>
       </c>
       <c r="I7" t="n">
-        <v>20.8667039469582</v>
+        <v>17.6290309128771</v>
       </c>
       <c r="J7" t="n">
-        <v>20.8667039469582</v>
+        <v>17.6290309128771</v>
       </c>
       <c r="K7" t="s">
         <v>135</v>
@@ -8469,13 +8469,13 @@
         <v>103487.793787803</v>
       </c>
       <c r="C8" t="n">
-        <v>66281.0710466608</v>
+        <v>69861.7296941161</v>
       </c>
       <c r="D8" t="n">
-        <v>66281.0710466608</v>
+        <v>69861.7296941161</v>
       </c>
       <c r="E8" t="n">
-        <v>37206.7227411421</v>
+        <v>33626.0640936868</v>
       </c>
       <c r="F8" t="n">
         <v>11.2471132196184</v>
@@ -8484,13 +8484,13 @@
         <v>-47712.5015651089</v>
       </c>
       <c r="H8" t="n">
-        <v>5893.16296123401</v>
+        <v>6211.52542256405</v>
       </c>
       <c r="I8" t="n">
-        <v>19.9988870417356</v>
+        <v>16.7844603385364</v>
       </c>
       <c r="J8" t="n">
-        <v>19.9988870417356</v>
+        <v>16.7844603385364</v>
       </c>
       <c r="K8" t="s">
         <v>135</v>
@@ -8504,13 +8504,13 @@
         <v>113392.864115391</v>
       </c>
       <c r="C9" t="n">
-        <v>72624.9947701796</v>
+        <v>76548.3670307482</v>
       </c>
       <c r="D9" t="n">
-        <v>72624.9947701796</v>
+        <v>76548.3670307482</v>
       </c>
       <c r="E9" t="n">
-        <v>40767.8693452119</v>
+        <v>36844.4970846433</v>
       </c>
       <c r="F9" t="n">
         <v>13.1555825093261</v>
@@ -8519,13 +8519,13 @@
         <v>-47712.5015651089</v>
       </c>
       <c r="H9" t="n">
-        <v>5520.46971076311</v>
+        <v>5818.69841008427</v>
       </c>
       <c r="I9" t="n">
-        <v>17.6279079659187</v>
+        <v>14.4769930055524</v>
       </c>
       <c r="J9" t="n">
-        <v>17.6279079659187</v>
+        <v>14.4769930055524</v>
       </c>
       <c r="K9" t="s">
         <v>135</v>
@@ -8539,13 +8539,13 @@
         <v>119128.05424451</v>
       </c>
       <c r="C10" t="n">
-        <v>81424.322347896</v>
+        <v>80419.9350370231</v>
       </c>
       <c r="D10" t="n">
-        <v>81424.322347896</v>
+        <v>80419.9350370231</v>
       </c>
       <c r="E10" t="n">
-        <v>37703.7318966143</v>
+        <v>38708.1192074872</v>
       </c>
       <c r="F10" t="n">
         <v>13.3229511917622</v>
@@ -8554,13 +8554,13 @@
         <v>-21926.5020487463</v>
       </c>
       <c r="H10" t="n">
-        <v>6111.58302510649</v>
+        <v>6036.19527531919</v>
       </c>
       <c r="I10" t="n">
-        <v>25.2980553961644</v>
+        <v>17.409727357205</v>
       </c>
       <c r="J10" t="n">
-        <v>25.2980553961644</v>
+        <v>17.409727357205</v>
       </c>
       <c r="K10" t="s">
         <v>135</v>
@@ -8574,13 +8574,13 @@
         <v>114876.488289252</v>
       </c>
       <c r="C11" t="n">
-        <v>78518.3664081326</v>
+        <v>77549.8247166974</v>
       </c>
       <c r="D11" t="n">
-        <v>78518.3664081326</v>
+        <v>77549.8247166974</v>
       </c>
       <c r="E11" t="n">
-        <v>36358.1218811194</v>
+        <v>37326.6635725546</v>
       </c>
       <c r="F11" t="n">
         <v>12.66395720506</v>
@@ -8589,13 +8589,13 @@
         <v>-21926.5020487463</v>
       </c>
       <c r="H11" t="n">
-        <v>6200.14464173645</v>
+        <v>6123.66446450968</v>
       </c>
       <c r="I11" t="n">
-        <v>19.6978502609414</v>
+        <v>12.1620915819168</v>
       </c>
       <c r="J11" t="n">
-        <v>19.6978502609414</v>
+        <v>12.1620915819168</v>
       </c>
       <c r="K11" t="s">
         <v>135</v>
@@ -8609,13 +8609,13 @@
         <v>113931.242585302</v>
       </c>
       <c r="C12" t="n">
-        <v>77872.2886107197</v>
+        <v>76911.7164340787</v>
       </c>
       <c r="D12" t="n">
-        <v>77872.2886107197</v>
+        <v>76911.7164340787</v>
       </c>
       <c r="E12" t="n">
-        <v>36058.9539745824</v>
+        <v>37019.5261512234</v>
       </c>
       <c r="F12" t="n">
         <v>12.7604467190277</v>
@@ -8624,13 +8624,13 @@
         <v>-21926.5020487463</v>
       </c>
       <c r="H12" t="n">
-        <v>6102.63028602287</v>
+        <v>6027.35297028371</v>
       </c>
       <c r="I12" t="n">
-        <v>17.4879756482796</v>
+        <v>10.0913429581981</v>
       </c>
       <c r="J12" t="n">
-        <v>17.4879756482796</v>
+        <v>10.0913429581981</v>
       </c>
       <c r="K12" t="s">
         <v>135</v>
@@ -8644,13 +8644,13 @@
         <v>117631.648055554</v>
       </c>
       <c r="C13" t="n">
-        <v>80401.524983617</v>
+        <v>79409.7541080383</v>
       </c>
       <c r="D13" t="n">
-        <v>80401.524983617</v>
+        <v>79409.7541080383</v>
       </c>
       <c r="E13" t="n">
-        <v>37230.1230719369</v>
+        <v>38221.8939475156</v>
       </c>
       <c r="F13" t="n">
         <v>13.8857458724356</v>
@@ -8659,13 +8659,13 @@
         <v>-21926.5020487463</v>
       </c>
       <c r="H13" t="n">
-        <v>5790.2201093296</v>
+        <v>5718.7964433134</v>
       </c>
       <c r="I13" t="n">
-        <v>10.7077876398422</v>
+        <v>3.73801191100618</v>
       </c>
       <c r="J13" t="n">
-        <v>10.7077876398422</v>
+        <v>3.73801191100618</v>
       </c>
       <c r="K13" t="s">
         <v>135</v>
@@ -8679,13 +8679,13 @@
         <v>113753.188857551</v>
       </c>
       <c r="C14" t="n">
-        <v>76205.9450920637</v>
+        <v>76791.7668014693</v>
       </c>
       <c r="D14" t="n">
-        <v>76205.9450920637</v>
+        <v>76791.7668014693</v>
       </c>
       <c r="E14" t="n">
-        <v>37547.2437654874</v>
+        <v>36961.4220560818</v>
       </c>
       <c r="F14" t="n">
         <v>12.6686324908671</v>
@@ -8694,13 +8694,13 @@
         <v>-1942.57634009764</v>
       </c>
       <c r="H14" t="n">
-        <v>6015.32526474355</v>
+        <v>6061.56717047631</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.40886789764873</v>
+        <v>-4.51152843369438</v>
       </c>
       <c r="J14" t="n">
-        <v>-6.40886789764873</v>
+        <v>-4.51152843369438</v>
       </c>
       <c r="K14" t="s">
         <v>135</v>
@@ -8714,13 +8714,13 @@
         <v>112367.937011373</v>
       </c>
       <c r="C15" t="n">
-        <v>75277.932196876</v>
+        <v>75856.6199471141</v>
       </c>
       <c r="D15" t="n">
-        <v>75277.932196876</v>
+        <v>75856.6199471141</v>
       </c>
       <c r="E15" t="n">
-        <v>37090.004814497</v>
+        <v>36511.3170642589</v>
       </c>
       <c r="F15" t="n">
         <v>12.6566825521707</v>
@@ -8729,13 +8729,13 @@
         <v>-1942.57634009764</v>
       </c>
       <c r="H15" t="n">
-        <v>5947.68272701642</v>
+        <v>5993.40464094234</v>
       </c>
       <c r="I15" t="n">
-        <v>-4.12697609424663</v>
+        <v>-2.18337665593558</v>
       </c>
       <c r="J15" t="n">
-        <v>-4.12697609424663</v>
+        <v>-2.18337665593558</v>
       </c>
       <c r="K15" t="s">
         <v>135</v>
@@ -8749,13 +8749,13 @@
         <v>111871.686726153</v>
       </c>
       <c r="C16" t="n">
-        <v>74945.4824223494</v>
+        <v>75521.6145150864</v>
       </c>
       <c r="D16" t="n">
-        <v>74945.4824223494</v>
+        <v>75521.6145150864</v>
       </c>
       <c r="E16" t="n">
-        <v>36926.2043038039</v>
+        <v>36350.0722110669</v>
       </c>
       <c r="F16" t="n">
         <v>12.6460309475564</v>
@@ -8764,13 +8764,13 @@
         <v>-1942.57634009764</v>
       </c>
       <c r="H16" t="n">
-        <v>5926.40352796473</v>
+        <v>5971.9618612573</v>
       </c>
       <c r="I16" t="n">
-        <v>-3.75846946402364</v>
+        <v>-1.80739942292638</v>
       </c>
       <c r="J16" t="n">
-        <v>-3.75846946402364</v>
+        <v>-1.80739942292638</v>
       </c>
       <c r="K16" t="s">
         <v>135</v>
@@ -8784,13 +8784,13 @@
         <v>115497.117681687</v>
       </c>
       <c r="C17" t="n">
-        <v>77374.2441573585</v>
+        <v>77969.046989624</v>
       </c>
       <c r="D17" t="n">
-        <v>77374.2441573585</v>
+        <v>77969.046989624</v>
       </c>
       <c r="E17" t="n">
-        <v>38122.8735243286</v>
+        <v>37528.0706920631</v>
       </c>
       <c r="F17" t="n">
         <v>13.2963920460844</v>
@@ -8799,13 +8799,13 @@
         <v>-1942.57634009764</v>
       </c>
       <c r="H17" t="n">
-        <v>5819.19094211305</v>
+        <v>5863.92509482184</v>
       </c>
       <c r="I17" t="n">
-        <v>-3.76520324319136</v>
+        <v>-1.81426971358478</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.76520324319136</v>
+        <v>-1.81426971358478</v>
       </c>
       <c r="K17" t="s">
         <v>135</v>
@@ -8819,13 +8819,13 @@
         <v>110890.870065777</v>
       </c>
       <c r="C18" t="n">
-        <v>74832.9105711751</v>
+        <v>74859.5444133463</v>
       </c>
       <c r="D18" t="n">
-        <v>74832.9105711751</v>
+        <v>74859.5444133463</v>
       </c>
       <c r="E18" t="n">
-        <v>36057.9594946015</v>
+        <v>36031.3256524302</v>
       </c>
       <c r="F18" t="n">
         <v>12.3230003603816</v>
@@ -8834,13 +8834,13 @@
         <v>-7329.4763893261</v>
       </c>
       <c r="H18" t="n">
-        <v>6072.62098374697</v>
+        <v>6074.78229522894</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.80174200218874</v>
+        <v>-2.51618431064148</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.80174200218874</v>
+        <v>-2.51618431064148</v>
       </c>
       <c r="K18" t="s">
         <v>135</v>
@@ -8854,13 +8854,13 @@
         <v>113370.207183785</v>
       </c>
       <c r="C19" t="n">
-        <v>76506.0511346651</v>
+        <v>76533.2804656575</v>
       </c>
       <c r="D19" t="n">
-        <v>76506.0511346651</v>
+        <v>76533.2804656575</v>
       </c>
       <c r="E19" t="n">
-        <v>36864.1560491203</v>
+        <v>36836.9267181279</v>
       </c>
       <c r="F19" t="n">
         <v>12.650688565915</v>
@@ -8869,13 +8869,13 @@
         <v>-7329.4763893261</v>
       </c>
       <c r="H19" t="n">
-        <v>6047.57999819841</v>
+        <v>6049.73239732282</v>
       </c>
       <c r="I19" t="n">
-        <v>1.63144616482975</v>
+        <v>0.892025665017937</v>
       </c>
       <c r="J19" t="n">
-        <v>1.63144616482975</v>
+        <v>0.892025665017937</v>
       </c>
       <c r="K19" t="s">
         <v>135</v>
@@ -8889,13 +8889,13 @@
         <v>111915.682873033</v>
       </c>
       <c r="C20" t="n">
-        <v>75524.4889230462</v>
+        <v>75551.3689054321</v>
       </c>
       <c r="D20" t="n">
-        <v>75524.4889230462</v>
+        <v>75551.3689054321</v>
       </c>
       <c r="E20" t="n">
-        <v>36391.1939499872</v>
+        <v>36364.3139676013</v>
       </c>
       <c r="F20" t="n">
         <v>12.2669117751972</v>
@@ -8904,13 +8904,13 @@
         <v>-7329.4763893261</v>
       </c>
       <c r="H20" t="n">
-        <v>6156.76466148154</v>
+        <v>6158.95592060841</v>
       </c>
       <c r="I20" t="n">
-        <v>0.772570249710136</v>
+        <v>0.0393985093364524</v>
       </c>
       <c r="J20" t="n">
-        <v>0.772570249710136</v>
+        <v>0.0393985093364524</v>
       </c>
       <c r="K20" t="s">
         <v>135</v>
@@ -8924,13 +8924,13 @@
         <v>124501.499625572</v>
       </c>
       <c r="C21" t="n">
-        <v>84017.8238472762</v>
+        <v>84047.7266994149</v>
       </c>
       <c r="D21" t="n">
-        <v>84017.8238472762</v>
+        <v>84047.7266994149</v>
       </c>
       <c r="E21" t="n">
-        <v>40483.6757782957</v>
+        <v>40453.772926157</v>
       </c>
       <c r="F21" t="n">
         <v>14.839784627152</v>
@@ -8939,13 +8939,13 @@
         <v>-7329.4763893261</v>
       </c>
       <c r="H21" t="n">
-        <v>5661.66059401906</v>
+        <v>5663.67564025389</v>
       </c>
       <c r="I21" t="n">
-        <v>8.58629349116018</v>
+        <v>7.79627293713083</v>
       </c>
       <c r="J21" t="n">
-        <v>8.58629349116018</v>
+        <v>7.79627293713083</v>
       </c>
       <c r="K21" t="s">
         <v>135</v>
@@ -8959,13 +8959,13 @@
         <v>112439.440740556</v>
       </c>
       <c r="C22" t="n">
-        <v>76649.1483771533</v>
+        <v>75904.9868677349</v>
       </c>
       <c r="D22" t="n">
-        <v>76649.1483771533</v>
+        <v>75904.9868677349</v>
       </c>
       <c r="E22" t="n">
-        <v>35790.2923634024</v>
+        <v>36534.4538728207</v>
       </c>
       <c r="F22" t="n">
         <v>12.3333233645207</v>
@@ -8974,13 +8974,13 @@
         <v>-4123.259513475</v>
       </c>
       <c r="H22" t="n">
-        <v>6214.80083767608</v>
+        <v>6154.46336922382</v>
       </c>
       <c r="I22" t="n">
-        <v>2.4270575501012</v>
+        <v>1.39653862788165</v>
       </c>
       <c r="J22" t="n">
-        <v>2.4270575501012</v>
+        <v>1.39653862788165</v>
       </c>
       <c r="K22" t="s">
         <v>135</v>
@@ -8994,13 +8994,13 @@
         <v>113623.352393671</v>
       </c>
       <c r="C23" t="n">
-        <v>77456.2123341365</v>
+        <v>76704.215304753</v>
       </c>
       <c r="D23" t="n">
-        <v>77456.2123341365</v>
+        <v>76704.215304753</v>
       </c>
       <c r="E23" t="n">
-        <v>36167.1400595342</v>
+        <v>36919.1370889178</v>
       </c>
       <c r="F23" t="n">
         <v>12.6619738112554</v>
@@ -9009,13 +9009,13 @@
         <v>-4123.259513475</v>
       </c>
       <c r="H23" t="n">
-        <v>6117.23049571343</v>
+        <v>6057.84030579572</v>
       </c>
       <c r="I23" t="n">
-        <v>1.24194254621637</v>
+        <v>0.22334706947813</v>
       </c>
       <c r="J23" t="n">
-        <v>1.24194254621637</v>
+        <v>0.22334706947813</v>
       </c>
       <c r="K23" t="s">
         <v>135</v>
@@ -9029,13 +9029,13 @@
         <v>114665.467488036</v>
       </c>
       <c r="C24" t="n">
-        <v>78166.6146090676</v>
+        <v>77407.7205163716</v>
       </c>
       <c r="D24" t="n">
-        <v>78166.6146090676</v>
+        <v>77407.7205163716</v>
       </c>
       <c r="E24" t="n">
-        <v>36498.8528789683</v>
+        <v>37257.7469716644</v>
       </c>
       <c r="F24" t="n">
         <v>12.9529826568834</v>
@@ -9044,13 +9044,13 @@
         <v>-4123.259513475</v>
       </c>
       <c r="H24" t="n">
-        <v>6034.64211136953</v>
+        <v>5976.05374506049</v>
       </c>
       <c r="I24" t="n">
-        <v>3.49836950067091</v>
+        <v>2.45707210581856</v>
       </c>
       <c r="J24" t="n">
-        <v>3.49836950067091</v>
+        <v>2.45707210581856</v>
       </c>
       <c r="K24" t="s">
         <v>135</v>
@@ -9064,13 +9064,13 @@
         <v>120291.038040045</v>
       </c>
       <c r="C25" t="n">
-        <v>82001.5251093965</v>
+        <v>81205.399125064</v>
       </c>
       <c r="D25" t="n">
-        <v>82001.5251093965</v>
+        <v>81205.399125064</v>
       </c>
       <c r="E25" t="n">
-        <v>38289.5129306482</v>
+        <v>39085.6389149808</v>
       </c>
       <c r="F25" t="n">
         <v>14.1706634002428</v>
@@ -9079,13 +9079,13 @@
         <v>-4123.259513475</v>
       </c>
       <c r="H25" t="n">
-        <v>5786.71038844884</v>
+        <v>5730.5291101384</v>
       </c>
       <c r="I25" t="n">
-        <v>-2.39984642014147</v>
+        <v>-3.38180184755751</v>
       </c>
       <c r="J25" t="n">
-        <v>-2.39984642014147</v>
+        <v>-3.38180184755751</v>
       </c>
       <c r="K25" t="s">
         <v>135</v>
@@ -9099,13 +9099,13 @@
         <v>113484.215022061</v>
       </c>
       <c r="C26" t="n">
-        <v>77277.6767304335</v>
+        <v>76610.2712170643</v>
       </c>
       <c r="D26" t="n">
-        <v>77277.6767304335</v>
+        <v>76610.2712170643</v>
       </c>
       <c r="E26" t="n">
-        <v>36206.5382916273</v>
+        <v>36873.9438049965</v>
       </c>
       <c r="F26" t="n">
         <v>12.8358067698036</v>
@@ -9114,13 +9114,13 @@
         <v>-3971.13324104878</v>
       </c>
       <c r="H26" t="n">
-        <v>6020.47678936941</v>
+        <v>5968.48118633967</v>
       </c>
       <c r="I26" t="n">
-        <v>0.820006962357267</v>
+        <v>0.929167342533543</v>
       </c>
       <c r="J26" t="n">
-        <v>0.820006962357267</v>
+        <v>0.929167342533543</v>
       </c>
       <c r="K26" t="s">
         <v>135</v>
@@ -9134,13 +9134,13 @@
         <v>112436.66963312</v>
       </c>
       <c r="C27" t="n">
-        <v>76564.3451546607</v>
+        <v>75903.1003004453</v>
       </c>
       <c r="D27" t="n">
-        <v>76564.3451546607</v>
+        <v>75903.1003004453</v>
       </c>
       <c r="E27" t="n">
-        <v>35872.3244784593</v>
+        <v>36533.5693326747</v>
       </c>
       <c r="F27" t="n">
         <v>12.664912273627</v>
@@ -9149,13 +9149,13 @@
         <v>-3971.13324104878</v>
       </c>
       <c r="H27" t="n">
-        <v>6045.39087997441</v>
+        <v>5993.18010741404</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.15144693059407</v>
+        <v>-1.04442109357981</v>
       </c>
       <c r="J27" t="n">
-        <v>-1.15144693059407</v>
+        <v>-1.04442109357981</v>
       </c>
       <c r="K27" t="s">
         <v>135</v>
@@ -9169,13 +9169,13 @@
         <v>110953.739357221</v>
       </c>
       <c r="C28" t="n">
-        <v>75554.5359362385</v>
+        <v>74902.0122582843</v>
       </c>
       <c r="D28" t="n">
-        <v>75554.5359362385</v>
+        <v>74902.0122582843</v>
       </c>
       <c r="E28" t="n">
-        <v>35399.2034209826</v>
+        <v>36051.7270989368</v>
       </c>
       <c r="F28" t="n">
         <v>12.3871218964574</v>
@@ -9184,13 +9184,13 @@
         <v>-3971.13324104878</v>
       </c>
       <c r="H28" t="n">
-        <v>6099.44235374373</v>
+        <v>6046.7647678276</v>
       </c>
       <c r="I28" t="n">
-        <v>-3.34168069820197</v>
+        <v>-3.23702628287225</v>
       </c>
       <c r="J28" t="n">
-        <v>-3.34168069820197</v>
+        <v>-3.23702628287225</v>
       </c>
       <c r="K28" t="s">
         <v>135</v>
@@ -9204,13 +9204,13 @@
         <v>114754.091087646</v>
       </c>
       <c r="C29" t="n">
-        <v>78142.4055569483</v>
+        <v>77467.5318482244</v>
       </c>
       <c r="D29" t="n">
-        <v>78142.4055569483</v>
+        <v>77467.5318482244</v>
       </c>
       <c r="E29" t="n">
-        <v>36611.6855306974</v>
+        <v>37286.5592394213</v>
       </c>
       <c r="F29" t="n">
         <v>13.1694818955988</v>
@@ -9219,13 +9219,13 @@
         <v>-3971.13324104878</v>
       </c>
       <c r="H29" t="n">
-        <v>5933.59755352737</v>
+        <v>5882.35227948592</v>
       </c>
       <c r="I29" t="n">
-        <v>-4.7061558273457</v>
+        <v>-4.60297876386635</v>
       </c>
       <c r="J29" t="n">
-        <v>-4.7061558273457</v>
+        <v>-4.60297876386635</v>
       </c>
       <c r="K29" t="s">
         <v>135</v>
@@ -9239,13 +9239,13 @@
         <v>110272.810344721</v>
       </c>
       <c r="C30" t="n">
-        <v>74274.31833225</v>
+        <v>74442.2374953617</v>
       </c>
       <c r="D30" t="n">
-        <v>74274.31833225</v>
+        <v>74442.2374953617</v>
       </c>
       <c r="E30" t="n">
-        <v>35998.4920124709</v>
+        <v>35830.5728493592</v>
       </c>
       <c r="F30" t="n">
         <v>12.4274162630991</v>
@@ -9254,13 +9254,13 @@
         <v>-8159.64807102026</v>
       </c>
       <c r="H30" t="n">
-        <v>5976.65007430338</v>
+        <v>5990.16206742863</v>
       </c>
       <c r="I30" t="n">
-        <v>-3.88645016938075</v>
+        <v>-2.82995176398709</v>
       </c>
       <c r="J30" t="n">
-        <v>-3.88645016938075</v>
+        <v>-2.82995176398709</v>
       </c>
       <c r="K30" t="s">
         <v>135</v>
@@ -9274,13 +9274,13 @@
         <v>108895.813270642</v>
       </c>
       <c r="C31" t="n">
-        <v>73346.8411173049</v>
+        <v>73512.6634426234</v>
       </c>
       <c r="D31" t="n">
-        <v>73346.8411173049</v>
+        <v>73512.6634426234</v>
       </c>
       <c r="E31" t="n">
-        <v>35548.9721533374</v>
+        <v>35383.1498280188</v>
       </c>
       <c r="F31" t="n">
         <v>12.1360421248586</v>
@@ -9289,13 +9289,13 @@
         <v>-8159.64807102026</v>
       </c>
       <c r="H31" t="n">
-        <v>6043.72004997135</v>
+        <v>6057.38367470275</v>
       </c>
       <c r="I31" t="n">
-        <v>-4.20235297625337</v>
+        <v>-3.14932703454784</v>
       </c>
       <c r="J31" t="n">
-        <v>-4.20235297625337</v>
+        <v>-3.14932703454784</v>
       </c>
       <c r="K31" t="s">
         <v>135</v>
@@ -9309,13 +9309,13 @@
         <v>108028.313258301</v>
       </c>
       <c r="C32" t="n">
-        <v>72762.5359575065</v>
+        <v>72927.0372874172</v>
       </c>
       <c r="D32" t="n">
-        <v>72762.5359575065</v>
+        <v>72927.0372874172</v>
       </c>
       <c r="E32" t="n">
-        <v>35265.7773007942</v>
+        <v>35101.2759708835</v>
       </c>
       <c r="F32" t="n">
         <v>11.9495301799355</v>
@@ -9324,13 +9324,13 @@
         <v>-8159.64807102026</v>
       </c>
       <c r="H32" t="n">
-        <v>6089.15454096116</v>
+        <v>6102.9208838578</v>
       </c>
       <c r="I32" t="n">
-        <v>-3.69534395802282</v>
+        <v>-2.63674487683564</v>
       </c>
       <c r="J32" t="n">
-        <v>-3.69534395802282</v>
+        <v>-2.63674487683564</v>
       </c>
       <c r="K32" t="s">
         <v>135</v>
@@ -9344,13 +9344,13 @@
         <v>116256.292160034</v>
       </c>
       <c r="C33" t="n">
-        <v>78304.4961403288</v>
+        <v>78481.5267177209</v>
       </c>
       <c r="D33" t="n">
-        <v>78304.4961403288</v>
+        <v>78481.5267177209</v>
       </c>
       <c r="E33" t="n">
-        <v>37951.7960197049</v>
+        <v>37774.7654423128</v>
       </c>
       <c r="F33" t="n">
         <v>13.6200786544272</v>
@@ -9359,13 +9359,13 @@
         <v>-8159.64807102026</v>
       </c>
       <c r="H33" t="n">
-        <v>5749.19559035554</v>
+        <v>5762.19335504426</v>
       </c>
       <c r="I33" t="n">
-        <v>0.207429733222519</v>
+        <v>1.30892884451659</v>
       </c>
       <c r="J33" t="n">
-        <v>0.207429733222519</v>
+        <v>1.30892884451659</v>
       </c>
       <c r="K33" t="s">
         <v>135</v>
@@ -9379,13 +9379,13 @@
         <v>107701.893085945</v>
       </c>
       <c r="C34" t="n">
-        <v>70528.9167368136</v>
+        <v>72706.6300297531</v>
       </c>
       <c r="D34" t="n">
-        <v>70528.9167368136</v>
+        <v>72706.6300297531</v>
       </c>
       <c r="E34" t="n">
-        <v>37172.9763491317</v>
+        <v>34995.2630561922</v>
       </c>
       <c r="F34" t="n">
         <v>12.0265577530032</v>
@@ -9394,13 +9394,13 @@
         <v>-11806.2041770041</v>
       </c>
       <c r="H34" t="n">
-        <v>5864.43088582029</v>
+        <v>6045.50624733807</v>
       </c>
       <c r="I34" t="n">
-        <v>-5.04266034281484</v>
+        <v>-2.33148213165513</v>
       </c>
       <c r="J34" t="n">
-        <v>-5.04266034281484</v>
+        <v>-2.33148213165513</v>
       </c>
       <c r="K34" t="s">
         <v>135</v>
@@ -9414,13 +9414,13 @@
         <v>110075.551353449</v>
       </c>
       <c r="C35" t="n">
-        <v>72083.3141713772</v>
+        <v>74309.0224160666</v>
       </c>
       <c r="D35" t="n">
-        <v>72083.3141713772</v>
+        <v>74309.0224160666</v>
       </c>
       <c r="E35" t="n">
-        <v>37992.237182072</v>
+        <v>35766.5289373826</v>
       </c>
       <c r="F35" t="n">
         <v>12.4335877141888</v>
@@ -9429,13 +9429,13 @@
         <v>-11806.2041770041</v>
       </c>
       <c r="H35" t="n">
-        <v>5797.46697641567</v>
+        <v>5976.47470096404</v>
       </c>
       <c r="I35" t="n">
-        <v>-1.72267397842936</v>
+        <v>1.08329495375274</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.72267397842936</v>
+        <v>1.08329495375274</v>
       </c>
       <c r="K35" t="s">
         <v>135</v>
@@ -9449,13 +9449,13 @@
         <v>111025.783947489</v>
       </c>
       <c r="C36" t="n">
-        <v>72705.5769151916</v>
+        <v>74950.4986954293</v>
       </c>
       <c r="D36" t="n">
-        <v>72705.5769151916</v>
+        <v>74950.4986954293</v>
       </c>
       <c r="E36" t="n">
-        <v>38320.2070322978</v>
+        <v>36075.2852520601</v>
       </c>
       <c r="F36" t="n">
         <v>12.4804555146239</v>
@@ -9464,13 +9464,13 @@
         <v>-11806.2041770041</v>
       </c>
       <c r="H36" t="n">
-        <v>5825.55475078608</v>
+        <v>6005.42973833019</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.078280727252511</v>
+        <v>2.77463816339789</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.078280727252511</v>
+        <v>2.77463816339789</v>
       </c>
       <c r="K36" t="s">
         <v>135</v>
@@ -9484,13 +9484,13 @@
         <v>116727.629396514</v>
       </c>
       <c r="C37" t="n">
-        <v>76439.4479865158</v>
+        <v>78799.6600766343</v>
       </c>
       <c r="D37" t="n">
-        <v>76439.4479865158</v>
+        <v>78799.6600766343</v>
       </c>
       <c r="E37" t="n">
-        <v>40288.1814099986</v>
+        <v>37927.9693198801</v>
       </c>
       <c r="F37" t="n">
         <v>13.4273421961175</v>
@@ -9499,13 +9499,13 @@
         <v>-11806.2041770041</v>
       </c>
       <c r="H37" t="n">
-        <v>5692.82043088304</v>
+        <v>5868.5969960175</v>
       </c>
       <c r="I37" t="n">
-        <v>-2.38178935532726</v>
+        <v>0.405360818295075</v>
       </c>
       <c r="J37" t="n">
-        <v>-2.38178935532726</v>
+        <v>0.405360818295075</v>
       </c>
       <c r="K37" t="s">
         <v>135</v>
@@ -9519,13 +9519,13 @@
         <v>114626.070312049</v>
       </c>
       <c r="C38" t="n">
-        <v>76181.0506394315</v>
+        <v>77381.050645681</v>
       </c>
       <c r="D38" t="n">
-        <v>76181.0506394315</v>
+        <v>77381.050645681</v>
       </c>
       <c r="E38" t="n">
-        <v>38445.0196726173</v>
+        <v>37245.0196663678</v>
       </c>
       <c r="F38" t="n">
         <v>12.6714184982892</v>
@@ -9534,13 +9534,13 @@
         <v>-10879.5250874877</v>
       </c>
       <c r="H38" t="n">
-        <v>6012.0380878997</v>
+        <v>6106.73940381089</v>
       </c>
       <c r="I38" t="n">
-        <v>8.0139241663238</v>
+        <v>6.42915317903612</v>
       </c>
       <c r="J38" t="n">
-        <v>8.0139241663238</v>
+        <v>6.42915317903612</v>
       </c>
       <c r="K38" t="s">
         <v>135</v>
@@ -9554,13 +9554,13 @@
         <v>116050.549385673</v>
       </c>
       <c r="C39" t="n">
-        <v>77127.7664445457</v>
+        <v>78342.6790696487</v>
       </c>
       <c r="D39" t="n">
-        <v>77127.7664445457</v>
+        <v>78342.6790696487</v>
       </c>
       <c r="E39" t="n">
-        <v>38922.7829411269</v>
+        <v>37707.8703160238</v>
       </c>
       <c r="F39" t="n">
         <v>12.8281688467858</v>
@@ -9569,13 +9569,13 @@
         <v>-10879.5250874877</v>
       </c>
       <c r="H39" t="n">
-        <v>6012.37537217719</v>
+        <v>6107.08200097304</v>
       </c>
       <c r="I39" t="n">
-        <v>6.99808593868949</v>
+        <v>5.42821924233796</v>
       </c>
       <c r="J39" t="n">
-        <v>6.99808593868949</v>
+        <v>5.42821924233796</v>
       </c>
       <c r="K39" t="s">
         <v>135</v>
@@ -9589,13 +9589,13 @@
         <v>115337.1448899</v>
       </c>
       <c r="C40" t="n">
-        <v>76653.6343045284</v>
+        <v>77861.0784244558</v>
       </c>
       <c r="D40" t="n">
-        <v>76653.6343045284</v>
+        <v>77861.0784244558</v>
       </c>
       <c r="E40" t="n">
-        <v>38683.5105853719</v>
+        <v>37476.0664654445</v>
       </c>
       <c r="F40" t="n">
         <v>12.701075548234</v>
@@ -9604,13 +9604,13 @@
         <v>-10879.5250874877</v>
       </c>
       <c r="H40" t="n">
-        <v>6035.20812181818</v>
+        <v>6130.27441091646</v>
       </c>
       <c r="I40" t="n">
-        <v>5.43019883322291</v>
+        <v>3.88333604137041</v>
       </c>
       <c r="J40" t="n">
-        <v>5.43019883322291</v>
+        <v>3.88333604137041</v>
       </c>
       <c r="K40" t="s">
         <v>135</v>
@@ -9624,13 +9624,13 @@
         <v>127243.139979517</v>
       </c>
       <c r="C41" t="n">
-        <v>84566.4172549146</v>
+        <v>85898.5031264353</v>
       </c>
       <c r="D41" t="n">
-        <v>84566.4172549146</v>
+        <v>85898.5031264353</v>
       </c>
       <c r="E41" t="n">
-        <v>42676.7227246029</v>
+        <v>41344.6368530822</v>
       </c>
       <c r="F41" t="n">
         <v>15.3017551900596</v>
@@ -9639,13 +9639,13 @@
         <v>-10879.5250874877</v>
       </c>
       <c r="H41" t="n">
-        <v>5526.58281383636</v>
+        <v>5613.63726314464</v>
       </c>
       <c r="I41" t="n">
-        <v>10.6319047068896</v>
+        <v>9.00872293471471</v>
       </c>
       <c r="J41" t="n">
-        <v>10.6319047068896</v>
+        <v>9.00872293471471</v>
       </c>
       <c r="K41" t="s">
         <v>135</v>
@@ -9659,13 +9659,13 @@
         <v>113245.757911691</v>
       </c>
       <c r="C42" t="n">
-        <v>70573.7889659356</v>
+        <v>76449.0998275858</v>
       </c>
       <c r="D42" t="n">
-        <v>70573.7889659356</v>
+        <v>76449.0998275858</v>
       </c>
       <c r="E42" t="n">
-        <v>42671.9689457555</v>
+        <v>36796.6580841052</v>
       </c>
       <c r="F42" t="n">
         <v>12.2262103793771</v>
@@ -9674,13 +9674,13 @@
         <v>1487.22545493965</v>
       </c>
       <c r="H42" t="n">
-        <v>5772.33556237325</v>
+        <v>6252.88600926893</v>
       </c>
       <c r="I42" t="n">
-        <v>-7.36044150931364</v>
+        <v>-1.20436568167374</v>
       </c>
       <c r="J42" t="n">
-        <v>-7.36044150931364</v>
+        <v>-1.20436568167374</v>
       </c>
       <c r="K42" t="s">
         <v>135</v>
@@ -9694,13 +9694,13 @@
         <v>115525.24726346</v>
       </c>
       <c r="C43" t="n">
-        <v>71994.3472581701</v>
+        <v>77987.9204617785</v>
       </c>
       <c r="D43" t="n">
-        <v>71994.3472581701</v>
+        <v>77987.9204617785</v>
       </c>
       <c r="E43" t="n">
-        <v>43530.9000052899</v>
+        <v>37537.3268016815</v>
       </c>
       <c r="F43" t="n">
         <v>12.727998040513</v>
@@ -9709,13 +9709,13 @@
         <v>1487.22545493965</v>
       </c>
       <c r="H43" t="n">
-        <v>5656.37636248948</v>
+        <v>6127.27313545652</v>
       </c>
       <c r="I43" t="n">
-        <v>-6.65573427446061</v>
+        <v>-0.452829303367064</v>
       </c>
       <c r="J43" t="n">
-        <v>-6.65573427446061</v>
+        <v>-0.452829303367064</v>
       </c>
       <c r="K43" t="s">
         <v>135</v>
@@ -9729,13 +9729,13 @@
         <v>122667.867170378</v>
       </c>
       <c r="C44" t="n">
-        <v>76445.5669706808</v>
+        <v>82809.7069230453</v>
       </c>
       <c r="D44" t="n">
-        <v>76445.5669706808</v>
+        <v>82809.7069230453</v>
       </c>
       <c r="E44" t="n">
-        <v>46222.3001996973</v>
+        <v>39858.1602473328</v>
       </c>
       <c r="F44" t="n">
         <v>13.9354414160366</v>
@@ -9744,13 +9744,13 @@
         <v>1487.22545493965</v>
       </c>
       <c r="H44" t="n">
-        <v>5485.69397182559</v>
+        <v>5942.38133194328</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.271438315658956</v>
+        <v>6.35571533136527</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.271438315658956</v>
+        <v>6.35571533136527</v>
       </c>
       <c r="K44" t="s">
         <v>135</v>
@@ -9764,13 +9764,13 @@
         <v>137063.987892528</v>
       </c>
       <c r="C45" t="n">
-        <v>85417.1064305994</v>
+        <v>92528.132500415</v>
       </c>
       <c r="D45" t="n">
-        <v>85417.1064305994</v>
+        <v>92528.132500415</v>
       </c>
       <c r="E45" t="n">
-        <v>51646.8814619284</v>
+        <v>44535.8553921128</v>
       </c>
       <c r="F45" t="n">
         <v>16.3363592087436</v>
@@ -9779,13 +9779,13 @@
         <v>1487.22545493965</v>
       </c>
       <c r="H45" t="n">
-        <v>5228.65011347708</v>
+        <v>5663.93841602675</v>
       </c>
       <c r="I45" t="n">
-        <v>1.00594207878113</v>
+        <v>7.71798009590634</v>
       </c>
       <c r="J45" t="n">
-        <v>1.00594207878113</v>
+        <v>7.71798009590634</v>
       </c>
       <c r="K45" t="s">
         <v>135</v>
@@ -9799,13 +9799,13 @@
         <v>136444.469691326</v>
       </c>
       <c r="C46" t="n">
-        <v>92775.8798885076</v>
+        <v>92109.8859455257</v>
       </c>
       <c r="D46" t="n">
-        <v>92775.8798885076</v>
+        <v>92109.8859455257</v>
       </c>
       <c r="E46" t="n">
-        <v>43668.5898028187</v>
+        <v>44334.5837458006</v>
       </c>
       <c r="F46" t="n">
         <v>15.0878850812898</v>
@@ -9814,13 +9814,13 @@
         <v>8287.47752224433</v>
       </c>
       <c r="H46" t="n">
-        <v>6149.03145064097</v>
+        <v>6104.89047664802</v>
       </c>
       <c r="I46" t="n">
-        <v>31.4594005053186</v>
+        <v>20.4852459391404</v>
       </c>
       <c r="J46" t="n">
-        <v>31.4594005053186</v>
+        <v>20.4852459391404</v>
       </c>
       <c r="K46" t="s">
         <v>135</v>
@@ -9834,13 +9834,13 @@
         <v>141000.307831114</v>
       </c>
       <c r="C47" t="n">
-        <v>95873.6374817953</v>
+        <v>95185.4062094943</v>
       </c>
       <c r="D47" t="n">
-        <v>95873.6374817953</v>
+        <v>95185.4062094943</v>
       </c>
       <c r="E47" t="n">
-        <v>45126.6703493187</v>
+        <v>45814.9016216197</v>
       </c>
       <c r="F47" t="n">
         <v>15.6344230307057</v>
@@ -9849,13 +9849,13 @@
         <v>8287.47752224433</v>
       </c>
       <c r="H47" t="n">
-        <v>6132.21461984885</v>
+        <v>6088.19436589069</v>
       </c>
       <c r="I47" t="n">
-        <v>33.1682849182514</v>
+        <v>22.0514736716748</v>
       </c>
       <c r="J47" t="n">
-        <v>33.1682849182514</v>
+        <v>22.0514736716748</v>
       </c>
       <c r="K47" t="s">
         <v>135</v>
@@ -9869,13 +9869,13 @@
         <v>142162.052808006</v>
       </c>
       <c r="C48" t="n">
-        <v>96663.5699186399</v>
+        <v>95969.6680968498</v>
       </c>
       <c r="D48" t="n">
-        <v>96663.5699186399</v>
+        <v>95969.6680968498</v>
       </c>
       <c r="E48" t="n">
-        <v>45498.4828893664</v>
+        <v>46192.3847111565</v>
       </c>
       <c r="F48" t="n">
         <v>15.9288933099476</v>
@@ -9884,13 +9884,13 @@
         <v>8287.47752224433</v>
       </c>
       <c r="H48" t="n">
-        <v>6068.44229776299</v>
+        <v>6024.87983499247</v>
       </c>
       <c r="I48" t="n">
-        <v>26.4475806108069</v>
+        <v>15.8918098647952</v>
       </c>
       <c r="J48" t="n">
-        <v>26.4475806108069</v>
+        <v>15.8918098647952</v>
       </c>
       <c r="K48" t="s">
         <v>135</v>
@@ -9904,13 +9904,13 @@
         <v>146894.698603384</v>
       </c>
       <c r="C49" t="n">
-        <v>99881.5484769508</v>
+        <v>99164.5463166777</v>
       </c>
       <c r="D49" t="n">
-        <v>99881.5484769508</v>
+        <v>99164.5463166777</v>
       </c>
       <c r="E49" t="n">
-        <v>47013.1501264329</v>
+        <v>47730.152286706</v>
       </c>
       <c r="F49" t="n">
         <v>17.3926884060765</v>
@@ -9919,13 +9919,13 @@
         <v>8287.47752224433</v>
       </c>
       <c r="H49" t="n">
-        <v>5742.73201157649</v>
+        <v>5701.50766813211</v>
       </c>
       <c r="I49" t="n">
-        <v>16.9338937489104</v>
+        <v>7.17232006842123</v>
       </c>
       <c r="J49" t="n">
-        <v>16.9338937489104</v>
+        <v>7.17232006842123</v>
       </c>
       <c r="K49" t="s">
         <v>135</v>
@@ -9939,13 +9939,13 @@
         <v>142126.348610743</v>
       </c>
       <c r="C50" t="n">
-        <v>95192.6668729541</v>
+        <v>95945.5620895707</v>
       </c>
       <c r="D50" t="n">
-        <v>95192.6668729541</v>
+        <v>95945.5620895707</v>
       </c>
       <c r="E50" t="n">
-        <v>46933.6817377887</v>
+        <v>46180.7865211722</v>
       </c>
       <c r="F50" t="n">
         <v>15.8322670062545</v>
@@ -9954,13 +9954,13 @@
         <v>43077.5253772945</v>
       </c>
       <c r="H50" t="n">
-        <v>6012.57336269963</v>
+        <v>6060.12784218884</v>
       </c>
       <c r="I50" t="n">
-        <v>2.60497339109145</v>
+        <v>4.16423938068211</v>
       </c>
       <c r="J50" t="n">
-        <v>2.60497339109145</v>
+        <v>4.16423938068211</v>
       </c>
       <c r="K50" t="s">
         <v>135</v>
@@ -9974,13 +9974,13 @@
         <v>136558.371525223</v>
       </c>
       <c r="C51" t="n">
-        <v>91463.3753444019</v>
+        <v>92186.7749512677</v>
       </c>
       <c r="D51" t="n">
-        <v>91463.3753444019</v>
+        <v>92186.7749512677</v>
       </c>
       <c r="E51" t="n">
-        <v>45094.9961808214</v>
+        <v>44371.5965739556</v>
       </c>
       <c r="F51" t="n">
         <v>15.2612416191893</v>
@@ -9989,13 +9989,13 @@
         <v>43077.5253772945</v>
       </c>
       <c r="H51" t="n">
-        <v>5993.18047814647</v>
+        <v>6040.58157596778</v>
       </c>
       <c r="I51" t="n">
-        <v>-4.60007803316198</v>
+        <v>-3.15030567987163</v>
       </c>
       <c r="J51" t="n">
-        <v>-4.60007803316198</v>
+        <v>-3.15030567987163</v>
       </c>
       <c r="K51" t="s">
         <v>135</v>
@@ -10009,13 +10009,13 @@
         <v>136984.794697187</v>
       </c>
       <c r="C52" t="n">
-        <v>91748.9828995977</v>
+        <v>92474.6414258656</v>
       </c>
       <c r="D52" t="n">
-        <v>91748.9828995977</v>
+        <v>92474.6414258656</v>
       </c>
       <c r="E52" t="n">
-        <v>45235.811797589</v>
+        <v>44510.153271321</v>
       </c>
       <c r="F52" t="n">
         <v>15.5402417089743</v>
@@ -10024,13 +10024,13 @@
         <v>43077.5253772945</v>
       </c>
       <c r="H52" t="n">
-        <v>5903.96112350129</v>
+        <v>5950.65657006238</v>
       </c>
       <c r="I52" t="n">
-        <v>-5.08421841152648</v>
+        <v>-3.64180343674541</v>
       </c>
       <c r="J52" t="n">
-        <v>-5.08421841152648</v>
+        <v>-3.64180343674541</v>
       </c>
       <c r="K52" t="s">
         <v>135</v>
@@ -10044,13 +10044,13 @@
         <v>142321.716120316</v>
       </c>
       <c r="C53" t="n">
-        <v>95323.5191353132</v>
+        <v>96077.449285036</v>
       </c>
       <c r="D53" t="n">
-        <v>95323.5191353132</v>
+        <v>96077.449285036</v>
       </c>
       <c r="E53" t="n">
-        <v>46998.1969850023</v>
+        <v>46244.2668352796</v>
       </c>
       <c r="F53" t="n">
         <v>16.4480682088755</v>
@@ -10059,13 +10059,13 @@
         <v>43077.5253772945</v>
       </c>
       <c r="H53" t="n">
-        <v>5795.42338497089</v>
+        <v>5841.2603878425</v>
       </c>
       <c r="I53" t="n">
-        <v>-4.56343479966113</v>
+        <v>-3.11310558693347</v>
       </c>
       <c r="J53" t="n">
-        <v>-4.56343479966113</v>
+        <v>-3.11310558693347</v>
       </c>
       <c r="K53" t="s">
         <v>135</v>
@@ -10079,13 +10079,13 @@
         <v>137214.037139535</v>
       </c>
       <c r="C54" t="n">
-        <v>96887.5405262872</v>
+        <v>92629.4033343588</v>
       </c>
       <c r="D54" t="n">
-        <v>96887.5405262872</v>
+        <v>92629.4033343588</v>
       </c>
       <c r="E54" t="n">
-        <v>40326.4966132482</v>
+        <v>44584.6338051766</v>
       </c>
       <c r="F54" t="n">
         <v>15.0175840813957</v>
@@ -10094,13 +10094,13 @@
         <v>39281.7714021683</v>
       </c>
       <c r="H54" t="n">
-        <v>6451.60633036275</v>
+        <v>6168.06290760918</v>
       </c>
       <c r="I54" t="n">
-        <v>1.78046661471842</v>
+        <v>-3.4562919670178</v>
       </c>
       <c r="J54" t="n">
-        <v>1.78046661471842</v>
+        <v>-3.4562919670178</v>
       </c>
       <c r="K54" t="s">
         <v>135</v>
@@ -10114,13 +10114,13 @@
         <v>139319.722324302</v>
       </c>
       <c r="C55" t="n">
-        <v>98374.3757140547</v>
+        <v>94050.8931931303</v>
       </c>
       <c r="D55" t="n">
-        <v>98374.3757140547</v>
+        <v>94050.8931931303</v>
       </c>
       <c r="E55" t="n">
-        <v>40945.3466102475</v>
+        <v>45268.8291311719</v>
       </c>
       <c r="F55" t="n">
         <v>15.2573780412911</v>
@@ -10129,13 +10129,13 @@
         <v>39281.7714021683</v>
       </c>
       <c r="H55" t="n">
-        <v>6447.65931917162</v>
+        <v>6164.28936469951</v>
       </c>
       <c r="I55" t="n">
-        <v>7.55603031664829</v>
+        <v>2.02211026782098</v>
       </c>
       <c r="J55" t="n">
-        <v>7.55603031664829</v>
+        <v>2.02211026782098</v>
       </c>
       <c r="K55" t="s">
         <v>135</v>
@@ -10149,13 +10149,13 @@
         <v>142755.874855213</v>
       </c>
       <c r="C56" t="n">
-        <v>100800.660768656</v>
+        <v>96370.5447779052</v>
       </c>
       <c r="D56" t="n">
-        <v>100800.660768656</v>
+        <v>96370.5447779052</v>
       </c>
       <c r="E56" t="n">
-        <v>41955.2140865572</v>
+        <v>46385.3300773075</v>
       </c>
       <c r="F56" t="n">
         <v>16.1333680631927</v>
@@ -10164,13 +10164,13 @@
         <v>39281.7714021683</v>
       </c>
       <c r="H56" t="n">
-        <v>6247.96139118814</v>
+        <v>5973.36801593023</v>
       </c>
       <c r="I56" t="n">
-        <v>9.86569832492121</v>
+        <v>4.21294237205869</v>
       </c>
       <c r="J56" t="n">
-        <v>9.86569832492121</v>
+        <v>4.21294237205869</v>
       </c>
       <c r="K56" t="s">
         <v>135</v>
@@ -10184,13 +10184,13 @@
         <v>147798.76433755</v>
       </c>
       <c r="C57" t="n">
-        <v>104361.471085698</v>
+        <v>99774.860062026</v>
       </c>
       <c r="D57" t="n">
-        <v>104361.471085698</v>
+        <v>99774.860062026</v>
       </c>
       <c r="E57" t="n">
-        <v>43437.2932518518</v>
+        <v>48023.9042755242</v>
       </c>
       <c r="F57" t="n">
         <v>17.7019343166172</v>
@@ -10199,13 +10199,13 @@
         <v>39281.7714021683</v>
       </c>
       <c r="H57" t="n">
-        <v>5895.48403124127</v>
+        <v>5636.3817805134</v>
       </c>
       <c r="I57" t="n">
-        <v>9.4813452465552</v>
+        <v>3.84836483951689</v>
       </c>
       <c r="J57" t="n">
-        <v>9.4813452465552</v>
+        <v>3.84836483951689</v>
       </c>
       <c r="K57" t="s">
         <v>135</v>
@@ -10219,13 +10219,13 @@
         <v>130808.648453855</v>
       </c>
       <c r="C58" t="n">
-        <v>84245.1667415946</v>
+        <v>88305.3558746822</v>
       </c>
       <c r="D58" t="n">
-        <v>84245.1667415946</v>
+        <v>88305.3558746822</v>
       </c>
       <c r="E58" t="n">
-        <v>46563.4817122604</v>
+        <v>42503.2925791728</v>
       </c>
       <c r="F58" t="n">
         <v>14.9607925025206</v>
@@ -10234,13 +10234,13 @@
         <v>43339.3998750509</v>
       </c>
       <c r="H58" t="n">
-        <v>5631.06310894969</v>
+        <v>5902.45174911721</v>
       </c>
       <c r="I58" t="n">
-        <v>-13.0485031573926</v>
+        <v>-4.66811541910545</v>
       </c>
       <c r="J58" t="n">
-        <v>-13.0485031573926</v>
+        <v>-4.66811541910545</v>
       </c>
       <c r="K58" t="s">
         <v>135</v>
@@ -10254,13 +10254,13 @@
         <v>127486.052853058</v>
       </c>
       <c r="C59" t="n">
-        <v>82105.3034855135</v>
+        <v>86062.3620785989</v>
       </c>
       <c r="D59" t="n">
-        <v>82105.3034855135</v>
+        <v>86062.3620785989</v>
       </c>
       <c r="E59" t="n">
-        <v>45380.7493675445</v>
+        <v>41423.6907744591</v>
       </c>
       <c r="F59" t="n">
         <v>14.6691216973636</v>
@@ -10269,13 +10269,13 @@
         <v>43339.3998750509</v>
       </c>
       <c r="H59" t="n">
-        <v>5597.15197538172</v>
+        <v>5866.90627115504</v>
       </c>
       <c r="I59" t="n">
-        <v>-16.5379166174641</v>
+        <v>-8.49383864768541</v>
       </c>
       <c r="J59" t="n">
-        <v>-16.5379166174641</v>
+        <v>-8.49383864768541</v>
       </c>
       <c r="K59" t="s">
         <v>135</v>
@@ -10289,13 +10289,13 @@
         <v>123851.923710635</v>
       </c>
       <c r="C60" t="n">
-        <v>79764.8021564142</v>
+        <v>83609.0604734727</v>
       </c>
       <c r="D60" t="n">
-        <v>79764.8021564142</v>
+        <v>83609.0604734727</v>
       </c>
       <c r="E60" t="n">
-        <v>44087.1215542206</v>
+        <v>40242.8632371621</v>
       </c>
       <c r="F60" t="n">
         <v>13.796158335703</v>
@@ -10304,13 +10304,13 @@
         <v>43339.3998750509</v>
       </c>
       <c r="H60" t="n">
-        <v>5781.66763641668</v>
+        <v>6060.31464984722</v>
       </c>
       <c r="I60" t="n">
-        <v>-20.8687705535186</v>
+        <v>-13.2421004092511</v>
       </c>
       <c r="J60" t="n">
-        <v>-20.8687705535186</v>
+        <v>-13.2421004092511</v>
       </c>
       <c r="K60" t="s">
         <v>135</v>
@@ -10324,13 +10324,13 @@
         <v>130781.558383073</v>
       </c>
       <c r="C61" t="n">
-        <v>84227.7198253775</v>
+        <v>88287.068105721</v>
       </c>
       <c r="D61" t="n">
-        <v>84227.7198253775</v>
+        <v>88287.068105721</v>
       </c>
       <c r="E61" t="n">
-        <v>46553.8385576958</v>
+        <v>42494.4902773523</v>
       </c>
       <c r="F61" t="n">
         <v>14.561296432579</v>
@@ -10339,13 +10339,13 @@
         <v>43339.3998750509</v>
       </c>
       <c r="H61" t="n">
-        <v>5784.35582404111</v>
+        <v>6063.13239446112</v>
       </c>
       <c r="I61" t="n">
-        <v>-19.2923222055654</v>
+        <v>-11.5137139246935</v>
       </c>
       <c r="J61" t="n">
-        <v>-19.2923222055654</v>
+        <v>-11.5137139246935</v>
       </c>
       <c r="K61" t="s">
         <v>135</v>
@@ -10359,13 +10359,13 @@
         <v>132149.150055304</v>
       </c>
       <c r="C62" t="n">
-        <v>84402.7426871919</v>
+        <v>89210.3483927279</v>
       </c>
       <c r="D62" t="n">
-        <v>84402.7426871919</v>
+        <v>89210.3483927279</v>
       </c>
       <c r="E62" t="n">
-        <v>47746.4073681122</v>
+        <v>42938.8016625763</v>
       </c>
       <c r="F62" t="n">
         <v>14.7331600467763</v>
@@ -10374,13 +10374,13 @@
         <v>19182.1410183579</v>
       </c>
       <c r="H62" t="n">
-        <v>5728.76032156183</v>
+        <v>6055.07223905084</v>
       </c>
       <c r="I62" t="n">
-        <v>0.187044493698529</v>
+        <v>1.02484442657136</v>
       </c>
       <c r="J62" t="n">
-        <v>0.187044493698529</v>
+        <v>1.02484442657136</v>
       </c>
       <c r="K62" t="s">
         <v>135</v>
@@ -10394,13 +10394,13 @@
         <v>138467.349679631</v>
       </c>
       <c r="C63" t="n">
-        <v>88438.1328271601</v>
+        <v>93475.5955733953</v>
       </c>
       <c r="D63" t="n">
-        <v>88438.1328271601</v>
+        <v>93475.5955733953</v>
       </c>
       <c r="E63" t="n">
-        <v>50029.2168524707</v>
+        <v>44991.7541062355</v>
       </c>
       <c r="F63" t="n">
         <v>15.160747257081</v>
@@ -10409,13 +10409,13 @@
         <v>19182.1410183579</v>
       </c>
       <c r="H63" t="n">
-        <v>5833.362388246</v>
+        <v>6165.6324710338</v>
       </c>
       <c r="I63" t="n">
-        <v>7.71305758922622</v>
+        <v>8.61379273790563</v>
       </c>
       <c r="J63" t="n">
-        <v>7.71305758922622</v>
+        <v>8.61379273790563</v>
       </c>
       <c r="K63" t="s">
         <v>135</v>
@@ -10429,13 +10429,13 @@
         <v>142759.280210603</v>
       </c>
       <c r="C64" t="n">
-        <v>91179.3589953597</v>
+        <v>96372.9628117405</v>
       </c>
       <c r="D64" t="n">
-        <v>91179.3589953597</v>
+        <v>96372.9628117405</v>
       </c>
       <c r="E64" t="n">
-        <v>51579.9212152431</v>
+        <v>46386.3173988623</v>
       </c>
       <c r="F64" t="n">
         <v>15.4797648611791</v>
@@ -10444,13 +10444,13 @@
         <v>19182.1410183579</v>
       </c>
       <c r="H64" t="n">
-        <v>5890.22894165685</v>
+        <v>6225.73816049553</v>
       </c>
       <c r="I64" t="n">
-        <v>14.3102678504263</v>
+        <v>15.2661712331016</v>
       </c>
       <c r="J64" t="n">
-        <v>14.3102678504263</v>
+        <v>15.2661712331016</v>
       </c>
       <c r="K64" t="s">
         <v>135</v>
@@ -10464,13 +10464,13 @@
         <v>148551.562262898</v>
       </c>
       <c r="C65" t="n">
-        <v>94878.8492412443</v>
+        <v>100283.177138946</v>
       </c>
       <c r="D65" t="n">
-        <v>94878.8492412443</v>
+        <v>100283.177138946</v>
       </c>
       <c r="E65" t="n">
-        <v>53672.713021654</v>
+        <v>48268.3851239527</v>
       </c>
       <c r="F65" t="n">
         <v>16.4099137030078</v>
@@ -10479,13 +10479,13 @@
         <v>19182.1410183579</v>
       </c>
       <c r="H65" t="n">
-        <v>5781.80062116071</v>
+        <v>6111.13373012829</v>
       </c>
       <c r="I65" t="n">
-        <v>12.6456342851842</v>
+        <v>13.5876174060505</v>
       </c>
       <c r="J65" t="n">
-        <v>12.6456342851842</v>
+        <v>13.5876174060505</v>
       </c>
       <c r="K65" t="s">
         <v>135</v>
@@ -10499,13 +10499,13 @@
         <v>153901.768714441</v>
       </c>
       <c r="C66" t="n">
-        <v>100214.32616287</v>
+        <v>103894.912890654</v>
       </c>
       <c r="D66" t="n">
-        <v>100214.32616287</v>
+        <v>103894.912890654</v>
       </c>
       <c r="E66" t="n">
-        <v>53687.4425515714</v>
+        <v>50006.8558237872</v>
       </c>
       <c r="F66" t="n">
         <v>16.2215917651742</v>
@@ -10514,13 +10514,13 @@
         <v>49579.1870580881</v>
       </c>
       <c r="H66" t="n">
-        <v>6177.83554250314</v>
+        <v>6404.72984369533</v>
       </c>
       <c r="I66" t="n">
-        <v>18.7334948750157</v>
+        <v>16.4606066028131</v>
       </c>
       <c r="J66" t="n">
-        <v>18.7334948750157</v>
+        <v>16.4606066028131</v>
       </c>
       <c r="K66" t="s">
         <v>135</v>
@@ -10534,13 +10534,13 @@
         <v>155068.862595123</v>
       </c>
       <c r="C67" t="n">
-        <v>100974.288363423</v>
+        <v>104682.786337993</v>
       </c>
       <c r="D67" t="n">
-        <v>100974.288363423</v>
+        <v>104682.786337993</v>
       </c>
       <c r="E67" t="n">
-        <v>54094.5742316995</v>
+        <v>50386.0762571299</v>
       </c>
       <c r="F67" t="n">
         <v>16.7142011170032</v>
@@ -10549,13 +10549,13 @@
         <v>49579.1870580881</v>
       </c>
       <c r="H67" t="n">
-        <v>6041.22731661422</v>
+        <v>6263.10438681395</v>
       </c>
       <c r="I67" t="n">
-        <v>14.1750567719057</v>
+        <v>11.9894296429469</v>
       </c>
       <c r="J67" t="n">
-        <v>14.1750567719057</v>
+        <v>11.9894296429469</v>
       </c>
       <c r="K67" t="s">
         <v>135</v>
@@ -10569,13 +10569,13 @@
         <v>155252.313717836</v>
       </c>
       <c r="C68" t="n">
-        <v>101093.743979821</v>
+        <v>104806.629218898</v>
       </c>
       <c r="D68" t="n">
-        <v>101093.743979821</v>
+        <v>104806.629218898</v>
       </c>
       <c r="E68" t="n">
-        <v>54158.5697380146</v>
+        <v>50445.6844989379</v>
       </c>
       <c r="F68" t="n">
         <v>17.2074807300736</v>
@@ -10584,13 +10584,13 @@
         <v>49579.1870580881</v>
       </c>
       <c r="H68" t="n">
-        <v>5874.98806859851</v>
+        <v>6090.75964477048</v>
       </c>
       <c r="I68" t="n">
-        <v>10.8734971310404</v>
+        <v>8.75107100695052</v>
       </c>
       <c r="J68" t="n">
-        <v>10.8734971310404</v>
+        <v>8.75107100695052</v>
       </c>
       <c r="K68" t="s">
         <v>135</v>
@@ -10604,13 +10604,13 @@
         <v>160619.289611233</v>
       </c>
       <c r="C69" t="n">
-        <v>104588.491812688</v>
+        <v>108429.72918447</v>
       </c>
       <c r="D69" t="n">
-        <v>104588.491812688</v>
+        <v>108429.72918447</v>
       </c>
       <c r="E69" t="n">
-        <v>56030.7977985449</v>
+        <v>52189.5604267632</v>
       </c>
       <c r="F69" t="n">
         <v>18.9600053590959</v>
@@ -10619,13 +10619,13 @@
         <v>49579.1870580881</v>
       </c>
       <c r="H69" t="n">
-        <v>5516.26910603758</v>
+        <v>5718.86595656742</v>
       </c>
       <c r="I69" t="n">
-        <v>10.2337271679544</v>
+        <v>8.1235480146753</v>
       </c>
       <c r="J69" t="n">
-        <v>10.2337271679544</v>
+        <v>8.1235480146753</v>
       </c>
       <c r="K69" t="s">
         <v>135</v>
@@ -10639,13 +10639,13 @@
         <v>161831.023824243</v>
       </c>
       <c r="C70" t="n">
-        <v>100680.398262713</v>
+        <v>109247.881519624</v>
       </c>
       <c r="D70" t="n">
-        <v>100680.398262713</v>
+        <v>109247.881519624</v>
       </c>
       <c r="E70" t="n">
-        <v>61150.6255615295</v>
+        <v>52583.1423046193</v>
       </c>
       <c r="F70" t="n">
         <v>18.8796508499964</v>
@@ -10654,13 +10654,13 @@
         <v>76626.9476104629</v>
       </c>
       <c r="H70" t="n">
-        <v>5332.74683216572</v>
+        <v>5786.54141369591</v>
       </c>
       <c r="I70" t="n">
-        <v>0.46507532175204</v>
+        <v>5.15229136830166</v>
       </c>
       <c r="J70" t="n">
-        <v>0.46507532175204</v>
+        <v>5.15229136830166</v>
       </c>
       <c r="K70" t="s">
         <v>135</v>
@@ -10674,13 +10674,13 @@
         <v>165883.850946615</v>
       </c>
       <c r="C71" t="n">
-        <v>103201.795205821</v>
+        <v>111983.838858467</v>
       </c>
       <c r="D71" t="n">
-        <v>103201.795205821</v>
+        <v>111983.838858467</v>
       </c>
       <c r="E71" t="n">
-        <v>62682.0557407945</v>
+        <v>53900.0120881484</v>
       </c>
       <c r="F71" t="n">
         <v>20.1583681527233</v>
@@ -10689,13 +10689,13 @@
         <v>76626.9476104629</v>
       </c>
       <c r="H71" t="n">
-        <v>5119.55106802027</v>
+        <v>5555.20357650269</v>
       </c>
       <c r="I71" t="n">
-        <v>2.2060139056191</v>
+        <v>6.97445375297931</v>
       </c>
       <c r="J71" t="n">
-        <v>2.2060139056191</v>
+        <v>6.97445375297931</v>
       </c>
       <c r="K71" t="s">
         <v>135</v>
@@ -10709,13 +10709,13 @@
         <v>166125.125793304</v>
       </c>
       <c r="C72" t="n">
-        <v>103351.900217093</v>
+        <v>112146.717182053</v>
       </c>
       <c r="D72" t="n">
-        <v>103351.900217093</v>
+        <v>112146.717182053</v>
       </c>
       <c r="E72" t="n">
-        <v>62773.2255762108</v>
+        <v>53978.4086112512</v>
       </c>
       <c r="F72" t="n">
         <v>20.2522076840743</v>
@@ -10724,13 +10724,13 @@
         <v>76626.9476104629</v>
       </c>
       <c r="H72" t="n">
-        <v>5103.24117890447</v>
+        <v>5537.50578364065</v>
       </c>
       <c r="I72" t="n">
-        <v>2.23372500450973</v>
+        <v>7.00345771814184</v>
       </c>
       <c r="J72" t="n">
-        <v>2.23372500450973</v>
+        <v>7.00345771814184</v>
       </c>
       <c r="K72" t="s">
         <v>135</v>
@@ -10744,13 +10744,13 @@
         <v>176993.274912531</v>
       </c>
       <c r="C73" t="n">
-        <v>110113.332950107</v>
+        <v>119483.519726195</v>
       </c>
       <c r="D73" t="n">
-        <v>110113.332950107</v>
+        <v>119483.519726195</v>
       </c>
       <c r="E73" t="n">
-        <v>66879.941962424</v>
+        <v>57509.7551863354</v>
       </c>
       <c r="F73" t="n">
         <v>22.1077148503321</v>
@@ -10759,13 +10759,13 @@
         <v>76626.9476104629</v>
       </c>
       <c r="H73" t="n">
-        <v>4980.76502685001</v>
+        <v>5404.60742030968</v>
       </c>
       <c r="I73" t="n">
-        <v>5.28245607300015</v>
+        <v>10.1944278795716</v>
       </c>
       <c r="J73" t="n">
-        <v>5.28245607300015</v>
+        <v>10.1944278795716</v>
       </c>
       <c r="K73" t="s">
         <v>135</v>
@@ -10779,13 +10779,13 @@
         <v>181815.849822946</v>
       </c>
       <c r="C74" t="n">
-        <v>103563.264524695</v>
+        <v>122739.186798958</v>
       </c>
       <c r="D74" t="n">
-        <v>103563.264524695</v>
+        <v>122739.186798958</v>
       </c>
       <c r="E74" t="n">
-        <v>78252.5852982515</v>
+        <v>59076.6630239887</v>
       </c>
       <c r="F74" t="n">
         <v>22.9476082294029</v>
@@ -10794,13 +10794,13 @@
         <v>62372.881541274</v>
       </c>
       <c r="H74" t="n">
-        <v>4513.03087839884</v>
+        <v>5348.67013468057</v>
       </c>
       <c r="I74" t="n">
-        <v>2.86338384802483</v>
+        <v>12.3492603166963</v>
       </c>
       <c r="J74" t="n">
-        <v>2.86338384802483</v>
+        <v>12.3492603166963</v>
       </c>
       <c r="K74" t="s">
         <v>135</v>
@@ -10814,13 +10814,13 @@
         <v>190216.677323987</v>
       </c>
       <c r="C75" t="n">
-        <v>108348.420062915</v>
+        <v>128410.368584925</v>
       </c>
       <c r="D75" t="n">
-        <v>108348.420062915</v>
+        <v>128410.368584925</v>
       </c>
       <c r="E75" t="n">
-        <v>81868.257261071</v>
+        <v>61806.3087390619</v>
       </c>
       <c r="F75" t="n">
         <v>24.0962146799322</v>
@@ -10829,13 +10829,13 @@
         <v>62372.881541274</v>
       </c>
       <c r="H75" t="n">
-        <v>4496.49131625434</v>
+        <v>5329.06808353875</v>
       </c>
       <c r="I75" t="n">
-        <v>4.98695284014274</v>
+        <v>14.6686610263639</v>
       </c>
       <c r="J75" t="n">
-        <v>4.98695284014274</v>
+        <v>14.6686610263639</v>
       </c>
       <c r="K75" t="s">
         <v>135</v>
@@ -10849,13 +10849,13 @@
         <v>196017.36193352</v>
       </c>
       <c r="C76" t="n">
-        <v>111652.52053175</v>
+        <v>132326.261025241</v>
       </c>
       <c r="D76" t="n">
-        <v>111652.52053175</v>
+        <v>132326.261025241</v>
       </c>
       <c r="E76" t="n">
-        <v>84364.8414017707</v>
+        <v>63691.1009082791</v>
       </c>
       <c r="F76" t="n">
         <v>24.9178437319193</v>
@@ -10864,13 +10864,13 @@
         <v>62372.881541274</v>
       </c>
       <c r="H76" t="n">
-        <v>4480.82593875186</v>
+        <v>5310.50208231836</v>
       </c>
       <c r="I76" t="n">
-        <v>8.03141528817601</v>
+        <v>17.9938783321045</v>
       </c>
       <c r="J76" t="n">
-        <v>8.03141528817601</v>
+        <v>17.9938783321045</v>
       </c>
       <c r="K76" t="s">
         <v>135</v>
@@ -10884,13 +10884,13 @@
         <v>212084.825242286</v>
       </c>
       <c r="C77" t="n">
-        <v>120804.632157369</v>
+        <v>143172.990737532</v>
       </c>
       <c r="D77" t="n">
-        <v>120804.632157369</v>
+        <v>143172.990737532</v>
       </c>
       <c r="E77" t="n">
-        <v>91280.1930849164</v>
+        <v>68911.8345047537</v>
       </c>
       <c r="F77" t="n">
         <v>28.0383333587455</v>
@@ -10899,13 +10899,13 @@
         <v>62372.881541274</v>
       </c>
       <c r="H77" t="n">
-        <v>4308.55253098304</v>
+        <v>5106.33028381748</v>
       </c>
       <c r="I77" t="n">
-        <v>9.70935936714126</v>
+        <v>19.8265593996752</v>
       </c>
       <c r="J77" t="n">
-        <v>9.70935936714126</v>
+        <v>19.8265593996752</v>
       </c>
       <c r="K77" t="s">
         <v>135</v>
@@ -10919,13 +10919,13 @@
         <v>218421.043759018</v>
       </c>
       <c r="C78" t="n">
-        <v>139616.13876785</v>
+        <v>136753.855372643</v>
       </c>
       <c r="D78" t="n">
-        <v>139616.13876785</v>
+        <v>136753.855372643</v>
       </c>
       <c r="E78" t="n">
-        <v>78804.9049911677</v>
+        <v>81667.1883863749</v>
       </c>
       <c r="F78" t="n">
         <v>28.5805488848226</v>
@@ -10934,13 +10934,13 @@
         <v>80521.8843375044</v>
       </c>
       <c r="H78" t="n">
-        <v>4885.00550953352</v>
+        <v>4784.85755902558</v>
       </c>
       <c r="I78" t="n">
-        <v>34.8124157814267</v>
+        <v>11.4182511219021</v>
       </c>
       <c r="J78" t="n">
-        <v>34.8124157814267</v>
+        <v>11.4182511219021</v>
       </c>
       <c r="K78" t="s">
         <v>135</v>
@@ -10954,13 +10954,13 @@
         <v>219877.902324012</v>
       </c>
       <c r="C79" t="n">
-        <v>140547.372151204</v>
+        <v>137665.997454133</v>
       </c>
       <c r="D79" t="n">
-        <v>140547.372151204</v>
+        <v>137665.997454133</v>
       </c>
       <c r="E79" t="n">
-        <v>79330.5301728081</v>
+        <v>82211.9048698789</v>
       </c>
       <c r="F79" t="n">
         <v>28.8788783588639</v>
@@ -10969,13 +10969,13 @@
         <v>80521.8843375044</v>
       </c>
       <c r="H79" t="n">
-        <v>4866.7877749506</v>
+        <v>4767.01330790706</v>
       </c>
       <c r="I79" t="n">
-        <v>29.7179710323338</v>
+        <v>7.20785164874556</v>
       </c>
       <c r="J79" t="n">
-        <v>29.7179710323338</v>
+        <v>7.20785164874556</v>
       </c>
       <c r="K79" t="s">
         <v>135</v>
@@ -10989,13 +10989,13 @@
         <v>222563.104502831</v>
       </c>
       <c r="C80" t="n">
-        <v>142263.770688477</v>
+        <v>139347.207945983</v>
       </c>
       <c r="D80" t="n">
-        <v>142263.770688477</v>
+        <v>139347.207945983</v>
       </c>
       <c r="E80" t="n">
-        <v>80299.3338143534</v>
+        <v>83215.8965568475</v>
       </c>
       <c r="F80" t="n">
         <v>29.3837558594022</v>
@@ -11004,13 +11004,13 @@
         <v>80521.8843375044</v>
       </c>
       <c r="H80" t="n">
-        <v>4841.57884271815</v>
+        <v>4742.32118632972</v>
       </c>
       <c r="I80" t="n">
-        <v>27.4165330177414</v>
+        <v>5.30578500922261</v>
       </c>
       <c r="J80" t="n">
-        <v>27.4165330177414</v>
+        <v>5.30578500922261</v>
       </c>
       <c r="K80" t="s">
         <v>135</v>
@@ -11024,13 +11024,13 @@
         <v>237152.518134281</v>
       </c>
       <c r="C81" t="n">
-        <v>151589.417902019</v>
+        <v>148481.669202053</v>
       </c>
       <c r="D81" t="n">
-        <v>151589.417902019</v>
+        <v>148481.669202053</v>
       </c>
       <c r="E81" t="n">
-        <v>85563.1002322622</v>
+        <v>88670.8489322284</v>
       </c>
       <c r="F81" t="n">
         <v>32.2738764979488</v>
@@ -11039,13 +11039,13 @@
         <v>80521.8843375044</v>
       </c>
       <c r="H81" t="n">
-        <v>4696.96963461</v>
+        <v>4600.67662499389</v>
       </c>
       <c r="I81" t="n">
-        <v>25.4831169921921</v>
+        <v>3.70787704941702</v>
       </c>
       <c r="J81" t="n">
-        <v>25.4831169921921</v>
+        <v>3.70787704941702</v>
       </c>
       <c r="K81" t="s">
         <v>135</v>
@@ -11059,13 +11059,13 @@
         <v>247595.625577711</v>
       </c>
       <c r="C82" t="n">
-        <v>132184.326122926</v>
+        <v>167042.85001985</v>
       </c>
       <c r="D82" t="n">
-        <v>132184.326122926</v>
+        <v>167042.85001985</v>
       </c>
       <c r="E82" t="n">
-        <v>115411.299454786</v>
+        <v>80552.7755578607</v>
       </c>
       <c r="F82" t="n">
         <v>33.2121255103987</v>
@@ -11074,13 +11074,13 @@
         <v>104725.995183046</v>
       </c>
       <c r="H82" t="n">
-        <v>3980.00200503694</v>
+        <v>5029.57421281421</v>
       </c>
       <c r="I82" t="n">
-        <v>-5.32303264544681</v>
+        <v>22.1485489858198</v>
       </c>
       <c r="J82" t="n">
-        <v>-5.32303264544681</v>
+        <v>22.1485489858198</v>
       </c>
       <c r="K82" t="s">
         <v>135</v>
@@ -11094,13 +11094,13 @@
         <v>249839.038026752</v>
       </c>
       <c r="C83" t="n">
-        <v>133382.020799883</v>
+        <v>168556.390529233</v>
       </c>
       <c r="D83" t="n">
-        <v>133382.020799883</v>
+        <v>168556.390529233</v>
       </c>
       <c r="E83" t="n">
-        <v>116457.01722687</v>
+        <v>81282.6474975191</v>
       </c>
       <c r="F83" t="n">
         <v>33.9551534748539</v>
@@ -11109,13 +11109,13 @@
         <v>104725.995183046</v>
       </c>
       <c r="H83" t="n">
-        <v>3928.18194441858</v>
+        <v>4964.08860746458</v>
       </c>
       <c r="I83" t="n">
-        <v>-5.09817525696084</v>
+        <v>22.4386512620096</v>
       </c>
       <c r="J83" t="n">
-        <v>-5.09817525696084</v>
+        <v>22.4386512620096</v>
       </c>
       <c r="K83" t="s">
         <v>135</v>
@@ -11129,13 +11129,13 @@
         <v>247238.148665275</v>
       </c>
       <c r="C84" t="n">
-        <v>131993.479274704</v>
+        <v>166801.674667377</v>
       </c>
       <c r="D84" t="n">
-        <v>131993.479274704</v>
+        <v>166801.674667377</v>
       </c>
       <c r="E84" t="n">
-        <v>115244.66939057</v>
+        <v>80436.4739978981</v>
       </c>
       <c r="F84" t="n">
         <v>34.1261384751705</v>
@@ -11144,13 +11144,13 @@
         <v>104725.995183046</v>
       </c>
       <c r="H84" t="n">
-        <v>3867.81174702025</v>
+        <v>4887.79809613497</v>
       </c>
       <c r="I84" t="n">
-        <v>-7.21918965318481</v>
+        <v>19.7022008019248</v>
       </c>
       <c r="J84" t="n">
-        <v>-7.21918965318481</v>
+        <v>19.7022008019248</v>
       </c>
       <c r="K84" t="s">
         <v>135</v>
@@ -11164,13 +11164,13 @@
         <v>251201.54092964</v>
       </c>
       <c r="C85" t="n">
-        <v>134109.422698194</v>
+        <v>169475.616656624</v>
       </c>
       <c r="D85" t="n">
-        <v>134109.422698194</v>
+        <v>169475.616656624</v>
       </c>
       <c r="E85" t="n">
-        <v>117092.118231446</v>
+        <v>81725.9242730159</v>
       </c>
       <c r="F85" t="n">
         <v>36.0533057514284</v>
@@ -11179,13 +11179,13 @@
         <v>104725.995183046</v>
       </c>
       <c r="H85" t="n">
-        <v>3719.75384512085</v>
+        <v>4700.6956262231</v>
       </c>
       <c r="I85" t="n">
-        <v>-11.5311447499085</v>
+        <v>14.1390836777316</v>
       </c>
       <c r="J85" t="n">
-        <v>-11.5311447499085</v>
+        <v>14.1390836777316</v>
       </c>
       <c r="K85" t="s">
         <v>135</v>
@@ -11199,13 +11199,13 @@
         <v>251063.643610024</v>
       </c>
       <c r="C86" t="n">
-        <v>130367.577021103</v>
+        <v>135227.716236725</v>
       </c>
       <c r="D86" t="n">
-        <v>130367.577021103</v>
+        <v>135227.716236725</v>
       </c>
       <c r="E86" t="n">
-        <v>120696.066588921</v>
+        <v>115835.9273733</v>
       </c>
       <c r="F86" t="n">
         <v>37.1858334324493</v>
@@ -11214,13 +11214,13 @@
         <v>113258.431670024</v>
       </c>
       <c r="H86" t="n">
-        <v>3505.83985855594</v>
+        <v>3636.53853509496</v>
       </c>
       <c r="I86" t="n">
-        <v>-1.37440584304458</v>
+        <v>-19.0460913348552</v>
       </c>
       <c r="J86" t="n">
-        <v>-1.37440584304458</v>
+        <v>-19.0460913348552</v>
       </c>
       <c r="K86" t="s">
         <v>135</v>
@@ -11234,13 +11234,13 @@
         <v>247284.366844924</v>
       </c>
       <c r="C87" t="n">
-        <v>128405.145712157</v>
+        <v>133192.12494751</v>
       </c>
       <c r="D87" t="n">
-        <v>128405.145712157</v>
+        <v>133192.12494751</v>
       </c>
       <c r="E87" t="n">
-        <v>118879.221132767</v>
+        <v>114092.241897414</v>
       </c>
       <c r="F87" t="n">
         <v>37.3206941301683</v>
@@ -11249,13 +11249,13 @@
         <v>113258.431670024</v>
       </c>
       <c r="H87" t="n">
-        <v>3440.58835734142</v>
+        <v>3568.85443992436</v>
       </c>
       <c r="I87" t="n">
-        <v>-3.73129381147427</v>
+        <v>-20.9806732753867</v>
       </c>
       <c r="J87" t="n">
-        <v>-3.73129381147427</v>
+        <v>-20.9806732753867</v>
       </c>
       <c r="K87" t="s">
         <v>135</v>
@@ -11269,13 +11269,13 @@
         <v>247092.596827055</v>
       </c>
       <c r="C88" t="n">
-        <v>128305.567006872</v>
+        <v>133088.833920636</v>
       </c>
       <c r="D88" t="n">
-        <v>128305.567006872</v>
+        <v>133088.833920636</v>
       </c>
       <c r="E88" t="n">
-        <v>118787.029820183</v>
+        <v>114003.762906419</v>
       </c>
       <c r="F88" t="n">
         <v>37.5589065033484</v>
@@ -11284,13 +11284,13 @@
         <v>113258.431670024</v>
       </c>
       <c r="H88" t="n">
-        <v>3416.11561549146</v>
+        <v>3543.46934751073</v>
       </c>
       <c r="I88" t="n">
-        <v>-2.79401095273554</v>
+        <v>-20.2113322986521</v>
       </c>
       <c r="J88" t="n">
-        <v>-2.79401095273554</v>
+        <v>-20.2113322986521</v>
       </c>
       <c r="K88" t="s">
         <v>135</v>
@@ -11304,13 +11304,13 @@
         <v>260680.898608823</v>
       </c>
       <c r="C89" t="n">
-        <v>135361.443172966</v>
+        <v>140407.755095612</v>
       </c>
       <c r="D89" t="n">
-        <v>135361.443172966</v>
+        <v>140407.755095612</v>
       </c>
       <c r="E89" t="n">
-        <v>125319.455435857</v>
+        <v>120273.143513211</v>
       </c>
       <c r="F89" t="n">
         <v>39.9805348604588</v>
@@ -11319,13 +11319,13 @@
         <v>113258.431670024</v>
       </c>
       <c r="H89" t="n">
-        <v>3385.68364944111</v>
+        <v>3511.90286937548</v>
       </c>
       <c r="I89" t="n">
-        <v>0.933581287267016</v>
+        <v>-17.1516482042999</v>
       </c>
       <c r="J89" t="n">
-        <v>0.933581287267016</v>
+        <v>-17.1516482042999</v>
       </c>
       <c r="K89" t="s">
         <v>135</v>
@@ -11339,13 +11339,13 @@
         <v>261332.328475257</v>
       </c>
       <c r="C90" t="n">
-        <v>143397.189321345</v>
+        <v>140758.627774187</v>
       </c>
       <c r="D90" t="n">
-        <v>143397.189321345</v>
+        <v>140758.627774187</v>
       </c>
       <c r="E90" t="n">
-        <v>117935.139153912</v>
+        <v>120573.70070107</v>
       </c>
       <c r="F90" t="n">
         <v>41.8429501238348</v>
@@ -11354,13 +11354,13 @@
         <v>51477.5825485287</v>
       </c>
       <c r="H90" t="n">
-        <v>3427.03344044718</v>
+        <v>3363.97475220102</v>
       </c>
       <c r="I90" t="n">
-        <v>9.99451903453974</v>
+        <v>4.09007242848072</v>
       </c>
       <c r="J90" t="n">
-        <v>9.99451903453974</v>
+        <v>4.09007242848072</v>
       </c>
       <c r="K90" t="s">
         <v>135</v>
@@ -11374,13 +11374,13 @@
         <v>261417.458817302</v>
       </c>
       <c r="C91" t="n">
-        <v>143443.901688875</v>
+        <v>140804.480616803</v>
       </c>
       <c r="D91" t="n">
-        <v>143443.901688875</v>
+        <v>140804.480616803</v>
       </c>
       <c r="E91" t="n">
-        <v>117973.557128427</v>
+        <v>120612.978200499</v>
       </c>
       <c r="F91" t="n">
         <v>41.3556360125527</v>
@@ -11389,13 +11389,13 @@
         <v>51477.5825485287</v>
       </c>
       <c r="H91" t="n">
-        <v>3468.54541531741</v>
+        <v>3404.72289131438</v>
       </c>
       <c r="I91" t="n">
-        <v>11.7119574089577</v>
+        <v>5.71531963492087</v>
       </c>
       <c r="J91" t="n">
-        <v>11.7119574089577</v>
+        <v>5.71531963492087</v>
       </c>
       <c r="K91" t="s">
         <v>135</v>
@@ -11409,13 +11409,13 @@
         <v>258866.562665051</v>
       </c>
       <c r="C92" t="n">
-        <v>142044.184552394</v>
+        <v>139430.518795546</v>
       </c>
       <c r="D92" t="n">
-        <v>142044.184552394</v>
+        <v>139430.518795546</v>
       </c>
       <c r="E92" t="n">
-        <v>116822.378112657</v>
+        <v>119436.043869505</v>
       </c>
       <c r="F92" t="n">
         <v>40.8058843364685</v>
@@ -11424,13 +11424,13 @@
         <v>51477.5825485287</v>
       </c>
       <c r="H92" t="n">
-        <v>3480.97307195099</v>
+        <v>3416.92187444976</v>
       </c>
       <c r="I92" t="n">
-        <v>10.707733004902</v>
+        <v>4.76500145661434</v>
       </c>
       <c r="J92" t="n">
-        <v>10.707733004902</v>
+        <v>4.76500145661434</v>
       </c>
       <c r="K92" t="s">
         <v>135</v>
@@ -11444,13 +11444,13 @@
         <v>266719.618089211</v>
       </c>
       <c r="C93" t="n">
-        <v>146353.280491574</v>
+        <v>143660.325768869</v>
       </c>
       <c r="D93" t="n">
-        <v>146353.280491574</v>
+        <v>143660.325768869</v>
       </c>
       <c r="E93" t="n">
-        <v>120366.337597637</v>
+        <v>123059.292320342</v>
       </c>
       <c r="F93" t="n">
         <v>42.8548498518812</v>
@@ -11459,13 +11459,13 @@
         <v>51477.5825485287</v>
       </c>
       <c r="H93" t="n">
-        <v>3415.09259739361</v>
+        <v>3352.25362509496</v>
       </c>
       <c r="I93" t="n">
-        <v>8.12036061447936</v>
+        <v>2.31651782413471</v>
       </c>
       <c r="J93" t="n">
-        <v>8.12036061447936</v>
+        <v>2.31651782413471</v>
       </c>
       <c r="K93" t="s">
         <v>135</v>
@@ -11479,13 +11479,13 @@
         <v>255039.131429752</v>
       </c>
       <c r="C94" t="n">
-        <v>-612987.757800104</v>
+        <v>137368.990580786</v>
       </c>
       <c r="D94" t="n">
-        <v>-612987.757800104</v>
+        <v>137368.990580786</v>
       </c>
       <c r="E94" t="n">
-        <v>868026.889229856</v>
+        <v>117670.140848966</v>
       </c>
       <c r="F94" t="n">
         <v>42.725143510578</v>
@@ -11494,13 +11494,13 @@
         <v>21104.3472333569</v>
       </c>
       <c r="H94" t="n">
-        <v>-14347.2369530681</v>
+        <v>3215.17914964465</v>
       </c>
       <c r="I94" t="n">
-        <v>-527.47543428235</v>
+        <v>-2.40812037386358</v>
       </c>
       <c r="J94" t="n">
-        <v>-527.47543428235</v>
+        <v>-2.40812037386358</v>
       </c>
       <c r="K94" t="s">
         <v>135</v>
@@ -11514,13 +11514,13 @@
         <v>255236.696546099</v>
       </c>
       <c r="C95" t="n">
-        <v>-613462.60649101</v>
+        <v>137475.402959367</v>
       </c>
       <c r="D95" t="n">
-        <v>-613462.60649101</v>
+        <v>137475.402959367</v>
       </c>
       <c r="E95" t="n">
-        <v>868699.303037109</v>
+        <v>117761.293586733</v>
       </c>
       <c r="F95" t="n">
         <v>43.4568526414579</v>
@@ -11529,13 +11529,13 @@
         <v>21104.3472333569</v>
       </c>
       <c r="H95" t="n">
-        <v>-14116.5908068033</v>
+        <v>3163.49193747674</v>
       </c>
       <c r="I95" t="n">
-        <v>-527.667261743611</v>
+        <v>-2.36432650641059</v>
       </c>
       <c r="J95" t="n">
-        <v>-527.667261743611</v>
+        <v>-2.36432650641059</v>
       </c>
       <c r="K95" t="s">
         <v>135</v>
@@ -11549,13 +11549,13 @@
         <v>254011.237350264</v>
       </c>
       <c r="C96" t="n">
-        <v>-610517.20952185</v>
+        <v>136815.347022907</v>
       </c>
       <c r="D96" t="n">
-        <v>-610517.20952185</v>
+        <v>136815.347022907</v>
       </c>
       <c r="E96" t="n">
-        <v>864528.446872114</v>
+        <v>117195.890327358</v>
       </c>
       <c r="F96" t="n">
         <v>43.667692199517</v>
@@ -11564,13 +11564,13 @@
         <v>21104.3472333569</v>
       </c>
       <c r="H96" t="n">
-        <v>-13980.9817915819</v>
+        <v>3133.10230359322</v>
       </c>
       <c r="I96" t="n">
-        <v>-529.807958309379</v>
+        <v>-1.87560929646545</v>
       </c>
       <c r="J96" t="n">
-        <v>-529.807958309379</v>
+        <v>-1.87560929646545</v>
       </c>
       <c r="K96" t="s">
         <v>135</v>
@@ -11584,13 +11584,13 @@
         <v>261107.995206908</v>
       </c>
       <c r="C97" t="n">
-        <v>-627574.30057218</v>
+        <v>140637.797553138</v>
       </c>
       <c r="D97" t="n">
-        <v>-627574.30057218</v>
+        <v>140637.797553138</v>
       </c>
       <c r="E97" t="n">
-        <v>888682.295779089</v>
+        <v>120470.19765377</v>
       </c>
       <c r="F97" t="n">
         <v>45.3464381833216</v>
@@ -11599,13 +11599,13 @@
         <v>21104.3472333569</v>
       </c>
       <c r="H97" t="n">
-        <v>-13839.5500443738</v>
+        <v>3101.40781034628</v>
       </c>
       <c r="I97" t="n">
-        <v>-528.807812482421</v>
+        <v>-2.10394080589352</v>
       </c>
       <c r="J97" t="n">
-        <v>-528.807812482421</v>
+        <v>-2.10394080589352</v>
       </c>
       <c r="K97" t="s">
         <v>135</v>
@@ -11619,13 +11619,13 @@
         <v>268644.042458169</v>
       </c>
       <c r="C98" t="n">
-        <v>-660009.893400515</v>
+        <v>147906.531045807</v>
       </c>
       <c r="D98" t="n">
-        <v>-645687.225758715</v>
+        <v>144696.857816053</v>
       </c>
       <c r="E98" t="n">
-        <v>914331.268216884</v>
+        <v>123947.184642116</v>
       </c>
       <c r="F98" t="n">
         <v>46.0025784448603</v>
@@ -11634,7 +11634,7 @@
         <v>-42688.1561352682</v>
       </c>
       <c r="H98" t="n">
-        <v>-14347.2369530681</v>
+        <v>3215.17914964465</v>
       </c>
       <c r="I98" t="n">
         <v>7.67097466500217</v>
@@ -11654,13 +11654,13 @@
         <v>270317.86639182</v>
       </c>
       <c r="C99" t="n">
-        <v>-654221.638848457</v>
+        <v>146609.397987401</v>
       </c>
       <c r="D99" t="n">
-        <v>-649710.269494353</v>
+        <v>145598.411639917</v>
       </c>
       <c r="E99" t="n">
-        <v>920028.135886172</v>
+        <v>124719.454751902</v>
       </c>
       <c r="F99" t="n">
         <v>46.344166789418</v>
@@ -11669,7 +11669,7 @@
         <v>-42688.1561352682</v>
       </c>
       <c r="H99" t="n">
-        <v>-14116.5908068033</v>
+        <v>3163.49193747674</v>
       </c>
       <c r="I99" t="n">
         <v>6.64409402075665</v>
@@ -11689,13 +11689,13 @@
         <v>270554.999240275</v>
       </c>
       <c r="C100" t="n">
-        <v>-648613.537485581</v>
+        <v>145352.63679847</v>
       </c>
       <c r="D100" t="n">
-        <v>-650280.219416391</v>
+        <v>145726.135961449</v>
       </c>
       <c r="E100" t="n">
-        <v>920835.218656666</v>
+        <v>124828.863278826</v>
       </c>
       <c r="F100" t="n">
         <v>46.392560061563</v>
@@ -11704,7 +11704,7 @@
         <v>-42688.1561352682</v>
       </c>
       <c r="H100" t="n">
-        <v>-13980.9817915819</v>
+        <v>3133.10230359322</v>
       </c>
       <c r="I100" t="n">
         <v>6.24000885963034</v>
@@ -11724,13 +11724,13 @@
         <v>280202.590655641</v>
       </c>
       <c r="C101" t="n">
-        <v>-669300.126062625</v>
+        <v>149988.448452502</v>
       </c>
       <c r="D101" t="n">
-        <v>-673468.250981286</v>
+        <v>150922.514598857</v>
       </c>
       <c r="E101" t="n">
-        <v>953670.841636927</v>
+        <v>129280.076056784</v>
       </c>
       <c r="F101" t="n">
         <v>48.3614079877343</v>
@@ -11739,10 +11739,10 @@
         <v>-42688.1561352682</v>
       </c>
       <c r="H101" t="n">
-        <v>-13839.5500443738</v>
+        <v>3101.40781034628</v>
       </c>
       <c r="I101" t="n">
-        <v>6.6487466826481</v>
+        <v>6.64874668264812</v>
       </c>
       <c r="J101" t="n">
         <v>7.31291105567304</v>
@@ -11759,13 +11759,13 @@
         <v>283417.756779114</v>
       </c>
       <c r="C102" t="n">
-        <v>-703266.37959077</v>
+        <v>157600.199097763</v>
       </c>
       <c r="D102" t="n">
-        <v>-681195.917955112</v>
+        <v>152654.265026546</v>
       </c>
       <c r="E102" t="n">
-        <v>964613.674734226</v>
+        <v>130763.491752568</v>
       </c>
       <c r="F102" t="n">
         <v>49.017548249273</v>
@@ -11774,7 +11774,7 @@
         <v>-42688.1561352682</v>
       </c>
       <c r="H102" t="n">
-        <v>-14347.2369530681</v>
+        <v>3215.17914964465</v>
       </c>
       <c r="I102" t="n">
         <v>6.55391481594136</v>
@@ -11794,13 +11794,13 @@
         <v>285091.580712765</v>
       </c>
       <c r="C103" t="n">
-        <v>-696782.73387222</v>
+        <v>156147.230655397</v>
       </c>
       <c r="D103" t="n">
-        <v>-685218.961690749</v>
+        <v>153555.818850411</v>
       </c>
       <c r="E103" t="n">
-        <v>970310.542403514</v>
+        <v>131535.761862354</v>
       </c>
       <c r="F103" t="n">
         <v>49.3591365938307</v>
@@ -11809,7 +11809,7 @@
         <v>-42688.1561352682</v>
       </c>
       <c r="H103" t="n">
-        <v>-14116.5908068033</v>
+        <v>3163.49193747674</v>
       </c>
       <c r="I103" t="n">
         <v>6.50560796165001</v>
@@ -11829,13 +11829,13 @@
         <v>285328.713561219</v>
       </c>
       <c r="C104" t="n">
-        <v>-690765.775423241</v>
+        <v>154798.845637939</v>
       </c>
       <c r="D104" t="n">
-        <v>-685788.911612784</v>
+        <v>153683.543171942</v>
       </c>
       <c r="E104" t="n">
-        <v>971117.625174003</v>
+        <v>131645.170389277</v>
       </c>
       <c r="F104" t="n">
         <v>49.4075298659755</v>
@@ -11844,13 +11844,13 @@
         <v>-42688.1561352682</v>
       </c>
       <c r="H104" t="n">
-        <v>-13980.9817915819</v>
+        <v>3133.10230359322</v>
       </c>
       <c r="I104" t="n">
         <v>6.49882179472663</v>
       </c>
       <c r="J104" t="n">
-        <v>5.46052165453559</v>
+        <v>5.46052165453563</v>
       </c>
       <c r="K104" t="s">
         <v>135</v>
@@ -11864,13 +11864,13 @@
         <v>294976.304976584</v>
       </c>
       <c r="C105" t="n">
-        <v>-711025.951553068</v>
+        <v>159339.099351865</v>
       </c>
       <c r="D105" t="n">
-        <v>-708976.94317768</v>
+        <v>158879.92180935</v>
       </c>
       <c r="E105" t="n">
-        <v>1003953.24815426</v>
+        <v>136096.383167235</v>
       </c>
       <c r="F105" t="n">
         <v>51.3763777921468</v>
@@ -11879,13 +11879,13 @@
         <v>-42688.1561352682</v>
       </c>
       <c r="H105" t="n">
-        <v>-13839.5500443738</v>
+        <v>3101.40781034628</v>
       </c>
       <c r="I105" t="n">
-        <v>6.23424736760598</v>
+        <v>6.23424736760596</v>
       </c>
       <c r="J105" t="n">
-        <v>5.27251168034355</v>
+        <v>5.27251168034357</v>
       </c>
       <c r="K105" t="s">
         <v>135</v>
@@ -11899,13 +11899,13 @@
         <v>298191.471100058</v>
       </c>
       <c r="C106" t="n">
-        <v>-746522.865781022</v>
+        <v>167293.867149719</v>
       </c>
       <c r="D106" t="n">
-        <v>-716704.610151506</v>
+        <v>160611.672237039</v>
       </c>
       <c r="E106" t="n">
-        <v>1014896.08125156</v>
+        <v>137579.798863019</v>
       </c>
       <c r="F106" t="n">
         <v>52.0325180536855</v>
@@ -11914,13 +11914,13 @@
         <v>-42688.1561352682</v>
       </c>
       <c r="H106" t="n">
-        <v>-14347.2369530681</v>
+        <v>3215.17914964465</v>
       </c>
       <c r="I106" t="n">
-        <v>6.15079683112716</v>
+        <v>6.15079683112714</v>
       </c>
       <c r="J106" t="n">
-        <v>5.21269891090768</v>
+        <v>5.2126989109077</v>
       </c>
       <c r="K106" t="s">
         <v>135</v>
@@ -11934,13 +11934,13 @@
         <v>299865.29503371</v>
       </c>
       <c r="C107" t="n">
-        <v>-739343.828895982</v>
+        <v>165685.063323392</v>
       </c>
       <c r="D107" t="n">
-        <v>-720727.653887146</v>
+        <v>161513.226060905</v>
       </c>
       <c r="E107" t="n">
-        <v>1020592.94892086</v>
+        <v>138352.068972806</v>
       </c>
       <c r="F107" t="n">
         <v>52.3741063982435</v>
@@ -11949,10 +11949,10 @@
         <v>-42688.1561352682</v>
       </c>
       <c r="H107" t="n">
-        <v>-14116.5908068033</v>
+        <v>3163.49193747674</v>
       </c>
       <c r="I107" t="n">
-        <v>6.10823043608422</v>
+        <v>6.10823043608424</v>
       </c>
       <c r="J107" t="n">
         <v>5.1820942182891</v>
@@ -11969,13 +11969,13 @@
         <v>300102.427882164</v>
       </c>
       <c r="C108" t="n">
-        <v>-732918.013360905</v>
+        <v>164245.054477408</v>
       </c>
       <c r="D108" t="n">
-        <v>-721297.603809181</v>
+        <v>161640.950382435</v>
       </c>
       <c r="E108" t="n">
-        <v>1021400.03169135</v>
+        <v>138461.477499729</v>
       </c>
       <c r="F108" t="n">
         <v>52.4224996703883</v>
@@ -11984,13 +11984,13 @@
         <v>-42688.1561352682</v>
       </c>
       <c r="H108" t="n">
-        <v>-13980.9817915819</v>
+        <v>3133.10230359322</v>
       </c>
       <c r="I108" t="n">
-        <v>6.10224759786873</v>
+        <v>6.1022475978687</v>
       </c>
       <c r="J108" t="n">
-        <v>5.17778744962358</v>
+        <v>5.17778744962356</v>
       </c>
       <c r="K108" t="s">
         <v>135</v>
@@ -12004,13 +12004,13 @@
         <v>309750.019297529</v>
       </c>
       <c r="C109" t="n">
-        <v>-752751.777043514</v>
+        <v>168689.750251229</v>
       </c>
       <c r="D109" t="n">
-        <v>-744485.635374076</v>
+        <v>166837.329019843</v>
       </c>
       <c r="E109" t="n">
-        <v>1054235.65467161</v>
+        <v>142912.690277686</v>
       </c>
       <c r="F109" t="n">
         <v>54.3913475965595</v>
@@ -12019,13 +12019,13 @@
         <v>-42688.1561352682</v>
       </c>
       <c r="H109" t="n">
-        <v>-13839.5500443738</v>
+        <v>3101.40781034628</v>
       </c>
       <c r="I109" t="n">
-        <v>5.86839698316295</v>
+        <v>5.86839698316297</v>
       </c>
       <c r="J109" t="n">
-        <v>5.00844104143137</v>
+        <v>5.00844104143139</v>
       </c>
       <c r="K109" t="s">
         <v>135</v>
@@ -12039,13 +12039,13 @@
         <v>312965.185421003</v>
       </c>
       <c r="C110" t="n">
-        <v>-789779.351971277</v>
+        <v>176987.535201675</v>
       </c>
       <c r="D110" t="n">
-        <v>-752213.302347902</v>
+        <v>168569.079447533</v>
       </c>
       <c r="E110" t="n">
-        <v>1065178.48776891</v>
+        <v>144396.10597347</v>
       </c>
       <c r="F110" t="n">
         <v>55.0474878580982</v>
@@ -12054,7 +12054,7 @@
         <v>-42688.1561352682</v>
       </c>
       <c r="H110" t="n">
-        <v>-14347.2369530681</v>
+        <v>3215.17914964465</v>
       </c>
       <c r="I110" t="n">
         <v>5.7943953458143</v>
@@ -12074,13 +12074,13 @@
         <v>314639.009354654</v>
       </c>
       <c r="C111" t="n">
-        <v>-781904.923919741</v>
+        <v>175222.895991387</v>
       </c>
       <c r="D111" t="n">
-        <v>-756236.34608354</v>
+        <v>169470.633271398</v>
       </c>
       <c r="E111" t="n">
-        <v>1070875.35543819</v>
+        <v>145168.376083256</v>
       </c>
       <c r="F111" t="n">
         <v>55.389076202656</v>
@@ -12089,13 +12089,13 @@
         <v>-42688.1561352682</v>
       </c>
       <c r="H111" t="n">
-        <v>-14116.5908068033</v>
+        <v>3163.49193747674</v>
       </c>
       <c r="I111" t="n">
         <v>5.7566038100721</v>
       </c>
       <c r="J111" t="n">
-        <v>4.92678364773194</v>
+        <v>4.92678364773189</v>
       </c>
       <c r="K111" t="s">
         <v>135</v>
@@ -12109,13 +12109,13 @@
         <v>314876.142203108</v>
       </c>
       <c r="C112" t="n">
-        <v>-775070.251298566</v>
+        <v>173691.263316877</v>
       </c>
       <c r="D112" t="n">
-        <v>-756806.296005575</v>
+        <v>169598.357592928</v>
       </c>
       <c r="E112" t="n">
-        <v>1071682.43820868</v>
+        <v>145277.784610179</v>
       </c>
       <c r="F112" t="n">
         <v>55.4374694748007</v>
@@ -12124,13 +12124,13 @@
         <v>-42688.1561352682</v>
       </c>
       <c r="H112" t="n">
-        <v>-13980.9817915819</v>
+        <v>3133.10230359322</v>
       </c>
       <c r="I112" t="n">
-        <v>5.75128966258651</v>
+        <v>5.75128966258653</v>
       </c>
       <c r="J112" t="n">
-        <v>4.922890636108</v>
+        <v>4.92289063610802</v>
       </c>
       <c r="K112" t="s">
         <v>135</v>
@@ -12144,13 +12144,13 @@
         <v>324523.733618473</v>
       </c>
       <c r="C113" t="n">
-        <v>-794477.602533956</v>
+        <v>178040.401150592</v>
       </c>
       <c r="D113" t="n">
-        <v>-779994.32757047</v>
+        <v>174794.736230336</v>
       </c>
       <c r="E113" t="n">
-        <v>1104518.06118894</v>
+        <v>149728.997388137</v>
       </c>
       <c r="F113" t="n">
         <v>57.406317400972</v>
@@ -12159,13 +12159,13 @@
         <v>-42688.1561352682</v>
       </c>
       <c r="H113" t="n">
-        <v>-13839.5500443738</v>
+        <v>3101.40781034628</v>
       </c>
       <c r="I113" t="n">
         <v>5.54310554460908</v>
       </c>
       <c r="J113" t="n">
-        <v>4.76956041986651</v>
+        <v>4.76956041986649</v>
       </c>
       <c r="K113" t="s">
         <v>135</v>
@@ -12179,13 +12179,13 @@
         <v>327738.899741947</v>
       </c>
       <c r="C114" t="n">
-        <v>-833035.838161529</v>
+        <v>186681.20325363</v>
       </c>
       <c r="D114" t="n">
-        <v>-787721.994544296</v>
+        <v>176526.486658026</v>
       </c>
       <c r="E114" t="n">
-        <v>1115460.89428624</v>
+        <v>151212.413083921</v>
       </c>
       <c r="F114" t="n">
         <v>58.0624576625108</v>
@@ -12194,7 +12194,7 @@
         <v>-42688.1561352682</v>
       </c>
       <c r="H114" t="n">
-        <v>-14347.2369530681</v>
+        <v>3215.17914964465</v>
       </c>
       <c r="I114" t="n">
         <v>5.47703432386328</v>
@@ -12214,13 +12214,13 @@
         <v>329412.723675599</v>
       </c>
       <c r="C115" t="n">
-        <v>-824466.018943504</v>
+        <v>184760.728659382</v>
       </c>
       <c r="D115" t="n">
-        <v>-791745.038279936</v>
+        <v>177428.040481891</v>
       </c>
       <c r="E115" t="n">
-        <v>1121157.76195554</v>
+        <v>151984.683193708</v>
       </c>
       <c r="F115" t="n">
         <v>58.4040460070687</v>
@@ -12229,7 +12229,7 @@
         <v>-42688.1561352682</v>
       </c>
       <c r="H115" t="n">
-        <v>-14116.5908068033</v>
+        <v>3163.49193747674</v>
       </c>
       <c r="I115" t="n">
         <v>5.44325706639637</v>
@@ -12249,13 +12249,13 @@
         <v>329649.856524053</v>
       </c>
       <c r="C116" t="n">
-        <v>-817222.48923623</v>
+        <v>183137.472156347</v>
       </c>
       <c r="D116" t="n">
-        <v>-792314.988201972</v>
+        <v>177555.764803422</v>
       </c>
       <c r="E116" t="n">
-        <v>1121964.84472602</v>
+        <v>152094.091720631</v>
       </c>
       <c r="F116" t="n">
         <v>58.4524392792135</v>
@@ -12264,10 +12264,10 @@
         <v>-42688.1561352682</v>
       </c>
       <c r="H116" t="n">
-        <v>-13980.9817915819</v>
+        <v>3133.10230359322</v>
       </c>
       <c r="I116" t="n">
-        <v>5.43850546025233</v>
+        <v>5.43850546025231</v>
       </c>
       <c r="J116" t="n">
         <v>4.69191289552051</v>
@@ -12284,13 +12284,13 @@
         <v>339297.447939418</v>
       </c>
       <c r="C117" t="n">
-        <v>-836203.428024403</v>
+        <v>187391.052049956</v>
       </c>
       <c r="D117" t="n">
-        <v>-815503.019766867</v>
+        <v>182752.14344083</v>
       </c>
       <c r="E117" t="n">
-        <v>1154800.46770629</v>
+        <v>156545.304498589</v>
       </c>
       <c r="F117" t="n">
         <v>60.4212872053848</v>
@@ -12299,13 +12299,13 @@
         <v>-42688.1561352682</v>
       </c>
       <c r="H117" t="n">
-        <v>-13839.5500443738</v>
+        <v>3101.40781034628</v>
       </c>
       <c r="I117" t="n">
         <v>5.25198260559685</v>
       </c>
       <c r="J117" t="n">
-        <v>4.55242954227622</v>
+        <v>4.55242954227624</v>
       </c>
       <c r="K117" t="s">
         <v>135</v>
@@ -12338,7 +12338,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>54985.5388297607</v>
+        <v>59551.192365884</v>
       </c>
     </row>
     <row r="3">
@@ -12346,7 +12346,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="n">
-        <v>54272.2998593596</v>
+        <v>58778.7305144014</v>
       </c>
     </row>
     <row r="4">
@@ -12354,7 +12354,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="n">
-        <v>55234.7381552033</v>
+        <v>59821.0836369839</v>
       </c>
     </row>
     <row r="5">
@@ -12362,7 +12362,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="n">
-        <v>61741.295944175</v>
+        <v>66867.9050881739</v>
       </c>
     </row>
     <row r="6">
@@ -12370,7 +12370,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>64984.5060168336</v>
+        <v>68495.1211856196</v>
       </c>
     </row>
     <row r="7">
@@ -12378,7 +12378,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="n">
-        <v>65597.1399962176</v>
+        <v>69140.851086982</v>
       </c>
     </row>
     <row r="8">
@@ -12386,7 +12386,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="n">
-        <v>66281.0710466608</v>
+        <v>69861.7296941161</v>
       </c>
     </row>
     <row r="9">
@@ -12394,7 +12394,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>72624.9947701796</v>
+        <v>76548.3670307482</v>
       </c>
     </row>
     <row r="10">
@@ -12402,7 +12402,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>81424.322347896</v>
+        <v>80419.9350370231</v>
       </c>
     </row>
     <row r="11">
@@ -12410,7 +12410,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="n">
-        <v>78518.3664081326</v>
+        <v>77549.8247166974</v>
       </c>
     </row>
     <row r="12">
@@ -12418,7 +12418,7 @@
         <v>42</v>
       </c>
       <c r="B12" t="n">
-        <v>77872.2886107197</v>
+        <v>76911.7164340787</v>
       </c>
     </row>
     <row r="13">
@@ -12426,7 +12426,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="n">
-        <v>80401.524983617</v>
+        <v>79409.7541080383</v>
       </c>
     </row>
     <row r="14">
@@ -12434,7 +12434,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="n">
-        <v>76205.9450920637</v>
+        <v>76791.7668014693</v>
       </c>
     </row>
     <row r="15">
@@ -12442,7 +12442,7 @@
         <v>44</v>
       </c>
       <c r="B15" t="n">
-        <v>75277.932196876</v>
+        <v>75856.6199471141</v>
       </c>
     </row>
     <row r="16">
@@ -12450,7 +12450,7 @@
         <v>45</v>
       </c>
       <c r="B16" t="n">
-        <v>74945.4824223494</v>
+        <v>75521.6145150864</v>
       </c>
     </row>
     <row r="17">
@@ -12458,7 +12458,7 @@
         <v>46</v>
       </c>
       <c r="B17" t="n">
-        <v>77374.2441573585</v>
+        <v>77969.046989624</v>
       </c>
     </row>
     <row r="18">
@@ -12466,7 +12466,7 @@
         <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>74832.9105711751</v>
+        <v>74859.5444133463</v>
       </c>
     </row>
     <row r="19">
@@ -12474,7 +12474,7 @@
         <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>76506.0511346651</v>
+        <v>76533.2804656575</v>
       </c>
     </row>
     <row r="20">
@@ -12482,7 +12482,7 @@
         <v>48</v>
       </c>
       <c r="B20" t="n">
-        <v>75524.4889230462</v>
+        <v>75551.3689054321</v>
       </c>
     </row>
     <row r="21">
@@ -12490,7 +12490,7 @@
         <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>84017.8238472762</v>
+        <v>84047.7266994149</v>
       </c>
     </row>
     <row r="22">
@@ -12498,7 +12498,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="n">
-        <v>76649.1483771533</v>
+        <v>75904.9868677349</v>
       </c>
     </row>
     <row r="23">
@@ -12506,7 +12506,7 @@
         <v>50</v>
       </c>
       <c r="B23" t="n">
-        <v>77456.2123341365</v>
+        <v>76704.215304753</v>
       </c>
     </row>
     <row r="24">
@@ -12514,7 +12514,7 @@
         <v>51</v>
       </c>
       <c r="B24" t="n">
-        <v>78166.6146090676</v>
+        <v>77407.7205163716</v>
       </c>
     </row>
     <row r="25">
@@ -12522,7 +12522,7 @@
         <v>52</v>
       </c>
       <c r="B25" t="n">
-        <v>82001.5251093965</v>
+        <v>81205.399125064</v>
       </c>
     </row>
     <row r="26">
@@ -12530,7 +12530,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="n">
-        <v>77277.6767304335</v>
+        <v>76610.2712170643</v>
       </c>
     </row>
     <row r="27">
@@ -12538,7 +12538,7 @@
         <v>53</v>
       </c>
       <c r="B27" t="n">
-        <v>76564.3451546607</v>
+        <v>75903.1003004453</v>
       </c>
     </row>
     <row r="28">
@@ -12546,7 +12546,7 @@
         <v>54</v>
       </c>
       <c r="B28" t="n">
-        <v>75554.5359362385</v>
+        <v>74902.0122582843</v>
       </c>
     </row>
     <row r="29">
@@ -12554,7 +12554,7 @@
         <v>55</v>
       </c>
       <c r="B29" t="n">
-        <v>78142.4055569483</v>
+        <v>77467.5318482244</v>
       </c>
     </row>
     <row r="30">
@@ -12562,7 +12562,7 @@
         <v>12</v>
       </c>
       <c r="B30" t="n">
-        <v>74274.31833225</v>
+        <v>74442.2374953617</v>
       </c>
     </row>
     <row r="31">
@@ -12570,7 +12570,7 @@
         <v>56</v>
       </c>
       <c r="B31" t="n">
-        <v>73346.8411173049</v>
+        <v>73512.6634426234</v>
       </c>
     </row>
     <row r="32">
@@ -12578,7 +12578,7 @@
         <v>57</v>
       </c>
       <c r="B32" t="n">
-        <v>72762.5359575065</v>
+        <v>72927.0372874172</v>
       </c>
     </row>
     <row r="33">
@@ -12586,7 +12586,7 @@
         <v>58</v>
       </c>
       <c r="B33" t="n">
-        <v>78304.4961403288</v>
+        <v>78481.5267177209</v>
       </c>
     </row>
     <row r="34">
@@ -12594,7 +12594,7 @@
         <v>13</v>
       </c>
       <c r="B34" t="n">
-        <v>70528.9167368136</v>
+        <v>72706.6300297531</v>
       </c>
     </row>
     <row r="35">
@@ -12602,7 +12602,7 @@
         <v>59</v>
       </c>
       <c r="B35" t="n">
-        <v>72083.3141713772</v>
+        <v>74309.0224160666</v>
       </c>
     </row>
     <row r="36">
@@ -12610,7 +12610,7 @@
         <v>60</v>
       </c>
       <c r="B36" t="n">
-        <v>72705.5769151916</v>
+        <v>74950.4986954293</v>
       </c>
     </row>
     <row r="37">
@@ -12618,7 +12618,7 @@
         <v>61</v>
       </c>
       <c r="B37" t="n">
-        <v>76439.4479865158</v>
+        <v>78799.6600766343</v>
       </c>
     </row>
     <row r="38">
@@ -12626,7 +12626,7 @@
         <v>14</v>
       </c>
       <c r="B38" t="n">
-        <v>76181.0506394315</v>
+        <v>77381.050645681</v>
       </c>
     </row>
     <row r="39">
@@ -12634,7 +12634,7 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>77127.7664445457</v>
+        <v>78342.6790696487</v>
       </c>
     </row>
     <row r="40">
@@ -12642,7 +12642,7 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>76653.6343045284</v>
+        <v>77861.0784244558</v>
       </c>
     </row>
     <row r="41">
@@ -12650,7 +12650,7 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>84566.4172549146</v>
+        <v>85898.5031264353</v>
       </c>
     </row>
     <row r="42">
@@ -12658,7 +12658,7 @@
         <v>15</v>
       </c>
       <c r="B42" t="n">
-        <v>70573.7889659356</v>
+        <v>76449.0998275858</v>
       </c>
     </row>
     <row r="43">
@@ -12666,7 +12666,7 @@
         <v>65</v>
       </c>
       <c r="B43" t="n">
-        <v>71994.3472581701</v>
+        <v>77987.9204617785</v>
       </c>
     </row>
     <row r="44">
@@ -12674,7 +12674,7 @@
         <v>66</v>
       </c>
       <c r="B44" t="n">
-        <v>76445.5669706808</v>
+        <v>82809.7069230453</v>
       </c>
     </row>
     <row r="45">
@@ -12682,7 +12682,7 @@
         <v>67</v>
       </c>
       <c r="B45" t="n">
-        <v>85417.1064305994</v>
+        <v>92528.132500415</v>
       </c>
     </row>
     <row r="46">
@@ -12690,7 +12690,7 @@
         <v>16</v>
       </c>
       <c r="B46" t="n">
-        <v>92775.8798885076</v>
+        <v>92109.8859455257</v>
       </c>
     </row>
     <row r="47">
@@ -12698,7 +12698,7 @@
         <v>68</v>
       </c>
       <c r="B47" t="n">
-        <v>95873.6374817953</v>
+        <v>95185.4062094943</v>
       </c>
     </row>
     <row r="48">
@@ -12706,7 +12706,7 @@
         <v>69</v>
       </c>
       <c r="B48" t="n">
-        <v>96663.5699186399</v>
+        <v>95969.6680968498</v>
       </c>
     </row>
     <row r="49">
@@ -12714,7 +12714,7 @@
         <v>70</v>
       </c>
       <c r="B49" t="n">
-        <v>99881.5484769508</v>
+        <v>99164.5463166777</v>
       </c>
     </row>
     <row r="50">
@@ -12722,7 +12722,7 @@
         <v>17</v>
       </c>
       <c r="B50" t="n">
-        <v>95192.6668729541</v>
+        <v>95945.5620895707</v>
       </c>
     </row>
     <row r="51">
@@ -12730,7 +12730,7 @@
         <v>71</v>
       </c>
       <c r="B51" t="n">
-        <v>91463.3753444019</v>
+        <v>92186.7749512677</v>
       </c>
     </row>
     <row r="52">
@@ -12738,7 +12738,7 @@
         <v>72</v>
       </c>
       <c r="B52" t="n">
-        <v>91748.9828995977</v>
+        <v>92474.6414258656</v>
       </c>
     </row>
     <row r="53">
@@ -12746,7 +12746,7 @@
         <v>73</v>
       </c>
       <c r="B53" t="n">
-        <v>95323.5191353132</v>
+        <v>96077.449285036</v>
       </c>
     </row>
     <row r="54">
@@ -12754,7 +12754,7 @@
         <v>18</v>
       </c>
       <c r="B54" t="n">
-        <v>96887.5405262872</v>
+        <v>92629.4033343588</v>
       </c>
     </row>
     <row r="55">
@@ -12762,7 +12762,7 @@
         <v>74</v>
       </c>
       <c r="B55" t="n">
-        <v>98374.3757140547</v>
+        <v>94050.8931931303</v>
       </c>
     </row>
     <row r="56">
@@ -12770,7 +12770,7 @@
         <v>75</v>
       </c>
       <c r="B56" t="n">
-        <v>100800.660768656</v>
+        <v>96370.5447779052</v>
       </c>
     </row>
     <row r="57">
@@ -12778,7 +12778,7 @@
         <v>76</v>
       </c>
       <c r="B57" t="n">
-        <v>104361.471085698</v>
+        <v>99774.860062026</v>
       </c>
     </row>
     <row r="58">
@@ -12786,7 +12786,7 @@
         <v>19</v>
       </c>
       <c r="B58" t="n">
-        <v>84245.1667415946</v>
+        <v>88305.3558746822</v>
       </c>
     </row>
     <row r="59">
@@ -12794,7 +12794,7 @@
         <v>77</v>
       </c>
       <c r="B59" t="n">
-        <v>82105.3034855135</v>
+        <v>86062.3620785989</v>
       </c>
     </row>
     <row r="60">
@@ -12802,7 +12802,7 @@
         <v>78</v>
       </c>
       <c r="B60" t="n">
-        <v>79764.8021564142</v>
+        <v>83609.0604734727</v>
       </c>
     </row>
     <row r="61">
@@ -12810,7 +12810,7 @@
         <v>79</v>
       </c>
       <c r="B61" t="n">
-        <v>84227.7198253775</v>
+        <v>88287.068105721</v>
       </c>
     </row>
     <row r="62">
@@ -12818,7 +12818,7 @@
         <v>20</v>
       </c>
       <c r="B62" t="n">
-        <v>84402.7426871919</v>
+        <v>89210.3483927279</v>
       </c>
     </row>
     <row r="63">
@@ -12826,7 +12826,7 @@
         <v>80</v>
       </c>
       <c r="B63" t="n">
-        <v>88438.1328271601</v>
+        <v>93475.5955733953</v>
       </c>
     </row>
     <row r="64">
@@ -12834,7 +12834,7 @@
         <v>81</v>
       </c>
       <c r="B64" t="n">
-        <v>91179.3589953597</v>
+        <v>96372.9628117405</v>
       </c>
     </row>
     <row r="65">
@@ -12842,7 +12842,7 @@
         <v>82</v>
       </c>
       <c r="B65" t="n">
-        <v>94878.8492412443</v>
+        <v>100283.177138946</v>
       </c>
     </row>
     <row r="66">
@@ -12850,7 +12850,7 @@
         <v>21</v>
       </c>
       <c r="B66" t="n">
-        <v>100214.32616287</v>
+        <v>103894.912890654</v>
       </c>
     </row>
     <row r="67">
@@ -12858,7 +12858,7 @@
         <v>83</v>
       </c>
       <c r="B67" t="n">
-        <v>100974.288363423</v>
+        <v>104682.786337993</v>
       </c>
     </row>
     <row r="68">
@@ -12866,7 +12866,7 @@
         <v>84</v>
       </c>
       <c r="B68" t="n">
-        <v>101093.743979821</v>
+        <v>104806.629218898</v>
       </c>
     </row>
     <row r="69">
@@ -12874,7 +12874,7 @@
         <v>85</v>
       </c>
       <c r="B69" t="n">
-        <v>104588.491812688</v>
+        <v>108429.72918447</v>
       </c>
     </row>
     <row r="70">
@@ -12882,7 +12882,7 @@
         <v>22</v>
       </c>
       <c r="B70" t="n">
-        <v>100680.398262713</v>
+        <v>109247.881519624</v>
       </c>
     </row>
     <row r="71">
@@ -12890,7 +12890,7 @@
         <v>86</v>
       </c>
       <c r="B71" t="n">
-        <v>103201.795205821</v>
+        <v>111983.838858467</v>
       </c>
     </row>
     <row r="72">
@@ -12898,7 +12898,7 @@
         <v>87</v>
       </c>
       <c r="B72" t="n">
-        <v>103351.900217093</v>
+        <v>112146.717182053</v>
       </c>
     </row>
     <row r="73">
@@ -12906,7 +12906,7 @@
         <v>88</v>
       </c>
       <c r="B73" t="n">
-        <v>110113.332950107</v>
+        <v>119483.519726195</v>
       </c>
     </row>
     <row r="74">
@@ -12914,7 +12914,7 @@
         <v>23</v>
       </c>
       <c r="B74" t="n">
-        <v>103563.264524695</v>
+        <v>122739.186798958</v>
       </c>
     </row>
     <row r="75">
@@ -12922,7 +12922,7 @@
         <v>89</v>
       </c>
       <c r="B75" t="n">
-        <v>108348.420062915</v>
+        <v>128410.368584925</v>
       </c>
     </row>
     <row r="76">
@@ -12930,7 +12930,7 @@
         <v>90</v>
       </c>
       <c r="B76" t="n">
-        <v>111652.52053175</v>
+        <v>132326.261025241</v>
       </c>
     </row>
     <row r="77">
@@ -12938,7 +12938,7 @@
         <v>91</v>
       </c>
       <c r="B77" t="n">
-        <v>120804.632157369</v>
+        <v>143172.990737532</v>
       </c>
     </row>
     <row r="78">
@@ -12946,7 +12946,7 @@
         <v>24</v>
       </c>
       <c r="B78" t="n">
-        <v>139616.13876785</v>
+        <v>136753.855372643</v>
       </c>
     </row>
     <row r="79">
@@ -12954,7 +12954,7 @@
         <v>92</v>
       </c>
       <c r="B79" t="n">
-        <v>140547.372151204</v>
+        <v>137665.997454133</v>
       </c>
     </row>
     <row r="80">
@@ -12962,7 +12962,7 @@
         <v>93</v>
       </c>
       <c r="B80" t="n">
-        <v>142263.770688477</v>
+        <v>139347.207945983</v>
       </c>
     </row>
     <row r="81">
@@ -12970,7 +12970,7 @@
         <v>94</v>
       </c>
       <c r="B81" t="n">
-        <v>151589.417902019</v>
+        <v>148481.669202053</v>
       </c>
     </row>
     <row r="82">
@@ -12978,7 +12978,7 @@
         <v>25</v>
       </c>
       <c r="B82" t="n">
-        <v>132184.326122926</v>
+        <v>167042.85001985</v>
       </c>
     </row>
     <row r="83">
@@ -12986,7 +12986,7 @@
         <v>95</v>
       </c>
       <c r="B83" t="n">
-        <v>133382.020799883</v>
+        <v>168556.390529233</v>
       </c>
     </row>
     <row r="84">
@@ -12994,7 +12994,7 @@
         <v>96</v>
       </c>
       <c r="B84" t="n">
-        <v>131993.479274704</v>
+        <v>166801.674667377</v>
       </c>
     </row>
     <row r="85">
@@ -13002,7 +13002,7 @@
         <v>97</v>
       </c>
       <c r="B85" t="n">
-        <v>134109.422698194</v>
+        <v>169475.616656624</v>
       </c>
     </row>
     <row r="86">
@@ -13010,7 +13010,7 @@
         <v>26</v>
       </c>
       <c r="B86" t="n">
-        <v>130367.577021103</v>
+        <v>135227.716236725</v>
       </c>
     </row>
     <row r="87">
@@ -13018,7 +13018,7 @@
         <v>98</v>
       </c>
       <c r="B87" t="n">
-        <v>128405.145712157</v>
+        <v>133192.12494751</v>
       </c>
     </row>
     <row r="88">
@@ -13026,7 +13026,7 @@
         <v>99</v>
       </c>
       <c r="B88" t="n">
-        <v>128305.567006872</v>
+        <v>133088.833920636</v>
       </c>
     </row>
     <row r="89">
@@ -13034,7 +13034,7 @@
         <v>100</v>
       </c>
       <c r="B89" t="n">
-        <v>135361.443172966</v>
+        <v>140407.755095612</v>
       </c>
     </row>
     <row r="90">
@@ -13042,7 +13042,7 @@
         <v>27</v>
       </c>
       <c r="B90" t="n">
-        <v>143397.189321345</v>
+        <v>140758.627774187</v>
       </c>
     </row>
     <row r="91">
@@ -13050,7 +13050,7 @@
         <v>101</v>
       </c>
       <c r="B91" t="n">
-        <v>143443.901688875</v>
+        <v>140804.480616803</v>
       </c>
     </row>
     <row r="92">
@@ -13058,7 +13058,7 @@
         <v>102</v>
       </c>
       <c r="B92" t="n">
-        <v>142044.184552394</v>
+        <v>139430.518795546</v>
       </c>
     </row>
     <row r="93">
@@ -13066,7 +13066,7 @@
         <v>103</v>
       </c>
       <c r="B93" t="n">
-        <v>146353.280491574</v>
+        <v>143660.325768869</v>
       </c>
     </row>
     <row r="94">
@@ -13074,7 +13074,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="n">
-        <v>-612987.757800104</v>
+        <v>137368.990580786</v>
       </c>
     </row>
     <row r="95">
@@ -13082,7 +13082,7 @@
         <v>104</v>
       </c>
       <c r="B95" t="n">
-        <v>-613462.60649101</v>
+        <v>137475.402959367</v>
       </c>
     </row>
     <row r="96">
@@ -13090,7 +13090,7 @@
         <v>105</v>
       </c>
       <c r="B96" t="n">
-        <v>-610517.20952185</v>
+        <v>136815.347022907</v>
       </c>
     </row>
     <row r="97">
@@ -13098,7 +13098,7 @@
         <v>106</v>
       </c>
       <c r="B97" t="n">
-        <v>-627574.30057218</v>
+        <v>140637.797553138</v>
       </c>
     </row>
     <row r="98">
@@ -13106,7 +13106,7 @@
         <v>107</v>
       </c>
       <c r="B98" t="n">
-        <v>-660009.893400515</v>
+        <v>147906.531045807</v>
       </c>
     </row>
     <row r="99">
@@ -13114,7 +13114,7 @@
         <v>108</v>
       </c>
       <c r="B99" t="n">
-        <v>-654221.638848457</v>
+        <v>146609.397987401</v>
       </c>
     </row>
     <row r="100">
@@ -13122,7 +13122,7 @@
         <v>109</v>
       </c>
       <c r="B100" t="n">
-        <v>-648613.537485581</v>
+        <v>145352.63679847</v>
       </c>
     </row>
     <row r="101">
@@ -13130,7 +13130,7 @@
         <v>110</v>
       </c>
       <c r="B101" t="n">
-        <v>-669300.126062625</v>
+        <v>149988.448452502</v>
       </c>
     </row>
     <row r="102">
@@ -13138,7 +13138,7 @@
         <v>111</v>
       </c>
       <c r="B102" t="n">
-        <v>-703266.37959077</v>
+        <v>157600.199097763</v>
       </c>
     </row>
     <row r="103">
@@ -13146,7 +13146,7 @@
         <v>112</v>
       </c>
       <c r="B103" t="n">
-        <v>-696782.73387222</v>
+        <v>156147.230655397</v>
       </c>
     </row>
     <row r="104">
@@ -13154,7 +13154,7 @@
         <v>113</v>
       </c>
       <c r="B104" t="n">
-        <v>-690765.775423241</v>
+        <v>154798.845637939</v>
       </c>
     </row>
     <row r="105">
@@ -13162,7 +13162,7 @@
         <v>114</v>
       </c>
       <c r="B105" t="n">
-        <v>-711025.951553068</v>
+        <v>159339.099351865</v>
       </c>
     </row>
     <row r="106">
@@ -13170,7 +13170,7 @@
         <v>115</v>
       </c>
       <c r="B106" t="n">
-        <v>-746522.865781022</v>
+        <v>167293.867149719</v>
       </c>
     </row>
     <row r="107">
@@ -13178,7 +13178,7 @@
         <v>116</v>
       </c>
       <c r="B107" t="n">
-        <v>-739343.828895982</v>
+        <v>165685.063323392</v>
       </c>
     </row>
     <row r="108">
@@ -13186,7 +13186,7 @@
         <v>117</v>
       </c>
       <c r="B108" t="n">
-        <v>-732918.013360905</v>
+        <v>164245.054477408</v>
       </c>
     </row>
     <row r="109">
@@ -13194,7 +13194,7 @@
         <v>118</v>
       </c>
       <c r="B109" t="n">
-        <v>-752751.777043514</v>
+        <v>168689.750251229</v>
       </c>
     </row>
     <row r="110">
@@ -13202,7 +13202,7 @@
         <v>119</v>
       </c>
       <c r="B110" t="n">
-        <v>-789779.351971277</v>
+        <v>176987.535201675</v>
       </c>
     </row>
     <row r="111">
@@ -13210,7 +13210,7 @@
         <v>120</v>
       </c>
       <c r="B111" t="n">
-        <v>-781904.923919741</v>
+        <v>175222.895991387</v>
       </c>
     </row>
     <row r="112">
@@ -13218,7 +13218,7 @@
         <v>121</v>
       </c>
       <c r="B112" t="n">
-        <v>-775070.251298566</v>
+        <v>173691.263316877</v>
       </c>
     </row>
     <row r="113">
@@ -13226,7 +13226,7 @@
         <v>122</v>
       </c>
       <c r="B113" t="n">
-        <v>-794477.602533956</v>
+        <v>178040.401150592</v>
       </c>
     </row>
     <row r="114">
@@ -13234,7 +13234,7 @@
         <v>123</v>
       </c>
       <c r="B114" t="n">
-        <v>-833035.838161529</v>
+        <v>186681.20325363</v>
       </c>
     </row>
     <row r="115">
@@ -13242,7 +13242,7 @@
         <v>124</v>
       </c>
       <c r="B115" t="n">
-        <v>-824466.018943504</v>
+        <v>184760.728659382</v>
       </c>
     </row>
     <row r="116">
@@ -13250,7 +13250,7 @@
         <v>125</v>
       </c>
       <c r="B116" t="n">
-        <v>-817222.48923623</v>
+        <v>183137.472156347</v>
       </c>
     </row>
     <row r="117">
@@ -13258,7 +13258,7 @@
         <v>126</v>
       </c>
       <c r="B117" t="n">
-        <v>-836203.428024403</v>
+        <v>187391.052049956</v>
       </c>
     </row>
   </sheetData>

--- a/prod_result_AGV.xlsx
+++ b/prod_result_AGV.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t xml:space="preserve">ANNEE</t>
   </si>
@@ -569,31 +569,31 @@
     <t xml:space="preserve">2021</t>
   </si>
   <si>
-    <t xml:space="preserve">118.988281806791</t>
+    <t xml:space="preserve">116.8204931266</t>
   </si>
   <si>
     <t xml:space="preserve">2022</t>
   </si>
   <si>
-    <t xml:space="preserve">122.987308992901</t>
+    <t xml:space="preserve">118.964969831534</t>
   </si>
   <si>
     <t xml:space="preserve">2023</t>
   </si>
   <si>
-    <t xml:space="preserve">127.148378473445</t>
+    <t xml:space="preserve">121.267828667406</t>
   </si>
   <si>
     <t xml:space="preserve">2024</t>
   </si>
   <si>
-    <t xml:space="preserve">131.454211878386</t>
+    <t xml:space="preserve">123.570687503277</t>
   </si>
   <si>
     <t xml:space="preserve">2025</t>
   </si>
   <si>
-    <t xml:space="preserve">135.906426917133</t>
+    <t xml:space="preserve">125.873546339149</t>
   </si>
   <si>
     <t xml:space="preserve">time</t>
@@ -747,6 +747,9 @@
   </si>
   <si>
     <t xml:space="preserve">verif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A corriger</t>
   </si>
 </sst>
 </file>
@@ -2584,10 +2587,10 @@
         <v>107</v>
       </c>
       <c r="B102" t="n">
-        <v>631265.803511599</v>
+        <v>627268.94321721</v>
       </c>
       <c r="C102" t="n">
-        <v>63.1265803511599</v>
+        <v>62.726894321721</v>
       </c>
     </row>
     <row r="103">
@@ -2595,10 +2598,10 @@
         <v>108</v>
       </c>
       <c r="B103" t="n">
-        <v>1346478.27250359</v>
+        <v>1315989.07289202</v>
       </c>
       <c r="C103" t="n">
-        <v>134.647827250359</v>
+        <v>131.598907289202</v>
       </c>
     </row>
     <row r="104">
@@ -2606,10 +2609,10 @@
         <v>109</v>
       </c>
       <c r="B104" t="n">
-        <v>1332895.75180243</v>
+        <v>1307340.81508258</v>
       </c>
       <c r="C104" t="n">
-        <v>133.289575180243</v>
+        <v>130.734081508258</v>
       </c>
     </row>
     <row r="105">
@@ -2617,10 +2620,10 @@
         <v>110</v>
       </c>
       <c r="B105" t="n">
-        <v>1448891.44445401</v>
+        <v>1422220.89387217</v>
       </c>
       <c r="C105" t="n">
-        <v>144.889144445401</v>
+        <v>142.222089387217</v>
       </c>
     </row>
     <row r="106">
@@ -2628,10 +2631,10 @@
         <v>111</v>
       </c>
       <c r="B106" t="n">
-        <v>652337.430519783</v>
+        <v>649168.848173915</v>
       </c>
       <c r="C106" t="n">
-        <v>65.2337430519783</v>
+        <v>64.9168848173915</v>
       </c>
     </row>
     <row r="107">
@@ -2639,10 +2642,10 @@
         <v>112</v>
       </c>
       <c r="B107" t="n">
-        <v>1391602.35233014</v>
+        <v>1335507.88342838</v>
       </c>
       <c r="C107" t="n">
-        <v>139.160235233014</v>
+        <v>133.550788342838</v>
       </c>
     </row>
     <row r="108">
@@ -2650,10 +2653,10 @@
         <v>113</v>
       </c>
       <c r="B108" t="n">
-        <v>1377764.88603498</v>
+        <v>1328672.5794282</v>
       </c>
       <c r="C108" t="n">
-        <v>137.776488603498</v>
+        <v>132.86725794282</v>
       </c>
     </row>
     <row r="109">
@@ -2661,10 +2664,10 @@
         <v>114</v>
       </c>
       <c r="B109" t="n">
-        <v>1497787.69083112</v>
+        <v>1445249.48223089</v>
       </c>
       <c r="C109" t="n">
-        <v>149.778769083112</v>
+        <v>144.524948223089</v>
       </c>
     </row>
     <row r="110">
@@ -2672,10 +2675,10 @@
         <v>115</v>
       </c>
       <c r="B110" t="n">
-        <v>674382.277702118</v>
+        <v>672197.43653263</v>
       </c>
       <c r="C110" t="n">
-        <v>67.4382277702118</v>
+        <v>67.219743653263</v>
       </c>
     </row>
     <row r="111">
@@ -2683,10 +2686,10 @@
         <v>116</v>
       </c>
       <c r="B111" t="n">
-        <v>1438670.81950154</v>
+        <v>1358536.4717871</v>
       </c>
       <c r="C111" t="n">
-        <v>143.867081950154</v>
+        <v>135.85364717871</v>
       </c>
     </row>
     <row r="112">
@@ -2694,10 +2697,10 @@
         <v>117</v>
       </c>
       <c r="B112" t="n">
-        <v>1424390.5208906</v>
+        <v>1351701.16778691</v>
       </c>
       <c r="C112" t="n">
-        <v>142.43905208906</v>
+        <v>135.170116778691</v>
       </c>
     </row>
     <row r="113">
@@ -2705,10 +2708,10 @@
         <v>118</v>
       </c>
       <c r="B113" t="n">
-        <v>1548491.52084353</v>
+        <v>1468278.0705896</v>
       </c>
       <c r="C113" t="n">
-        <v>154.849152084353</v>
+        <v>146.82780705896</v>
       </c>
     </row>
     <row r="114">
@@ -2716,10 +2719,10 @@
         <v>119</v>
       </c>
       <c r="B114" t="n">
-        <v>697216.302293026</v>
+        <v>695226.024891344</v>
       </c>
       <c r="C114" t="n">
-        <v>69.7216302293026</v>
+        <v>69.5226024891344</v>
       </c>
     </row>
     <row r="115">
@@ -2727,10 +2730,10 @@
         <v>120</v>
       </c>
       <c r="B115" t="n">
-        <v>1487388.90415494</v>
+        <v>1381565.06014581</v>
       </c>
       <c r="C115" t="n">
-        <v>148.738890415494</v>
+        <v>138.156506014581</v>
       </c>
     </row>
     <row r="116">
@@ -2738,10 +2741,10 @@
         <v>121</v>
       </c>
       <c r="B116" t="n">
-        <v>1472628.57410196</v>
+        <v>1374729.75614563</v>
       </c>
       <c r="C116" t="n">
-        <v>147.262857410196</v>
+        <v>137.472975614563</v>
       </c>
     </row>
     <row r="117">
@@ -2749,10 +2752,10 @@
         <v>122</v>
       </c>
       <c r="B117" t="n">
-        <v>1600934.6945855</v>
+        <v>1491306.65894831</v>
       </c>
       <c r="C117" t="n">
-        <v>160.09346945855</v>
+        <v>149.130665894831</v>
       </c>
     </row>
     <row r="118">
@@ -2760,10 +2763,10 @@
         <v>123</v>
       </c>
       <c r="B118" t="n">
-        <v>720829.756119316</v>
+        <v>718254.613250059</v>
       </c>
       <c r="C118" t="n">
-        <v>72.0829756119316</v>
+        <v>71.8254613250059</v>
       </c>
     </row>
     <row r="119">
@@ -2771,10 +2774,10 @@
         <v>124</v>
       </c>
       <c r="B119" t="n">
-        <v>1537764.91054443</v>
+        <v>1404593.64850453</v>
       </c>
       <c r="C119" t="n">
-        <v>153.776491054443</v>
+        <v>140.459364850453</v>
       </c>
     </row>
     <row r="120">
@@ -2782,10 +2785,10 @@
         <v>125</v>
       </c>
       <c r="B120" t="n">
-        <v>1522505.17145261</v>
+        <v>1397758.34450434</v>
       </c>
       <c r="C120" t="n">
-        <v>152.250517145261</v>
+        <v>139.775834450434</v>
       </c>
     </row>
     <row r="121">
@@ -2793,10 +2796,10 @@
         <v>126</v>
       </c>
       <c r="B121" t="n">
-        <v>1655157.23856895</v>
+        <v>1514335.24730703</v>
       </c>
       <c r="C121" t="n">
-        <v>165.515723856895</v>
+        <v>151.433524730703</v>
       </c>
     </row>
   </sheetData>
@@ -3332,16 +3335,16 @@
         <v>182</v>
       </c>
       <c r="B27" t="n">
-        <v>2296968.61209565</v>
+        <v>2264260.32665552</v>
       </c>
       <c r="C27" t="s">
         <v>183</v>
       </c>
       <c r="D27" t="n">
-        <v>1.68747163917824</v>
+        <v>0.239466285275913</v>
       </c>
       <c r="E27" t="n">
-        <v>3.18971591250974</v>
+        <v>1.30975349376914</v>
       </c>
       <c r="F27" t="s">
         <v>135</v>
@@ -3352,16 +3355,16 @@
         <v>184</v>
       </c>
       <c r="B28" t="n">
-        <v>2357307.20684955</v>
+        <v>2296616.87359465</v>
       </c>
       <c r="C28" t="s">
         <v>185</v>
       </c>
       <c r="D28" t="n">
-        <v>2.62687937641646</v>
+        <v>1.42901178624326</v>
       </c>
       <c r="E28" t="n">
-        <v>3.36085799827193</v>
+        <v>1.83570249323546</v>
       </c>
       <c r="F28" t="s">
         <v>135</v>
@@ -3372,16 +3375,16 @@
         <v>186</v>
       </c>
       <c r="B29" t="n">
-        <v>2420090.74730695</v>
+        <v>2331363.1405257</v>
       </c>
       <c r="C29" t="s">
         <v>187</v>
       </c>
       <c r="D29" t="n">
-        <v>2.66335844029884</v>
+        <v>1.51293266763566</v>
       </c>
       <c r="E29" t="n">
-        <v>3.38333240609754</v>
+        <v>1.93574531993117</v>
       </c>
       <c r="F29" t="s">
         <v>135</v>
@@ -3392,16 +3395,16 @@
         <v>188</v>
       </c>
       <c r="B30" t="n">
-        <v>2485058.53192241</v>
+        <v>2366109.40745675</v>
       </c>
       <c r="C30" t="s">
         <v>189</v>
       </c>
       <c r="D30" t="n">
-        <v>2.68451853252822</v>
+        <v>1.49038415882357</v>
       </c>
       <c r="E30" t="n">
-        <v>3.38646348198632</v>
+        <v>1.89898579134897</v>
       </c>
       <c r="F30" t="s">
         <v>135</v>
@@ -3412,16 +3415,16 @@
         <v>190</v>
       </c>
       <c r="B31" t="n">
-        <v>2552234.96921028</v>
+        <v>2400855.67438779</v>
       </c>
       <c r="C31" t="s">
         <v>191</v>
       </c>
       <c r="D31" t="n">
-        <v>2.70321348269804</v>
+        <v>1.46849789876768</v>
       </c>
       <c r="E31" t="n">
-        <v>3.38689417031837</v>
+        <v>1.86359636124089</v>
       </c>
       <c r="F31" t="s">
         <v>135</v>
@@ -11613,19 +11616,19 @@
         <v>107</v>
       </c>
       <c r="B98" t="n">
-        <v>363527.371057558</v>
+        <v>362019.723557506</v>
       </c>
       <c r="C98" t="n">
-        <v>232721.760819656</v>
+        <v>231248.28267418</v>
       </c>
       <c r="D98" t="n">
-        <v>228925.344999616</v>
+        <v>227975.928940288</v>
       </c>
       <c r="E98" t="n">
-        <v>134602.026057942</v>
+        <v>134043.794617218</v>
       </c>
       <c r="F98" t="n">
-        <v>15.78164508779</v>
+        <v>15.6817235804303</v>
       </c>
       <c r="G98" t="n">
         <v>66460.5912471754</v>
@@ -11634,10 +11637,10 @@
         <v>14746.3562591272</v>
       </c>
       <c r="I98" t="n">
-        <v>3.11344834716705</v>
+        <v>2.46058540857017</v>
       </c>
       <c r="J98" t="n">
-        <v>1.43134726136696</v>
+        <v>1.01068370395561</v>
       </c>
       <c r="K98" t="s">
         <v>135</v>
@@ -11648,19 +11651,19 @@
         <v>108</v>
       </c>
       <c r="B99" t="n">
-        <v>633311.204231646</v>
+        <v>621810.435581442</v>
       </c>
       <c r="C99" t="n">
-        <v>403904.484760037</v>
+        <v>394758.607911273</v>
       </c>
       <c r="D99" t="n">
-        <v>398817.248613438</v>
+        <v>391574.829910963</v>
       </c>
       <c r="E99" t="n">
-        <v>234493.955618208</v>
+        <v>230235.605670479</v>
       </c>
       <c r="F99" t="n">
-        <v>33.6619568125898</v>
+        <v>32.8997268223006</v>
       </c>
       <c r="G99" t="n">
         <v>66460.5912471754</v>
@@ -11669,13 +11672,13 @@
         <v>11998.8415114648</v>
       </c>
       <c r="I99" t="n">
-        <v>3.1370391542179</v>
+        <v>0.801638844882113</v>
       </c>
       <c r="J99" t="n">
-        <v>1.83801303929303</v>
+        <v>-0.0113390958588089</v>
       </c>
       <c r="K99" t="s">
-        <v>135</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100">
@@ -11683,19 +11686,19 @@
         <v>109</v>
       </c>
       <c r="B100" t="n">
-        <v>628187.769367472</v>
+        <v>618548.243934533</v>
       </c>
       <c r="C100" t="n">
-        <v>401534.983795103</v>
+        <v>393836.556451617</v>
       </c>
       <c r="D100" t="n">
-        <v>395590.850308265</v>
+        <v>389520.518715493</v>
       </c>
       <c r="E100" t="n">
-        <v>232596.919059207</v>
+        <v>229027.72521904</v>
       </c>
       <c r="F100" t="n">
-        <v>33.3223937950607</v>
+        <v>32.6835203770644</v>
       </c>
       <c r="G100" t="n">
         <v>66460.5912471754</v>
@@ -11704,10 +11707,10 @@
         <v>12050.0041583033</v>
       </c>
       <c r="I100" t="n">
-        <v>3.14794071960995</v>
+        <v>1.17033737418073</v>
       </c>
       <c r="J100" t="n">
-        <v>1.62098751933133</v>
+        <v>0.0616160360257245</v>
       </c>
       <c r="K100" t="s">
         <v>135</v>
@@ -11718,19 +11721,19 @@
         <v>110</v>
       </c>
       <c r="B101" t="n">
-        <v>671942.267438978</v>
+        <v>661881.923582035</v>
       </c>
       <c r="C101" t="n">
-        <v>429647.187996109</v>
+        <v>421738.433269413</v>
       </c>
       <c r="D101" t="n">
-        <v>423144.521266149</v>
+        <v>416809.186236037</v>
       </c>
       <c r="E101" t="n">
-        <v>248797.746172829</v>
+        <v>245072.737345998</v>
       </c>
       <c r="F101" t="n">
-        <v>36.2222861113503</v>
+        <v>35.5555223468043</v>
       </c>
       <c r="G101" t="n">
         <v>66460.5912471754</v>
@@ -11739,10 +11742,10 @@
         <v>11861.4045142082</v>
       </c>
       <c r="I101" t="n">
-        <v>3.31053538761019</v>
+        <v>1.40884090922881</v>
       </c>
       <c r="J101" t="n">
-        <v>1.74694088475151</v>
+        <v>0.223582017041135</v>
       </c>
       <c r="K101" t="s">
         <v>135</v>
@@ -11753,19 +11756,19 @@
         <v>111</v>
       </c>
       <c r="B102" t="n">
-        <v>371475.7564003</v>
+        <v>370280.541931793</v>
       </c>
       <c r="C102" t="n">
-        <v>240490.003790209</v>
+        <v>239321.877687495</v>
       </c>
       <c r="D102" t="n">
-        <v>233930.709111495</v>
+        <v>233178.042582547</v>
       </c>
       <c r="E102" t="n">
-        <v>137545.047288806</v>
+        <v>137102.499349247</v>
       </c>
       <c r="F102" t="n">
-        <v>16.3084357629946</v>
+        <v>16.2292212043479</v>
       </c>
       <c r="G102" t="n">
         <v>66460.5912471754</v>
@@ -11774,10 +11777,10 @@
         <v>14746.3562591272</v>
       </c>
       <c r="I102" t="n">
-        <v>3.33799595843258</v>
+        <v>3.49131025750811</v>
       </c>
       <c r="J102" t="n">
-        <v>2.18646131641183</v>
+        <v>2.28186969845432</v>
       </c>
       <c r="K102" t="s">
         <v>135</v>
@@ -11788,19 +11791,19 @@
         <v>112</v>
       </c>
       <c r="B103" t="n">
-        <v>650332.366126681</v>
+        <v>629173.086197585</v>
       </c>
       <c r="C103" t="n">
-        <v>417440.401814774</v>
+        <v>400613.685764224</v>
       </c>
       <c r="D103" t="n">
-        <v>409536.043591047</v>
+        <v>396211.337273556</v>
       </c>
       <c r="E103" t="n">
-        <v>240796.322535634</v>
+        <v>232961.74892403</v>
       </c>
       <c r="F103" t="n">
-        <v>34.7900588082535</v>
+        <v>33.3876970857095</v>
       </c>
       <c r="G103" t="n">
         <v>66460.5912471754</v>
@@ -11809,10 +11812,10 @@
         <v>11998.8415114648</v>
       </c>
       <c r="I103" t="n">
-        <v>3.3512668379452</v>
+        <v>1.48320460545033</v>
       </c>
       <c r="J103" t="n">
-        <v>2.68764578635323</v>
+        <v>1.18406675006326</v>
       </c>
       <c r="K103" t="s">
         <v>135</v>
@@ -11823,19 +11826,19 @@
         <v>113</v>
       </c>
       <c r="B104" t="n">
-        <v>645112.763756231</v>
+        <v>626594.755150478</v>
       </c>
       <c r="C104" t="n">
-        <v>415051.815147145</v>
+        <v>400262.752678334</v>
       </c>
       <c r="D104" t="n">
-        <v>406249.085390514</v>
+        <v>394587.675971891</v>
       </c>
       <c r="E104" t="n">
-        <v>238863.678365718</v>
+        <v>232007.079178588</v>
       </c>
       <c r="F104" t="n">
-        <v>34.4441221508745</v>
+        <v>33.2168144857049</v>
       </c>
       <c r="G104" t="n">
         <v>66460.5912471754</v>
@@ -11844,10 +11847,10 @@
         <v>12050.0041583033</v>
       </c>
       <c r="I104" t="n">
-        <v>3.36628983713656</v>
+        <v>1.63169114736716</v>
       </c>
       <c r="J104" t="n">
-        <v>2.69425722914043</v>
+        <v>1.3008704324762</v>
       </c>
       <c r="K104" t="s">
         <v>135</v>
@@ -11858,19 +11861,19 @@
         <v>114</v>
       </c>
       <c r="B105" t="n">
-        <v>690386.320566341</v>
+        <v>670568.490314797</v>
       </c>
       <c r="C105" t="n">
-        <v>444146.641933741</v>
+        <v>428567.21831726</v>
       </c>
       <c r="D105" t="n">
-        <v>434759.35844633</v>
+        <v>422279.407860271</v>
       </c>
       <c r="E105" t="n">
-        <v>255626.962120011</v>
+        <v>248289.082454527</v>
       </c>
       <c r="F105" t="n">
-        <v>37.444692270778</v>
+        <v>36.1312370557721</v>
       </c>
       <c r="G105" t="n">
         <v>66460.5912471754</v>
@@ -11879,10 +11882,10 @@
         <v>11861.4045142082</v>
       </c>
       <c r="I105" t="n">
-        <v>3.37473497854324</v>
+        <v>1.61919913129787</v>
       </c>
       <c r="J105" t="n">
-        <v>2.74488658045891</v>
+        <v>1.31240428591117</v>
       </c>
       <c r="K105" t="s">
         <v>135</v>
@@ -11893,19 +11896,19 @@
         <v>115</v>
       </c>
       <c r="B106" t="n">
-        <v>379791.248135182</v>
+        <v>378967.108664555</v>
       </c>
       <c r="C106" t="n">
-        <v>248617.033045927</v>
+        <v>247811.571889555</v>
       </c>
       <c r="D106" t="n">
-        <v>239167.252397661</v>
+        <v>238648.26420678</v>
       </c>
       <c r="E106" t="n">
-        <v>140623.995737521</v>
+        <v>140318.844457775</v>
       </c>
       <c r="F106" t="n">
-        <v>16.8595569425529</v>
+        <v>16.8049359133157</v>
       </c>
       <c r="G106" t="n">
         <v>66460.5912471754</v>
@@ -11914,10 +11917,10 @@
         <v>14746.3562591272</v>
       </c>
       <c r="I106" t="n">
-        <v>3.37936260452962</v>
+        <v>3.54739578516328</v>
       </c>
       <c r="J106" t="n">
-        <v>2.23850186495644</v>
+        <v>2.34594199507296</v>
       </c>
       <c r="K106" t="s">
         <v>135</v>
@@ -11928,19 +11931,19 @@
         <v>116</v>
       </c>
       <c r="B107" t="n">
-        <v>668086.96639676</v>
+        <v>637859.652930347</v>
       </c>
       <c r="C107" t="n">
-        <v>431559.578759204</v>
+        <v>407521.595312949</v>
       </c>
       <c r="D107" t="n">
-        <v>420716.709245834</v>
+        <v>401681.558897789</v>
       </c>
       <c r="E107" t="n">
-        <v>247370.257150926</v>
+        <v>236178.094032558</v>
       </c>
       <c r="F107" t="n">
-        <v>35.9667704875385</v>
+        <v>33.9634117946774</v>
       </c>
       <c r="G107" t="n">
         <v>66460.5912471754</v>
@@ -11949,10 +11952,10 @@
         <v>11998.8415114648</v>
       </c>
       <c r="I107" t="n">
-        <v>3.38232161598369</v>
+        <v>1.72433189234329</v>
       </c>
       <c r="J107" t="n">
-        <v>2.73008098548495</v>
+        <v>1.38063228121519</v>
       </c>
       <c r="K107" t="s">
         <v>135</v>
@@ -11963,19 +11966,19 @@
         <v>117</v>
       </c>
       <c r="B108" t="n">
-        <v>662700.324153847</v>
+        <v>635281.32188324</v>
       </c>
       <c r="C108" t="n">
-        <v>429097.792494489</v>
+        <v>407200.117315393</v>
       </c>
       <c r="D108" t="n">
-        <v>417324.560450377</v>
+        <v>400057.897596124</v>
       </c>
       <c r="E108" t="n">
-        <v>245375.76370347</v>
+        <v>235223.424287116</v>
       </c>
       <c r="F108" t="n">
-        <v>35.609763022265</v>
+        <v>33.7925291946728</v>
       </c>
       <c r="G108" t="n">
         <v>66460.5912471754</v>
@@ -11984,10 +11987,10 @@
         <v>12050.0041583033</v>
       </c>
       <c r="I108" t="n">
-        <v>3.38415032406598</v>
+        <v>1.7332026501687</v>
       </c>
       <c r="J108" t="n">
-        <v>2.72627692176022</v>
+        <v>1.38631334867707</v>
       </c>
       <c r="K108" t="s">
         <v>135</v>
@@ -11998,19 +12001,19 @@
         <v>118</v>
       </c>
       <c r="B109" t="n">
-        <v>709512.208621166</v>
+        <v>679255.057047559</v>
       </c>
       <c r="C109" t="n">
-        <v>459182.107888662</v>
+        <v>435396.003365108</v>
       </c>
       <c r="D109" t="n">
-        <v>446803.569886688</v>
+        <v>427749.629484503</v>
       </c>
       <c r="E109" t="n">
-        <v>262708.638734477</v>
+        <v>251505.427563055</v>
       </c>
       <c r="F109" t="n">
-        <v>38.7122880210883</v>
+        <v>36.70695176474</v>
       </c>
       <c r="G109" t="n">
         <v>66460.5912471754</v>
@@ -12019,10 +12022,10 @@
         <v>11861.4045142082</v>
       </c>
       <c r="I109" t="n">
-        <v>3.38524814450001</v>
+        <v>1.59339883126388</v>
       </c>
       <c r="J109" t="n">
-        <v>2.77031677556052</v>
+        <v>1.29540335673743</v>
       </c>
       <c r="K109" t="s">
         <v>135</v>
@@ -12033,19 +12036,19 @@
         <v>119</v>
       </c>
       <c r="B110" t="n">
-        <v>388404.423866876</v>
+        <v>387653.675397317</v>
       </c>
       <c r="C110" t="n">
-        <v>257034.999582107</v>
+        <v>256301.266091615</v>
       </c>
       <c r="D110" t="n">
-        <v>244591.257253703</v>
+        <v>244118.485831013</v>
       </c>
       <c r="E110" t="n">
-        <v>143813.166613173</v>
+        <v>143535.189566304</v>
       </c>
       <c r="F110" t="n">
-        <v>17.4304075573257</v>
+        <v>17.3806506222836</v>
       </c>
       <c r="G110" t="n">
         <v>66460.5912471754</v>
@@ -12054,10 +12057,10 @@
         <v>14746.3562591272</v>
       </c>
       <c r="I110" t="n">
-        <v>3.38591706008533</v>
+        <v>3.42586673306908</v>
       </c>
       <c r="J110" t="n">
-        <v>2.26787104073234</v>
+        <v>2.29216903898923</v>
       </c>
       <c r="K110" t="s">
         <v>135</v>
@@ -12068,19 +12071,19 @@
         <v>120</v>
       </c>
       <c r="B111" t="n">
-        <v>686463.815504575</v>
+        <v>646546.219663109</v>
       </c>
       <c r="C111" t="n">
-        <v>446173.593171661</v>
+        <v>414429.504861673</v>
       </c>
       <c r="D111" t="n">
-        <v>432289.225807032</v>
+        <v>407151.780522022</v>
       </c>
       <c r="E111" t="n">
-        <v>254174.589697543</v>
+        <v>239394.439141087</v>
       </c>
       <c r="F111" t="n">
-        <v>37.1847226038735</v>
+        <v>34.5391265036453</v>
       </c>
       <c r="G111" t="n">
         <v>66460.5912471754</v>
@@ -12089,10 +12092,10 @@
         <v>11998.8415114648</v>
       </c>
       <c r="I111" t="n">
-        <v>3.38632604436084</v>
+        <v>1.69510269594906</v>
       </c>
       <c r="J111" t="n">
-        <v>2.75066720833197</v>
+        <v>1.36183041094624</v>
       </c>
       <c r="K111" t="s">
         <v>135</v>
@@ -12103,19 +12106,19 @@
         <v>121</v>
       </c>
       <c r="B112" t="n">
-        <v>680896.101582837</v>
+        <v>643967.888616002</v>
       </c>
       <c r="C112" t="n">
-        <v>443629.511039123</v>
+        <v>414137.481952452</v>
       </c>
       <c r="D112" t="n">
-        <v>428783.050118843</v>
+        <v>405528.119220357</v>
       </c>
       <c r="E112" t="n">
-        <v>252113.051463993</v>
+        <v>238439.769395645</v>
       </c>
       <c r="F112" t="n">
-        <v>36.815714352549</v>
+        <v>34.3682439036406</v>
       </c>
       <c r="G112" t="n">
         <v>66460.5912471754</v>
@@ -12124,10 +12127,10 @@
         <v>12050.0041583033</v>
       </c>
       <c r="I112" t="n">
-        <v>3.38657499498094</v>
+        <v>1.70367451826785</v>
       </c>
       <c r="J112" t="n">
-        <v>2.74570220743777</v>
+        <v>1.36735748927912</v>
       </c>
       <c r="K112" t="s">
         <v>135</v>
@@ -12138,19 +12141,19 @@
         <v>122</v>
       </c>
       <c r="B113" t="n">
-        <v>729294.190968123</v>
+        <v>687941.62378032</v>
       </c>
       <c r="C113" t="n">
-        <v>474733.350332722</v>
+        <v>442224.788412955</v>
       </c>
       <c r="D113" t="n">
-        <v>459260.945848171</v>
+        <v>433219.851108736</v>
       </c>
       <c r="E113" t="n">
-        <v>270033.245119952</v>
+        <v>254721.772671584</v>
       </c>
       <c r="F113" t="n">
-        <v>40.0233673646375</v>
+        <v>37.2826664737079</v>
       </c>
       <c r="G113" t="n">
         <v>66460.5912471754</v>
@@ -12159,10 +12162,10 @@
         <v>11861.4045142082</v>
       </c>
       <c r="I113" t="n">
-        <v>3.38672656815078</v>
+        <v>1.56840783908645</v>
       </c>
       <c r="J113" t="n">
-        <v>2.78811021242336</v>
+        <v>1.27883725599609</v>
       </c>
       <c r="K113" t="s">
         <v>135</v>
@@ -12173,19 +12176,19 @@
         <v>123</v>
       </c>
       <c r="B114" t="n">
-        <v>397311.606506902</v>
+        <v>396340.242130078</v>
       </c>
       <c r="C114" t="n">
-        <v>265740.30964788</v>
+        <v>264790.960293675</v>
       </c>
       <c r="D114" t="n">
-        <v>250200.408094012</v>
+        <v>249588.707455246</v>
       </c>
       <c r="E114" t="n">
-        <v>147111.198412891</v>
+        <v>146751.534674833</v>
       </c>
       <c r="F114" t="n">
-        <v>18.0207439029829</v>
+        <v>17.9563653312515</v>
       </c>
       <c r="G114" t="n">
         <v>66460.5912471754</v>
@@ -12194,10 +12197,10 @@
         <v>14746.3562591272</v>
       </c>
       <c r="I114" t="n">
-        <v>3.38681894680739</v>
+        <v>3.31238871017718</v>
       </c>
       <c r="J114" t="n">
-        <v>2.29327528027314</v>
+        <v>2.24080597813463</v>
       </c>
       <c r="K114" t="s">
         <v>135</v>
@@ -12208,19 +12211,19 @@
         <v>124</v>
       </c>
       <c r="B115" t="n">
-        <v>705466.045880834</v>
+        <v>655232.78639587</v>
       </c>
       <c r="C115" t="n">
-        <v>461284.936087862</v>
+        <v>421337.414410397</v>
       </c>
       <c r="D115" t="n">
-        <v>444255.565871034</v>
+        <v>412622.002146255</v>
       </c>
       <c r="E115" t="n">
-        <v>261210.4800098</v>
+        <v>242610.784249615</v>
       </c>
       <c r="F115" t="n">
-        <v>38.4441227636107</v>
+        <v>35.1148412126131</v>
       </c>
       <c r="G115" t="n">
         <v>66460.5912471754</v>
@@ -12229,10 +12232,10 @@
         <v>11998.8415114648</v>
       </c>
       <c r="I115" t="n">
-        <v>3.38687523140502</v>
+        <v>1.66684791205445</v>
       </c>
       <c r="J115" t="n">
-        <v>2.76813284940474</v>
+        <v>1.34353375962633</v>
       </c>
       <c r="K115" t="s">
         <v>135</v>
@@ -12243,19 +12246,19 @@
         <v>125</v>
       </c>
       <c r="B116" t="n">
-        <v>699709.950896599</v>
+        <v>652654.455348763</v>
       </c>
       <c r="C116" t="n">
-        <v>458654.841176056</v>
+        <v>421074.846589511</v>
       </c>
       <c r="D116" t="n">
-        <v>440630.760326727</v>
+        <v>410998.34084459</v>
       </c>
       <c r="E116" t="n">
-        <v>259079.190569872</v>
+        <v>241656.114504173</v>
       </c>
       <c r="F116" t="n">
-        <v>38.0626292863152</v>
+        <v>34.9439586126085</v>
       </c>
       <c r="G116" t="n">
         <v>66460.5912471754</v>
@@ -12264,10 +12267,10 @@
         <v>12050.0041583033</v>
       </c>
       <c r="I116" t="n">
-        <v>3.3869095186521</v>
+        <v>1.67513565890074</v>
       </c>
       <c r="J116" t="n">
-        <v>2.76310134101614</v>
+        <v>1.34891302599427</v>
       </c>
       <c r="K116" t="s">
         <v>135</v>
@@ -12278,19 +12281,19 @@
         <v>126</v>
       </c>
       <c r="B117" t="n">
-        <v>749747.36592594</v>
+        <v>696628.190513082</v>
       </c>
       <c r="C117" t="n">
-        <v>490812.238532151</v>
+        <v>449053.573460803</v>
       </c>
       <c r="D117" t="n">
-        <v>472140.994247098</v>
+        <v>438690.07273297</v>
       </c>
       <c r="E117" t="n">
-        <v>277606.371678843</v>
+        <v>257938.117780113</v>
       </c>
       <c r="F117" t="n">
-        <v>41.3789309642237</v>
+        <v>37.8583811826757</v>
       </c>
       <c r="G117" t="n">
         <v>66460.5912471754</v>
@@ -12299,10 +12302,10 @@
         <v>11861.4045142082</v>
       </c>
       <c r="I117" t="n">
-        <v>3.38693040801947</v>
+        <v>1.54418866304495</v>
       </c>
       <c r="J117" t="n">
-        <v>2.80451636817045</v>
+        <v>1.26268951208794</v>
       </c>
       <c r="K117" t="s">
         <v>135</v>
@@ -13103,7 +13106,7 @@
         <v>107</v>
       </c>
       <c r="B98" t="n">
-        <v>232721.760819656</v>
+        <v>231248.28267418</v>
       </c>
     </row>
     <row r="99">
@@ -13111,7 +13114,7 @@
         <v>108</v>
       </c>
       <c r="B99" t="n">
-        <v>403904.484760037</v>
+        <v>394758.607911273</v>
       </c>
     </row>
     <row r="100">
@@ -13119,7 +13122,7 @@
         <v>109</v>
       </c>
       <c r="B100" t="n">
-        <v>401534.983795103</v>
+        <v>393836.556451617</v>
       </c>
     </row>
     <row r="101">
@@ -13127,7 +13130,7 @@
         <v>110</v>
       </c>
       <c r="B101" t="n">
-        <v>429647.187996109</v>
+        <v>421738.433269413</v>
       </c>
     </row>
     <row r="102">
@@ -13135,7 +13138,7 @@
         <v>111</v>
       </c>
       <c r="B102" t="n">
-        <v>240490.003790209</v>
+        <v>239321.877687495</v>
       </c>
     </row>
     <row r="103">
@@ -13143,7 +13146,7 @@
         <v>112</v>
       </c>
       <c r="B103" t="n">
-        <v>417440.401814774</v>
+        <v>400613.685764224</v>
       </c>
     </row>
     <row r="104">
@@ -13151,7 +13154,7 @@
         <v>113</v>
       </c>
       <c r="B104" t="n">
-        <v>415051.815147145</v>
+        <v>400262.752678334</v>
       </c>
     </row>
     <row r="105">
@@ -13159,7 +13162,7 @@
         <v>114</v>
       </c>
       <c r="B105" t="n">
-        <v>444146.641933741</v>
+        <v>428567.21831726</v>
       </c>
     </row>
     <row r="106">
@@ -13167,7 +13170,7 @@
         <v>115</v>
       </c>
       <c r="B106" t="n">
-        <v>248617.033045927</v>
+        <v>247811.571889555</v>
       </c>
     </row>
     <row r="107">
@@ -13175,7 +13178,7 @@
         <v>116</v>
       </c>
       <c r="B107" t="n">
-        <v>431559.578759204</v>
+        <v>407521.595312949</v>
       </c>
     </row>
     <row r="108">
@@ -13183,7 +13186,7 @@
         <v>117</v>
       </c>
       <c r="B108" t="n">
-        <v>429097.792494489</v>
+        <v>407200.117315393</v>
       </c>
     </row>
     <row r="109">
@@ -13191,7 +13194,7 @@
         <v>118</v>
       </c>
       <c r="B109" t="n">
-        <v>459182.107888662</v>
+        <v>435396.003365108</v>
       </c>
     </row>
     <row r="110">
@@ -13199,7 +13202,7 @@
         <v>119</v>
       </c>
       <c r="B110" t="n">
-        <v>257034.999582107</v>
+        <v>256301.266091615</v>
       </c>
     </row>
     <row r="111">
@@ -13207,7 +13210,7 @@
         <v>120</v>
       </c>
       <c r="B111" t="n">
-        <v>446173.593171661</v>
+        <v>414429.504861673</v>
       </c>
     </row>
     <row r="112">
@@ -13215,7 +13218,7 @@
         <v>121</v>
       </c>
       <c r="B112" t="n">
-        <v>443629.511039123</v>
+        <v>414137.481952452</v>
       </c>
     </row>
     <row r="113">
@@ -13223,7 +13226,7 @@
         <v>122</v>
       </c>
       <c r="B113" t="n">
-        <v>474733.350332722</v>
+        <v>442224.788412955</v>
       </c>
     </row>
     <row r="114">
@@ -13231,7 +13234,7 @@
         <v>123</v>
       </c>
       <c r="B114" t="n">
-        <v>265740.30964788</v>
+        <v>264790.960293675</v>
       </c>
     </row>
     <row r="115">
@@ -13239,7 +13242,7 @@
         <v>124</v>
       </c>
       <c r="B115" t="n">
-        <v>461284.936087862</v>
+        <v>421337.414410397</v>
       </c>
     </row>
     <row r="116">
@@ -13247,7 +13250,7 @@
         <v>125</v>
       </c>
       <c r="B116" t="n">
-        <v>458654.841176056</v>
+        <v>421074.846589511</v>
       </c>
     </row>
     <row r="117">
@@ -13255,7 +13258,7 @@
         <v>126</v>
       </c>
       <c r="B117" t="n">
-        <v>490812.238532151</v>
+        <v>449053.573460803</v>
       </c>
     </row>
   </sheetData>

--- a/prod_result_AGV.xlsx
+++ b/prod_result_AGV.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t xml:space="preserve">ANNEE</t>
   </si>
@@ -353,54 +353,6 @@
     <t xml:space="preserve">2021-10-01</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-10-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">Indicateur_Base</t>
   </si>
   <si>
@@ -570,30 +522,6 @@
   </si>
   <si>
     <t xml:space="preserve">116.8204931266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.964969831534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.267828667406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.570687503277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.873546339149</t>
   </si>
   <si>
     <t xml:space="preserve">time</t>
@@ -2626,182 +2554,6 @@
         <v>142.222089387217</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106" t="n">
-        <v>649168.848173915</v>
-      </c>
-      <c r="C106" t="n">
-        <v>64.9168848173915</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>112</v>
-      </c>
-      <c r="B107" t="n">
-        <v>1335507.88342838</v>
-      </c>
-      <c r="C107" t="n">
-        <v>133.550788342838</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1328672.5794282</v>
-      </c>
-      <c r="C108" t="n">
-        <v>132.86725794282</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1445249.48223089</v>
-      </c>
-      <c r="C109" t="n">
-        <v>144.524948223089</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>115</v>
-      </c>
-      <c r="B110" t="n">
-        <v>672197.43653263</v>
-      </c>
-      <c r="C110" t="n">
-        <v>67.219743653263</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>116</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1358536.4717871</v>
-      </c>
-      <c r="C111" t="n">
-        <v>135.85364717871</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>117</v>
-      </c>
-      <c r="B112" t="n">
-        <v>1351701.16778691</v>
-      </c>
-      <c r="C112" t="n">
-        <v>135.170116778691</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>118</v>
-      </c>
-      <c r="B113" t="n">
-        <v>1468278.0705896</v>
-      </c>
-      <c r="C113" t="n">
-        <v>146.82780705896</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>119</v>
-      </c>
-      <c r="B114" t="n">
-        <v>695226.024891344</v>
-      </c>
-      <c r="C114" t="n">
-        <v>69.5226024891344</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>120</v>
-      </c>
-      <c r="B115" t="n">
-        <v>1381565.06014581</v>
-      </c>
-      <c r="C115" t="n">
-        <v>138.156506014581</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>121</v>
-      </c>
-      <c r="B116" t="n">
-        <v>1374729.75614563</v>
-      </c>
-      <c r="C116" t="n">
-        <v>137.472975614563</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>122</v>
-      </c>
-      <c r="B117" t="n">
-        <v>1491306.65894831</v>
-      </c>
-      <c r="C117" t="n">
-        <v>149.130665894831</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>123</v>
-      </c>
-      <c r="B118" t="n">
-        <v>718254.613250059</v>
-      </c>
-      <c r="C118" t="n">
-        <v>71.8254613250059</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>124</v>
-      </c>
-      <c r="B119" t="n">
-        <v>1404593.64850453</v>
-      </c>
-      <c r="C119" t="n">
-        <v>140.459364850453</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>125</v>
-      </c>
-      <c r="B120" t="n">
-        <v>1397758.34450434</v>
-      </c>
-      <c r="C120" t="n">
-        <v>139.775834450434</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>126</v>
-      </c>
-      <c r="B121" t="n">
-        <v>1514335.24730703</v>
-      </c>
-      <c r="C121" t="n">
-        <v>151.433524730703</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2824,27 +2576,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B2" t="n">
         <v>1268339.44776394</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -2852,13 +2604,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B3" t="n">
         <v>1181742.02474809</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D3" t="n">
         <v>-6.82762198783019</v>
@@ -2867,18 +2619,18 @@
         <v>-6.82762198783021</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B4" t="n">
         <v>1255521.98260917</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D4" t="n">
         <v>6.24332183471359</v>
@@ -2887,18 +2639,18 @@
         <v>6.24329724991903</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B5" t="n">
         <v>1341359.31342924</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D5" t="n">
         <v>6.83678438203776</v>
@@ -2907,18 +2659,18 @@
         <v>7.6663847391887</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B6" t="n">
         <v>1418178.04117694</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D6" t="n">
         <v>5.72693140298894</v>
@@ -2927,18 +2679,18 @@
         <v>1.54743982776746</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B7" t="n">
         <v>1456786.09621266</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D7" t="n">
         <v>2.72237010549667</v>
@@ -2947,18 +2699,18 @@
         <v>1.5788753246931</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B8" t="n">
         <v>1412661.50182195</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D8" t="n">
         <v>-3.02890002213929</v>
@@ -2967,18 +2719,18 @@
         <v>-3.02889206895451</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B9" t="n">
         <v>1448417.44880489</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D9" t="n">
         <v>2.53110507625665</v>
@@ -2987,18 +2739,18 @@
         <v>5.28968892387627</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B10" t="n">
         <v>1484911.45370561</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D10" t="n">
         <v>2.51957782825851</v>
@@ -3007,18 +2759,18 @@
         <v>0.271335430596431</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B11" t="n">
         <v>1537487.09660164</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D11" t="n">
         <v>3.54065845238312</v>
@@ -3027,18 +2779,18 @@
         <v>0.276483893436885</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B12" t="n">
         <v>1488681.5760236</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D12" t="n">
         <v>-3.17436944257388</v>
@@ -3047,18 +2799,18 @@
         <v>-3.17435401271137</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B13" t="n">
         <v>1501661.94446852</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D13" t="n">
         <v>0.871937199598505</v>
@@ -3067,18 +2819,18 @@
         <v>13.12875360473</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B14" t="n">
         <v>1593615.80247697</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D14" t="n">
         <v>6.12347261959796</v>
@@ -3087,18 +2839,18 @@
         <v>7.78774190127929</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B15" t="n">
         <v>1625302.88852461</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D15" t="n">
         <v>1.98837674666574</v>
@@ -3107,18 +2859,18 @@
         <v>1.98837980725486</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B16" t="n">
         <v>1504966.04368939</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D16" t="n">
         <v>-7.40396425090085</v>
@@ -3127,18 +2879,18 @@
         <v>-5.37090609171479</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B17" t="n">
         <v>1449487.4839821</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D17" t="n">
         <v>-3.68636621005003</v>
@@ -3147,18 +2899,18 @@
         <v>-0.58101303558894</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B18" t="n">
         <v>1420710.43912864</v>
       </c>
       <c r="C18" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="D18" t="n">
         <v>-1.9853255148092</v>
@@ -3167,18 +2919,18 @@
         <v>-1.98534113567506</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B19" t="n">
         <v>1491774.4774064</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D19" t="n">
         <v>5.00200718742854</v>
@@ -3187,18 +2939,18 @@
         <v>22.4243776501392</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B20" t="n">
         <v>1839730.03286463</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D20" t="n">
         <v>23.3249435975867</v>
@@ -3207,18 +2959,18 @@
         <v>16.4994671431798</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B21" t="n">
         <v>1891618.57937815</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D21" t="n">
         <v>2.82044352087472</v>
@@ -3227,18 +2979,18 @@
         <v>0.0777316922210947</v>
       </c>
       <c r="F21" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B22" t="n">
         <v>1884039.34954842</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D22" t="n">
         <v>-0.40067431734705</v>
@@ -3247,18 +2999,18 @@
         <v>-0.725733953069041</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B23" t="n">
         <v>2035994.95414942</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D23" t="n">
         <v>8.06541565267307</v>
@@ -3267,18 +3019,18 @@
         <v>6.56474270928626</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B24" t="n">
         <v>2151223.6709907</v>
       </c>
       <c r="C24" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D24" t="n">
         <v>5.65957772176429</v>
@@ -3287,18 +3039,18 @@
         <v>2.80718634633208</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B25" t="n">
         <v>2213601.77450916</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D25" t="n">
         <v>2.89965680275956</v>
@@ -3307,18 +3059,18 @@
         <v>3.94848100525615</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B26" t="n">
         <v>2258851.13974127</v>
       </c>
       <c r="C26" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D26" t="n">
         <v>2.0441511094353</v>
@@ -3327,18 +3079,18 @@
         <v>1.99430666623375</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B27" t="n">
         <v>2264260.32665552</v>
       </c>
       <c r="C27" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D27" t="n">
         <v>0.239466285275913</v>
@@ -3347,87 +3099,7 @@
         <v>1.30975349376914</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>184</v>
-      </c>
-      <c r="B28" t="n">
-        <v>2296616.87359465</v>
-      </c>
-      <c r="C28" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.42901178624326</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1.83570249323546</v>
-      </c>
-      <c r="F28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>186</v>
-      </c>
-      <c r="B29" t="n">
-        <v>2331363.1405257</v>
-      </c>
-      <c r="C29" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.51293266763566</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1.93574531993117</v>
-      </c>
-      <c r="F29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>188</v>
-      </c>
-      <c r="B30" t="n">
-        <v>2366109.40745675</v>
-      </c>
-      <c r="C30" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.49038415882357</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1.89898579134897</v>
-      </c>
-      <c r="F30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>190</v>
-      </c>
-      <c r="B31" t="n">
-        <v>2400855.67438779</v>
-      </c>
-      <c r="C31" t="s">
-        <v>191</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1.46849789876768</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1.86359636124089</v>
-      </c>
-      <c r="F31" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3446,22 +3118,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2">
@@ -3960,46 +3632,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2">
@@ -4043,7 +3715,7 @@
         <v>132947.430298282</v>
       </c>
       <c r="N2" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3">
@@ -4087,7 +3759,7 @@
         <v>212179.745230323</v>
       </c>
       <c r="N3" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
@@ -4131,7 +3803,7 @@
         <v>212276.336572684</v>
       </c>
       <c r="N4" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5">
@@ -4175,7 +3847,7 @@
         <v>227150.493405959</v>
       </c>
       <c r="N5" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
@@ -4219,7 +3891,7 @@
         <v>141393.155818108</v>
       </c>
       <c r="N6" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7">
@@ -4263,7 +3935,7 @@
         <v>226795.470811286</v>
       </c>
       <c r="N7" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8">
@@ -4307,7 +3979,7 @@
         <v>226141.047513878</v>
       </c>
       <c r="N8" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9">
@@ -4351,7 +4023,7 @@
         <v>239206.446918224</v>
       </c>
       <c r="N9" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
@@ -4395,7 +4067,7 @@
         <v>151583.415444744</v>
       </c>
       <c r="N10" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11">
@@ -4439,7 +4111,7 @@
         <v>241196.062844014</v>
       </c>
       <c r="N11" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12">
@@ -4483,7 +4155,7 @@
         <v>240580.80158957</v>
       </c>
       <c r="N12" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13">
@@ -4527,7 +4199,7 @@
         <v>257163.521685726</v>
       </c>
       <c r="N13" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14">
@@ -4571,7 +4243,7 @@
         <v>162331.087671873</v>
       </c>
       <c r="N14" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15">
@@ -4615,7 +4287,7 @@
         <v>255636.207638549</v>
       </c>
       <c r="N15" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16">
@@ -4659,7 +4331,7 @@
         <v>254761.372764017</v>
       </c>
       <c r="N16" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17">
@@ -4703,7 +4375,7 @@
         <v>268794.824495896</v>
       </c>
       <c r="N17" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
@@ -4747,7 +4419,7 @@
         <v>172152.961282495</v>
       </c>
       <c r="N18" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
@@ -4791,7 +4463,7 @@
         <v>262959.230737024</v>
       </c>
       <c r="N19" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20">
@@ -4835,7 +4507,7 @@
         <v>259489.322687805</v>
       </c>
       <c r="N20" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
@@ -4879,7 +4551,7 @@
         <v>272553.860653614</v>
       </c>
       <c r="N21" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
@@ -4923,7 +4595,7 @@
         <v>165954.12705697</v>
       </c>
       <c r="N22" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
@@ -4967,7 +4639,7 @@
         <v>254451.028358753</v>
       </c>
       <c r="N23" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24">
@@ -5011,7 +4683,7 @@
         <v>251850.115121957</v>
       </c>
       <c r="N24" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25">
@@ -5055,7 +4727,7 @@
         <v>265605.64319373</v>
       </c>
       <c r="N25" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26">
@@ -5099,7 +4771,7 @@
         <v>165394.618986893</v>
       </c>
       <c r="N26" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27">
@@ -5143,7 +4815,7 @@
         <v>260338.049791601</v>
       </c>
       <c r="N27" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28">
@@ -5187,7 +4859,7 @@
         <v>259586.938941306</v>
       </c>
       <c r="N28" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
@@ -5231,7 +4903,7 @@
         <v>276279.536412199</v>
       </c>
       <c r="N29" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30">
@@ -5275,7 +4947,7 @@
         <v>169633.925650737</v>
       </c>
       <c r="N30" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31">
@@ -5319,7 +4991,7 @@
         <v>266450.170581692</v>
       </c>
       <c r="N31" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32">
@@ -5363,7 +5035,7 @@
         <v>266503.530916191</v>
       </c>
       <c r="N32" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33">
@@ -5407,7 +5079,7 @@
         <v>283239.173813601</v>
       </c>
       <c r="N33" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34">
@@ -5451,7 +5123,7 @@
         <v>181107.659439472</v>
       </c>
       <c r="N34" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35">
@@ -5495,7 +5167,7 @@
         <v>276683.102451402</v>
       </c>
       <c r="N35" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
@@ -5539,7 +5211,7 @@
         <v>274530.818842023</v>
       </c>
       <c r="N36" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37">
@@ -5583,7 +5255,7 @@
         <v>288409.589888011</v>
       </c>
       <c r="N37" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38">
@@ -5627,7 +5299,7 @@
         <v>181453.273066867</v>
       </c>
       <c r="N38" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39">
@@ -5671,7 +5343,7 @@
         <v>270137.038559754</v>
       </c>
       <c r="N39" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40">
@@ -5715,7 +5387,7 @@
         <v>263887.309749712</v>
       </c>
       <c r="N40" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41">
@@ -5759,7 +5431,7 @@
         <v>272851.760296334</v>
       </c>
       <c r="N41" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42">
@@ -5803,7 +5475,7 @@
         <v>169545.047032252</v>
       </c>
       <c r="N42" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43">
@@ -5847,7 +5519,7 @@
         <v>270276.389654977</v>
       </c>
       <c r="N43" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44">
@@ -5891,7 +5563,7 @@
         <v>268450.177767919</v>
       </c>
       <c r="N44" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45">
@@ -5935,7 +5607,7 @@
         <v>288675.062132566</v>
       </c>
       <c r="N45" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46">
@@ -5979,7 +5651,7 @@
         <v>171154.966331674</v>
       </c>
       <c r="N46" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47">
@@ -6023,7 +5695,7 @@
         <v>288532.43861599</v>
       </c>
       <c r="N47" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48">
@@ -6067,7 +5739,7 @@
         <v>289609.197937181</v>
       </c>
       <c r="N48" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49">
@@ -6111,7 +5783,7 @@
         <v>308698.133653219</v>
       </c>
       <c r="N49" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50">
@@ -6155,7 +5827,7 @@
         <v>183405.338639283</v>
       </c>
       <c r="N50" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51">
@@ -6199,7 +5871,7 @@
         <v>296357.705151497</v>
       </c>
       <c r="N51" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52">
@@ -6243,7 +5915,7 @@
         <v>291988.346205212</v>
       </c>
       <c r="N52" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53">
@@ -6287,7 +5959,7 @@
         <v>307280.87912929</v>
       </c>
       <c r="N53" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54">
@@ -6331,7 +6003,7 @@
         <v>168979.656113968</v>
       </c>
       <c r="N54" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55">
@@ -6375,7 +6047,7 @@
         <v>274326.648828931</v>
       </c>
       <c r="N55" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56">
@@ -6419,7 +6091,7 @@
         <v>270052.130048637</v>
       </c>
       <c r="N56" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57">
@@ -6463,7 +6135,7 @@
         <v>285782.423599542</v>
       </c>
       <c r="N57" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58">
@@ -6507,7 +6179,7 @@
         <v>153859.861305929</v>
       </c>
       <c r="N58" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59">
@@ -6551,7 +6223,7 @@
         <v>262279.912787561</v>
       </c>
       <c r="N59" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60">
@@ -6595,7 +6267,7 @@
         <v>262568.924629638</v>
       </c>
       <c r="N60" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61">
@@ -6639,7 +6311,7 @@
         <v>283600.060277342</v>
       </c>
       <c r="N61" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62">
@@ -6683,7 +6355,7 @@
         <v>158488.907131079</v>
       </c>
       <c r="N62" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63">
@@ -6727,7 +6399,7 @@
         <v>264177.060638771</v>
       </c>
       <c r="N63" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64">
@@ -6771,7 +6443,7 @@
         <v>257066.481672453</v>
       </c>
       <c r="N64" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65">
@@ -6815,7 +6487,7 @@
         <v>263471.825692081</v>
       </c>
       <c r="N65" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66">
@@ -6859,7 +6531,7 @@
         <v>147564.500690045</v>
       </c>
       <c r="N66" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67">
@@ -6903,7 +6575,7 @@
         <v>270161.411528698</v>
       </c>
       <c r="N67" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68">
@@ -6947,7 +6619,7 @@
         <v>270234.304377337</v>
       </c>
       <c r="N68" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69">
@@ -6991,7 +6663,7 @@
         <v>302423.092650497</v>
       </c>
       <c r="N69" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70">
@@ -7035,7 +6707,7 @@
         <v>174444.138194729</v>
       </c>
       <c r="N70" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71">
@@ -7079,7 +6751,7 @@
         <v>338611.400627378</v>
       </c>
       <c r="N71" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72">
@@ -7123,7 +6795,7 @@
         <v>342392.43267135</v>
       </c>
       <c r="N72" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73">
@@ -7167,7 +6839,7 @@
         <v>365941.948099772</v>
       </c>
       <c r="N73" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74">
@@ -7211,7 +6883,7 @@
         <v>203613.132027472</v>
       </c>
       <c r="N74" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75">
@@ -7255,7 +6927,7 @@
         <v>348369.377317031</v>
       </c>
       <c r="N75" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76">
@@ -7299,7 +6971,7 @@
         <v>341264.250449751</v>
       </c>
       <c r="N76" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77">
@@ -7343,7 +7015,7 @@
         <v>362592.624853004</v>
       </c>
       <c r="N77" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78">
@@ -7387,7 +7059,7 @@
         <v>197030.492393745</v>
       </c>
       <c r="N78" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79">
@@ -7431,7 +7103,7 @@
         <v>347853.579080679</v>
       </c>
       <c r="N79" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80">
@@ -7475,7 +7147,7 @@
         <v>345871.917281142</v>
       </c>
       <c r="N80" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81">
@@ -7519,7 +7191,7 @@
         <v>371745.245478028</v>
       </c>
       <c r="N81" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82">
@@ -7563,7 +7235,7 @@
         <v>211599.92275005</v>
       </c>
       <c r="N82" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83">
@@ -7607,7 +7279,7 @@
         <v>374923.067136713</v>
       </c>
       <c r="N83" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84">
@@ -7651,7 +7323,7 @@
         <v>374356.322329157</v>
       </c>
       <c r="N84" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85">
@@ -7695,7 +7367,7 @@
         <v>402250.278875549</v>
       </c>
       <c r="N85" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86">
@@ -7739,7 +7411,7 @@
         <v>218161.678276709</v>
       </c>
       <c r="N86" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87">
@@ -7783,7 +7455,7 @@
         <v>374051.06080515</v>
       </c>
       <c r="N87" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88">
@@ -7827,7 +7499,7 @@
         <v>370119.027227681</v>
       </c>
       <c r="N88" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89">
@@ -7871,7 +7543,7 @@
         <v>392365.734514716</v>
       </c>
       <c r="N89" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90">
@@ -7915,7 +7587,7 @@
         <v>224956.246432389</v>
       </c>
       <c r="N90" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91">
@@ -7959,7 +7631,7 @@
         <v>383871.007163576</v>
       </c>
       <c r="N91" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92">
@@ -8003,7 +7675,7 @@
         <v>379616.06567199</v>
       </c>
       <c r="N92" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93">
@@ -8047,7 +7719,7 @@
         <v>405535.759795766</v>
       </c>
       <c r="N93" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94">
@@ -8091,7 +7763,7 @@
         <v>225694.867691862</v>
       </c>
       <c r="N94" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95">
@@ -8135,7 +7807,7 @@
         <v>391619.235991534</v>
       </c>
       <c r="N95" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96">
@@ -8179,7 +7851,7 @@
         <v>389280.659404153</v>
       </c>
       <c r="N96" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
@@ -8223,7 +7895,7 @@
         <v>415879.354786149</v>
       </c>
       <c r="N97" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -8242,37 +7914,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2">
@@ -8423,7 +8095,7 @@
         <v>6.35268053009934</v>
       </c>
       <c r="K6" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
@@ -8458,7 +8130,7 @@
         <v>6.8883698418517</v>
       </c>
       <c r="K7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
@@ -8493,7 +8165,7 @@
         <v>6.53144442053544</v>
       </c>
       <c r="K8" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
@@ -8528,7 +8200,7 @@
         <v>5.30747405893497</v>
       </c>
       <c r="K9" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -8563,7 +8235,7 @@
         <v>7.20703881858658</v>
       </c>
       <c r="K10" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
@@ -8598,7 +8270,7 @@
         <v>6.34959418775645</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
@@ -8633,7 +8305,7 @@
         <v>6.38528663170084</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
@@ -8668,7 +8340,7 @@
         <v>7.50693595379626</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
@@ -8703,7 +8375,7 @@
         <v>7.09026920629554</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
@@ -8738,7 +8410,7 @@
         <v>5.98689075777872</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16">
@@ -8773,7 +8445,7 @@
         <v>5.89430706056038</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17">
@@ -8808,7 +8480,7 @@
         <v>4.52292095470079</v>
       </c>
       <c r="K17" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18">
@@ -8843,7 +8515,7 @@
         <v>6.05051918981481</v>
       </c>
       <c r="K18" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19">
@@ -8878,7 +8550,7 @@
         <v>2.86462671548851</v>
       </c>
       <c r="K19" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
@@ -8913,7 +8585,7 @@
         <v>1.85583468659036</v>
       </c>
       <c r="K20" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
@@ -8948,7 +8620,7 @@
         <v>1.3984778779752</v>
       </c>
       <c r="K21" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
@@ -8983,7 +8655,7 @@
         <v>-3.60077118589522</v>
       </c>
       <c r="K22" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23">
@@ -9018,7 +8690,7 @@
         <v>-3.23555950267423</v>
       </c>
       <c r="K23" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24">
@@ -9053,7 +8725,7 @@
         <v>-2.94393907491856</v>
       </c>
       <c r="K24" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
@@ -9088,7 +8760,7 @@
         <v>-2.54930069352952</v>
       </c>
       <c r="K25" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
@@ -9123,7 +8795,7 @@
         <v>-0.337146222271845</v>
       </c>
       <c r="K26" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
@@ -9158,7 +8830,7 @@
         <v>2.31361667933507</v>
       </c>
       <c r="K27" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
@@ -9193,7 +8865,7 @@
         <v>3.07199534755114</v>
       </c>
       <c r="K28" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
@@ -9228,7 +8900,7 @@
         <v>4.01869971214586</v>
       </c>
       <c r="K29" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
@@ -9263,7 +8935,7 @@
         <v>2.56314666692996</v>
       </c>
       <c r="K30" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -9298,7 +8970,7 @@
         <v>2.34776314679475</v>
       </c>
       <c r="K31" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -9333,7 +9005,7 @@
         <v>2.66446070171831</v>
       </c>
       <c r="K32" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -9368,7 +9040,7 @@
         <v>2.51905642081955</v>
       </c>
       <c r="K33" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -9403,7 +9075,7 @@
         <v>6.7638202350859</v>
       </c>
       <c r="K34" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
@@ -9438,7 +9110,7 @@
         <v>3.84046737420718</v>
       </c>
       <c r="K35" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
@@ -9473,7 +9145,7 @@
         <v>3.0120756367604</v>
       </c>
       <c r="K36" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
@@ -9508,7 +9180,7 @@
         <v>1.82545938289338</v>
       </c>
       <c r="K37" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38">
@@ -9543,7 +9215,7 @@
         <v>0.190833247176903</v>
       </c>
       <c r="K38" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
@@ -9578,7 +9250,7 @@
         <v>-2.36590663963567</v>
       </c>
       <c r="K39" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
@@ -9613,7 +9285,7 @@
         <v>-3.87698151238741</v>
       </c>
       <c r="K40" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -9648,7 +9320,7 @@
         <v>-5.39435238534152</v>
       </c>
       <c r="K41" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
@@ -9683,7 +9355,7 @@
         <v>-6.5626956369236</v>
       </c>
       <c r="K42" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43">
@@ -9718,7 +9390,7 @@
         <v>0.0515853346013673</v>
       </c>
       <c r="K43" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44">
@@ -9753,7 +9425,7 @@
         <v>1.72909717505347</v>
       </c>
       <c r="K44" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
@@ -9788,7 +9460,7 @@
         <v>5.7992302556698</v>
       </c>
       <c r="K45" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -9823,7 +9495,7 @@
         <v>0.949552539340881</v>
       </c>
       <c r="K46" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
@@ -9858,7 +9530,7 @@
         <v>6.75458518012539</v>
       </c>
       <c r="K47" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48">
@@ -9893,7 +9565,7 @@
         <v>7.88191698928717</v>
       </c>
       <c r="K48" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49">
@@ -9928,7 +9600,7 @@
         <v>6.93619718057168</v>
       </c>
       <c r="K49" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50">
@@ -9963,7 +9635,7 @@
         <v>7.15747405416771</v>
       </c>
       <c r="K50" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51">
@@ -9998,7 +9670,7 @@
         <v>2.71209246802262</v>
       </c>
       <c r="K51" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52">
@@ -10033,7 +9705,7 @@
         <v>0.82150300645758</v>
       </c>
       <c r="K52" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53">
@@ -10068,7 +9740,7 @@
         <v>-0.459106929852937</v>
       </c>
       <c r="K53" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54">
@@ -10103,7 +9775,7 @@
         <v>-7.86546489450185</v>
       </c>
       <c r="K54" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55">
@@ -10138,7 +9810,7 @@
         <v>-7.43394078831292</v>
       </c>
       <c r="K55" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56">
@@ -10173,7 +9845,7 @@
         <v>-7.51270262723357</v>
       </c>
       <c r="K56" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57">
@@ -10208,7 +9880,7 @@
         <v>-6.996353170645</v>
       </c>
       <c r="K57" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58">
@@ -10243,7 +9915,7 @@
         <v>-8.94770125336322</v>
       </c>
       <c r="K58" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59">
@@ -10278,7 +9950,7 @@
         <v>-4.39138380933692</v>
       </c>
       <c r="K59" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60">
@@ -10313,7 +9985,7 @@
         <v>-2.77102254948041</v>
       </c>
       <c r="K60" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61">
@@ -10348,7 +10020,7 @@
         <v>-0.763645046714989</v>
       </c>
       <c r="K61" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62">
@@ -10383,7 +10055,7 @@
         <v>3.00861172359006</v>
       </c>
       <c r="K62" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63">
@@ -10418,7 +10090,7 @@
         <v>0.723329450222332</v>
       </c>
       <c r="K63" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64">
@@ -10453,7 +10125,7 @@
         <v>-2.09561849900781</v>
       </c>
       <c r="K64" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65">
@@ -10488,7 +10160,7 @@
         <v>-7.0974013776927</v>
       </c>
       <c r="K65" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66">
@@ -10523,7 +10195,7 @@
         <v>-6.89285240133485</v>
       </c>
       <c r="K66" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67">
@@ -10558,7 +10230,7 @@
         <v>2.26528029173192</v>
       </c>
       <c r="K67" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68">
@@ -10593,7 +10265,7 @@
         <v>5.12234135668546</v>
       </c>
       <c r="K68" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69">
@@ -10628,7 +10300,7 @@
         <v>14.7838452388977</v>
       </c>
       <c r="K69" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70">
@@ -10663,7 +10335,7 @@
         <v>18.2155175391026</v>
       </c>
       <c r="K70" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71">
@@ -10698,7 +10370,7 @@
         <v>25.3367010156479</v>
       </c>
       <c r="K71" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72">
@@ -10733,7 +10405,7 @@
         <v>26.702060813588</v>
       </c>
       <c r="K72" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73">
@@ -10768,7 +10440,7 @@
         <v>21.0033086073499</v>
       </c>
       <c r="K73" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74">
@@ -10803,7 +10475,7 @@
         <v>16.7211086222812</v>
       </c>
       <c r="K74" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75">
@@ -10838,7 +10510,7 @@
         <v>2.88176259617166</v>
       </c>
       <c r="K75" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76">
@@ -10873,7 +10545,7 @@
         <v>-0.329499753483831</v>
       </c>
       <c r="K76" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77">
@@ -10908,7 +10580,7 @@
         <v>-0.915260812311802</v>
       </c>
       <c r="K77" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78">
@@ -10943,7 +10615,7 @@
         <v>-3.23291507192113</v>
       </c>
       <c r="K78" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79">
@@ -10978,7 +10650,7 @@
         <v>-0.148060728047916</v>
       </c>
       <c r="K79" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80">
@@ -11013,7 +10685,7 @@
         <v>1.3501756557619</v>
       </c>
       <c r="K80" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81">
@@ -11048,7 +10720,7 @@
         <v>2.52421588242013</v>
       </c>
       <c r="K81" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82">
@@ -11083,7 +10755,7 @@
         <v>7.39450537797441</v>
       </c>
       <c r="K82" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83">
@@ -11118,7 +10790,7 @@
         <v>7.78186273879204</v>
       </c>
       <c r="K83" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84">
@@ -11153,7 +10825,7 @@
         <v>8.23553564912922</v>
       </c>
       <c r="K84" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85">
@@ -11188,7 +10860,7 @@
         <v>8.20589739037396</v>
       </c>
       <c r="K85" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86">
@@ -11223,7 +10895,7 @@
         <v>3.10101981200155</v>
       </c>
       <c r="K86" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
@@ -11258,7 +10930,7 @@
         <v>-0.232582737099241</v>
       </c>
       <c r="K87" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88">
@@ -11293,7 +10965,7 @@
         <v>-1.13188821684977</v>
       </c>
       <c r="K88" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89">
@@ -11328,7 +11000,7 @@
         <v>-2.45731199701442</v>
       </c>
       <c r="K89" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90">
@@ -11363,7 +11035,7 @@
         <v>3.11446456103146</v>
       </c>
       <c r="K90" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91">
@@ -11398,7 +11070,7 @@
         <v>2.62529568484275</v>
       </c>
       <c r="K91" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92">
@@ -11433,7 +11105,7 @@
         <v>2.56594169595781</v>
       </c>
       <c r="K92" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93">
@@ -11468,7 +11140,7 @@
         <v>3.35656866095588</v>
       </c>
       <c r="K93" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94">
@@ -11503,7 +11175,7 @@
         <v>0.328339964409663</v>
       </c>
       <c r="K94" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95">
@@ -11538,7 +11210,7 @@
         <v>2.01844595798188</v>
       </c>
       <c r="K95" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96">
@@ -11573,7 +11245,7 @@
         <v>2.54588638524968</v>
       </c>
       <c r="K96" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97">
@@ -11608,7 +11280,7 @@
         <v>2.55059997559566</v>
       </c>
       <c r="K97" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98">
@@ -11643,7 +11315,7 @@
         <v>1.01068370395561</v>
       </c>
       <c r="K98" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99">
@@ -11678,7 +11350,7 @@
         <v>-0.0113390958588089</v>
       </c>
       <c r="K99" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100">
@@ -11713,7 +11385,7 @@
         <v>0.0616160360257245</v>
       </c>
       <c r="K100" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101">
@@ -11748,567 +11420,7 @@
         <v>0.223582017041135</v>
       </c>
       <c r="K101" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>111</v>
-      </c>
-      <c r="B102" t="n">
-        <v>370280.541931793</v>
-      </c>
-      <c r="C102" t="n">
-        <v>239321.877687495</v>
-      </c>
-      <c r="D102" t="n">
-        <v>233178.042582547</v>
-      </c>
-      <c r="E102" t="n">
-        <v>137102.499349247</v>
-      </c>
-      <c r="F102" t="n">
-        <v>16.2292212043479</v>
-      </c>
-      <c r="G102" t="n">
-        <v>66460.5912471754</v>
-      </c>
-      <c r="H102" t="n">
-        <v>14746.3562591272</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3.49131025750811</v>
-      </c>
-      <c r="J102" t="n">
-        <v>2.28186969845432</v>
-      </c>
-      <c r="K102" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>112</v>
-      </c>
-      <c r="B103" t="n">
-        <v>629173.086197585</v>
-      </c>
-      <c r="C103" t="n">
-        <v>400613.685764224</v>
-      </c>
-      <c r="D103" t="n">
-        <v>396211.337273556</v>
-      </c>
-      <c r="E103" t="n">
-        <v>232961.74892403</v>
-      </c>
-      <c r="F103" t="n">
-        <v>33.3876970857095</v>
-      </c>
-      <c r="G103" t="n">
-        <v>66460.5912471754</v>
-      </c>
-      <c r="H103" t="n">
-        <v>11998.8415114648</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1.48320460545033</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1.18406675006326</v>
-      </c>
-      <c r="K103" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>113</v>
-      </c>
-      <c r="B104" t="n">
-        <v>626594.755150478</v>
-      </c>
-      <c r="C104" t="n">
-        <v>400262.752678334</v>
-      </c>
-      <c r="D104" t="n">
-        <v>394587.675971891</v>
-      </c>
-      <c r="E104" t="n">
-        <v>232007.079178588</v>
-      </c>
-      <c r="F104" t="n">
-        <v>33.2168144857049</v>
-      </c>
-      <c r="G104" t="n">
-        <v>66460.5912471754</v>
-      </c>
-      <c r="H104" t="n">
-        <v>12050.0041583033</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1.63169114736716</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1.3008704324762</v>
-      </c>
-      <c r="K104" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>114</v>
-      </c>
-      <c r="B105" t="n">
-        <v>670568.490314797</v>
-      </c>
-      <c r="C105" t="n">
-        <v>428567.21831726</v>
-      </c>
-      <c r="D105" t="n">
-        <v>422279.407860271</v>
-      </c>
-      <c r="E105" t="n">
-        <v>248289.082454527</v>
-      </c>
-      <c r="F105" t="n">
-        <v>36.1312370557721</v>
-      </c>
-      <c r="G105" t="n">
-        <v>66460.5912471754</v>
-      </c>
-      <c r="H105" t="n">
-        <v>11861.4045142082</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1.61919913129787</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1.31240428591117</v>
-      </c>
-      <c r="K105" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>115</v>
-      </c>
-      <c r="B106" t="n">
-        <v>378967.108664555</v>
-      </c>
-      <c r="C106" t="n">
-        <v>247811.571889555</v>
-      </c>
-      <c r="D106" t="n">
-        <v>238648.26420678</v>
-      </c>
-      <c r="E106" t="n">
-        <v>140318.844457775</v>
-      </c>
-      <c r="F106" t="n">
-        <v>16.8049359133157</v>
-      </c>
-      <c r="G106" t="n">
-        <v>66460.5912471754</v>
-      </c>
-      <c r="H106" t="n">
-        <v>14746.3562591272</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3.54739578516328</v>
-      </c>
-      <c r="J106" t="n">
-        <v>2.34594199507296</v>
-      </c>
-      <c r="K106" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>116</v>
-      </c>
-      <c r="B107" t="n">
-        <v>637859.652930347</v>
-      </c>
-      <c r="C107" t="n">
-        <v>407521.595312949</v>
-      </c>
-      <c r="D107" t="n">
-        <v>401681.558897789</v>
-      </c>
-      <c r="E107" t="n">
-        <v>236178.094032558</v>
-      </c>
-      <c r="F107" t="n">
-        <v>33.9634117946774</v>
-      </c>
-      <c r="G107" t="n">
-        <v>66460.5912471754</v>
-      </c>
-      <c r="H107" t="n">
-        <v>11998.8415114648</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1.72433189234329</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1.38063228121519</v>
-      </c>
-      <c r="K107" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>117</v>
-      </c>
-      <c r="B108" t="n">
-        <v>635281.32188324</v>
-      </c>
-      <c r="C108" t="n">
-        <v>407200.117315393</v>
-      </c>
-      <c r="D108" t="n">
-        <v>400057.897596124</v>
-      </c>
-      <c r="E108" t="n">
-        <v>235223.424287116</v>
-      </c>
-      <c r="F108" t="n">
-        <v>33.7925291946728</v>
-      </c>
-      <c r="G108" t="n">
-        <v>66460.5912471754</v>
-      </c>
-      <c r="H108" t="n">
-        <v>12050.0041583033</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1.7332026501687</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1.38631334867707</v>
-      </c>
-      <c r="K108" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>118</v>
-      </c>
-      <c r="B109" t="n">
-        <v>679255.057047559</v>
-      </c>
-      <c r="C109" t="n">
-        <v>435396.003365108</v>
-      </c>
-      <c r="D109" t="n">
-        <v>427749.629484503</v>
-      </c>
-      <c r="E109" t="n">
-        <v>251505.427563055</v>
-      </c>
-      <c r="F109" t="n">
-        <v>36.70695176474</v>
-      </c>
-      <c r="G109" t="n">
-        <v>66460.5912471754</v>
-      </c>
-      <c r="H109" t="n">
-        <v>11861.4045142082</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1.59339883126388</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1.29540335673743</v>
-      </c>
-      <c r="K109" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
         <v>119</v>
-      </c>
-      <c r="B110" t="n">
-        <v>387653.675397317</v>
-      </c>
-      <c r="C110" t="n">
-        <v>256301.266091615</v>
-      </c>
-      <c r="D110" t="n">
-        <v>244118.485831013</v>
-      </c>
-      <c r="E110" t="n">
-        <v>143535.189566304</v>
-      </c>
-      <c r="F110" t="n">
-        <v>17.3806506222836</v>
-      </c>
-      <c r="G110" t="n">
-        <v>66460.5912471754</v>
-      </c>
-      <c r="H110" t="n">
-        <v>14746.3562591272</v>
-      </c>
-      <c r="I110" t="n">
-        <v>3.42586673306908</v>
-      </c>
-      <c r="J110" t="n">
-        <v>2.29216903898923</v>
-      </c>
-      <c r="K110" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>120</v>
-      </c>
-      <c r="B111" t="n">
-        <v>646546.219663109</v>
-      </c>
-      <c r="C111" t="n">
-        <v>414429.504861673</v>
-      </c>
-      <c r="D111" t="n">
-        <v>407151.780522022</v>
-      </c>
-      <c r="E111" t="n">
-        <v>239394.439141087</v>
-      </c>
-      <c r="F111" t="n">
-        <v>34.5391265036453</v>
-      </c>
-      <c r="G111" t="n">
-        <v>66460.5912471754</v>
-      </c>
-      <c r="H111" t="n">
-        <v>11998.8415114648</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1.69510269594906</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1.36183041094624</v>
-      </c>
-      <c r="K111" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>121</v>
-      </c>
-      <c r="B112" t="n">
-        <v>643967.888616002</v>
-      </c>
-      <c r="C112" t="n">
-        <v>414137.481952452</v>
-      </c>
-      <c r="D112" t="n">
-        <v>405528.119220357</v>
-      </c>
-      <c r="E112" t="n">
-        <v>238439.769395645</v>
-      </c>
-      <c r="F112" t="n">
-        <v>34.3682439036406</v>
-      </c>
-      <c r="G112" t="n">
-        <v>66460.5912471754</v>
-      </c>
-      <c r="H112" t="n">
-        <v>12050.0041583033</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1.70367451826785</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1.36735748927912</v>
-      </c>
-      <c r="K112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>122</v>
-      </c>
-      <c r="B113" t="n">
-        <v>687941.62378032</v>
-      </c>
-      <c r="C113" t="n">
-        <v>442224.788412955</v>
-      </c>
-      <c r="D113" t="n">
-        <v>433219.851108736</v>
-      </c>
-      <c r="E113" t="n">
-        <v>254721.772671584</v>
-      </c>
-      <c r="F113" t="n">
-        <v>37.2826664737079</v>
-      </c>
-      <c r="G113" t="n">
-        <v>66460.5912471754</v>
-      </c>
-      <c r="H113" t="n">
-        <v>11861.4045142082</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1.56840783908645</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1.27883725599609</v>
-      </c>
-      <c r="K113" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>123</v>
-      </c>
-      <c r="B114" t="n">
-        <v>396340.242130078</v>
-      </c>
-      <c r="C114" t="n">
-        <v>264790.960293675</v>
-      </c>
-      <c r="D114" t="n">
-        <v>249588.707455246</v>
-      </c>
-      <c r="E114" t="n">
-        <v>146751.534674833</v>
-      </c>
-      <c r="F114" t="n">
-        <v>17.9563653312515</v>
-      </c>
-      <c r="G114" t="n">
-        <v>66460.5912471754</v>
-      </c>
-      <c r="H114" t="n">
-        <v>14746.3562591272</v>
-      </c>
-      <c r="I114" t="n">
-        <v>3.31238871017718</v>
-      </c>
-      <c r="J114" t="n">
-        <v>2.24080597813463</v>
-      </c>
-      <c r="K114" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>124</v>
-      </c>
-      <c r="B115" t="n">
-        <v>655232.78639587</v>
-      </c>
-      <c r="C115" t="n">
-        <v>421337.414410397</v>
-      </c>
-      <c r="D115" t="n">
-        <v>412622.002146255</v>
-      </c>
-      <c r="E115" t="n">
-        <v>242610.784249615</v>
-      </c>
-      <c r="F115" t="n">
-        <v>35.1148412126131</v>
-      </c>
-      <c r="G115" t="n">
-        <v>66460.5912471754</v>
-      </c>
-      <c r="H115" t="n">
-        <v>11998.8415114648</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1.66684791205445</v>
-      </c>
-      <c r="J115" t="n">
-        <v>1.34353375962633</v>
-      </c>
-      <c r="K115" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>125</v>
-      </c>
-      <c r="B116" t="n">
-        <v>652654.455348763</v>
-      </c>
-      <c r="C116" t="n">
-        <v>421074.846589511</v>
-      </c>
-      <c r="D116" t="n">
-        <v>410998.34084459</v>
-      </c>
-      <c r="E116" t="n">
-        <v>241656.114504173</v>
-      </c>
-      <c r="F116" t="n">
-        <v>34.9439586126085</v>
-      </c>
-      <c r="G116" t="n">
-        <v>66460.5912471754</v>
-      </c>
-      <c r="H116" t="n">
-        <v>12050.0041583033</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1.67513565890074</v>
-      </c>
-      <c r="J116" t="n">
-        <v>1.34891302599427</v>
-      </c>
-      <c r="K116" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>126</v>
-      </c>
-      <c r="B117" t="n">
-        <v>696628.190513082</v>
-      </c>
-      <c r="C117" t="n">
-        <v>449053.573460803</v>
-      </c>
-      <c r="D117" t="n">
-        <v>438690.07273297</v>
-      </c>
-      <c r="E117" t="n">
-        <v>257938.117780113</v>
-      </c>
-      <c r="F117" t="n">
-        <v>37.8583811826757</v>
-      </c>
-      <c r="G117" t="n">
-        <v>66460.5912471754</v>
-      </c>
-      <c r="H117" t="n">
-        <v>11861.4045142082</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1.54418866304495</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1.26268951208794</v>
-      </c>
-      <c r="K117" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -12327,10 +11439,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2">
@@ -13131,134 +12243,6 @@
       </c>
       <c r="B101" t="n">
         <v>421738.433269413</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>111</v>
-      </c>
-      <c r="B102" t="n">
-        <v>239321.877687495</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>112</v>
-      </c>
-      <c r="B103" t="n">
-        <v>400613.685764224</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>113</v>
-      </c>
-      <c r="B104" t="n">
-        <v>400262.752678334</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>114</v>
-      </c>
-      <c r="B105" t="n">
-        <v>428567.21831726</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>115</v>
-      </c>
-      <c r="B106" t="n">
-        <v>247811.571889555</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>116</v>
-      </c>
-      <c r="B107" t="n">
-        <v>407521.595312949</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>117</v>
-      </c>
-      <c r="B108" t="n">
-        <v>407200.117315393</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>118</v>
-      </c>
-      <c r="B109" t="n">
-        <v>435396.003365108</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>119</v>
-      </c>
-      <c r="B110" t="n">
-        <v>256301.266091615</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>120</v>
-      </c>
-      <c r="B111" t="n">
-        <v>414429.504861673</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>121</v>
-      </c>
-      <c r="B112" t="n">
-        <v>414137.481952452</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>122</v>
-      </c>
-      <c r="B113" t="n">
-        <v>442224.788412955</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>123</v>
-      </c>
-      <c r="B114" t="n">
-        <v>264790.960293675</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>124</v>
-      </c>
-      <c r="B115" t="n">
-        <v>421337.414410397</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>125</v>
-      </c>
-      <c r="B116" t="n">
-        <v>421074.846589511</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>126</v>
-      </c>
-      <c r="B117" t="n">
-        <v>449053.573460803</v>
       </c>
     </row>
   </sheetData>

--- a/prod_result_AGV.xlsx
+++ b/prod_result_AGV.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t xml:space="preserve">ANNEE</t>
   </si>
@@ -353,6 +353,54 @@
     <t xml:space="preserve">2021-10-01</t>
   </si>
   <si>
+    <t xml:space="preserve">2022-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Indicateur_Base</t>
   </si>
   <si>
@@ -522,6 +570,30 @@
   </si>
   <si>
     <t xml:space="preserve">116.8204931266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.964969831534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.267828667406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.570687503277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.873546339149</t>
   </si>
   <si>
     <t xml:space="preserve">time</t>
@@ -2554,6 +2626,182 @@
         <v>142.222089387217</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" t="n">
+        <v>649168.848173915</v>
+      </c>
+      <c r="C106" t="n">
+        <v>64.9168848173915</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1335507.88342838</v>
+      </c>
+      <c r="C107" t="n">
+        <v>133.550788342838</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1328672.5794282</v>
+      </c>
+      <c r="C108" t="n">
+        <v>132.86725794282</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1445249.48223089</v>
+      </c>
+      <c r="C109" t="n">
+        <v>144.524948223089</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" t="n">
+        <v>672197.43653263</v>
+      </c>
+      <c r="C110" t="n">
+        <v>67.219743653263</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1358536.4717871</v>
+      </c>
+      <c r="C111" t="n">
+        <v>135.85364717871</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1351701.16778691</v>
+      </c>
+      <c r="C112" t="n">
+        <v>135.170116778691</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1468278.0705896</v>
+      </c>
+      <c r="C113" t="n">
+        <v>146.82780705896</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" t="n">
+        <v>695226.024891344</v>
+      </c>
+      <c r="C114" t="n">
+        <v>69.5226024891344</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1381565.06014581</v>
+      </c>
+      <c r="C115" t="n">
+        <v>138.156506014581</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1374729.75614563</v>
+      </c>
+      <c r="C116" t="n">
+        <v>137.472975614563</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1491306.65894831</v>
+      </c>
+      <c r="C117" t="n">
+        <v>149.130665894831</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" t="n">
+        <v>718254.613250059</v>
+      </c>
+      <c r="C118" t="n">
+        <v>71.8254613250059</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1404593.64850453</v>
+      </c>
+      <c r="C119" t="n">
+        <v>140.459364850453</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1397758.34450434</v>
+      </c>
+      <c r="C120" t="n">
+        <v>139.775834450434</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1514335.24730703</v>
+      </c>
+      <c r="C121" t="n">
+        <v>151.433524730703</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2576,27 +2824,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B2" t="n">
         <v>1268339.44776394</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -2604,13 +2852,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B3" t="n">
         <v>1181742.02474809</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D3" t="n">
         <v>-6.82762198783019</v>
@@ -2619,18 +2867,18 @@
         <v>-6.82762198783021</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B4" t="n">
         <v>1255521.98260917</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D4" t="n">
         <v>6.24332183471359</v>
@@ -2639,18 +2887,18 @@
         <v>6.24329724991903</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B5" t="n">
         <v>1341359.31342924</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D5" t="n">
         <v>6.83678438203776</v>
@@ -2659,18 +2907,18 @@
         <v>7.6663847391887</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B6" t="n">
         <v>1418178.04117694</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D6" t="n">
         <v>5.72693140298894</v>
@@ -2679,18 +2927,18 @@
         <v>1.54743982776746</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B7" t="n">
         <v>1456786.09621266</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D7" t="n">
         <v>2.72237010549667</v>
@@ -2699,18 +2947,18 @@
         <v>1.5788753246931</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B8" t="n">
         <v>1412661.50182195</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D8" t="n">
         <v>-3.02890002213929</v>
@@ -2719,18 +2967,18 @@
         <v>-3.02889206895451</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B9" t="n">
         <v>1448417.44880489</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D9" t="n">
         <v>2.53110507625665</v>
@@ -2739,18 +2987,18 @@
         <v>5.28968892387627</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B10" t="n">
         <v>1484911.45370561</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D10" t="n">
         <v>2.51957782825851</v>
@@ -2759,18 +3007,18 @@
         <v>0.271335430596431</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B11" t="n">
         <v>1537487.09660164</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D11" t="n">
         <v>3.54065845238312</v>
@@ -2779,18 +3027,18 @@
         <v>0.276483893436885</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B12" t="n">
         <v>1488681.5760236</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D12" t="n">
         <v>-3.17436944257388</v>
@@ -2799,18 +3047,18 @@
         <v>-3.17435401271137</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B13" t="n">
         <v>1501661.94446852</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="D13" t="n">
         <v>0.871937199598505</v>
@@ -2819,18 +3067,18 @@
         <v>13.12875360473</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B14" t="n">
         <v>1593615.80247697</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D14" t="n">
         <v>6.12347261959796</v>
@@ -2839,18 +3087,18 @@
         <v>7.78774190127929</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B15" t="n">
         <v>1625302.88852461</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="D15" t="n">
         <v>1.98837674666574</v>
@@ -2859,18 +3107,18 @@
         <v>1.98837980725486</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B16" t="n">
         <v>1504966.04368939</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D16" t="n">
         <v>-7.40396425090085</v>
@@ -2879,18 +3127,18 @@
         <v>-5.37090609171479</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B17" t="n">
         <v>1449487.4839821</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D17" t="n">
         <v>-3.68636621005003</v>
@@ -2899,18 +3147,18 @@
         <v>-0.58101303558894</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B18" t="n">
         <v>1420710.43912864</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D18" t="n">
         <v>-1.9853255148092</v>
@@ -2919,18 +3167,18 @@
         <v>-1.98534113567506</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B19" t="n">
         <v>1491774.4774064</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D19" t="n">
         <v>5.00200718742854</v>
@@ -2939,18 +3187,18 @@
         <v>22.4243776501392</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B20" t="n">
         <v>1839730.03286463</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D20" t="n">
         <v>23.3249435975867</v>
@@ -2959,18 +3207,18 @@
         <v>16.4994671431798</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B21" t="n">
         <v>1891618.57937815</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D21" t="n">
         <v>2.82044352087472</v>
@@ -2979,18 +3227,18 @@
         <v>0.0777316922210947</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B22" t="n">
         <v>1884039.34954842</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="D22" t="n">
         <v>-0.40067431734705</v>
@@ -2999,18 +3247,18 @@
         <v>-0.725733953069041</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B23" t="n">
         <v>2035994.95414942</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D23" t="n">
         <v>8.06541565267307</v>
@@ -3019,18 +3267,18 @@
         <v>6.56474270928626</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B24" t="n">
         <v>2151223.6709907</v>
       </c>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D24" t="n">
         <v>5.65957772176429</v>
@@ -3039,18 +3287,18 @@
         <v>2.80718634633208</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B25" t="n">
         <v>2213601.77450916</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="D25" t="n">
         <v>2.89965680275956</v>
@@ -3059,18 +3307,18 @@
         <v>3.94848100525615</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B26" t="n">
         <v>2258851.13974127</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D26" t="n">
         <v>2.0441511094353</v>
@@ -3079,18 +3327,18 @@
         <v>1.99430666623375</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="B27" t="n">
         <v>2264260.32665552</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D27" t="n">
         <v>0.239466285275913</v>
@@ -3099,7 +3347,87 @@
         <v>1.30975349376914</v>
       </c>
       <c r="F27" t="s">
-        <v>119</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2296616.87359465</v>
+      </c>
+      <c r="C28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.42901178624326</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.83570249323546</v>
+      </c>
+      <c r="F28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2331363.1405257</v>
+      </c>
+      <c r="C29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.51293266763566</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.93574531993117</v>
+      </c>
+      <c r="F29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2366109.40745675</v>
+      </c>
+      <c r="C30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.49038415882357</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.89898579134897</v>
+      </c>
+      <c r="F30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2400855.67438779</v>
+      </c>
+      <c r="C31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.46849789876768</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.86359636124089</v>
+      </c>
+      <c r="F31" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3118,22 +3446,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2">
@@ -3632,46 +3960,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
@@ -3715,7 +4043,7 @@
         <v>132947.430298282</v>
       </c>
       <c r="N2" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
@@ -3759,7 +4087,7 @@
         <v>212179.745230323</v>
       </c>
       <c r="N3" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
@@ -3803,7 +4131,7 @@
         <v>212276.336572684</v>
       </c>
       <c r="N4" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5">
@@ -3847,7 +4175,7 @@
         <v>227150.493405959</v>
       </c>
       <c r="N5" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
@@ -3891,7 +4219,7 @@
         <v>141393.155818108</v>
       </c>
       <c r="N6" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7">
@@ -3935,7 +4263,7 @@
         <v>226795.470811286</v>
       </c>
       <c r="N7" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
@@ -3979,7 +4307,7 @@
         <v>226141.047513878</v>
       </c>
       <c r="N8" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9">
@@ -4023,7 +4351,7 @@
         <v>239206.446918224</v>
       </c>
       <c r="N9" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10">
@@ -4067,7 +4395,7 @@
         <v>151583.415444744</v>
       </c>
       <c r="N10" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11">
@@ -4111,7 +4439,7 @@
         <v>241196.062844014</v>
       </c>
       <c r="N11" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12">
@@ -4155,7 +4483,7 @@
         <v>240580.80158957</v>
       </c>
       <c r="N12" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13">
@@ -4199,7 +4527,7 @@
         <v>257163.521685726</v>
       </c>
       <c r="N13" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14">
@@ -4243,7 +4571,7 @@
         <v>162331.087671873</v>
       </c>
       <c r="N14" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15">
@@ -4287,7 +4615,7 @@
         <v>255636.207638549</v>
       </c>
       <c r="N15" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16">
@@ -4331,7 +4659,7 @@
         <v>254761.372764017</v>
       </c>
       <c r="N16" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17">
@@ -4375,7 +4703,7 @@
         <v>268794.824495896</v>
       </c>
       <c r="N17" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18">
@@ -4419,7 +4747,7 @@
         <v>172152.961282495</v>
       </c>
       <c r="N18" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19">
@@ -4463,7 +4791,7 @@
         <v>262959.230737024</v>
       </c>
       <c r="N19" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20">
@@ -4507,7 +4835,7 @@
         <v>259489.322687805</v>
       </c>
       <c r="N20" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
@@ -4551,7 +4879,7 @@
         <v>272553.860653614</v>
       </c>
       <c r="N21" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22">
@@ -4595,7 +4923,7 @@
         <v>165954.12705697</v>
       </c>
       <c r="N22" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23">
@@ -4639,7 +4967,7 @@
         <v>254451.028358753</v>
       </c>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
@@ -4683,7 +5011,7 @@
         <v>251850.115121957</v>
       </c>
       <c r="N24" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25">
@@ -4727,7 +5055,7 @@
         <v>265605.64319373</v>
       </c>
       <c r="N25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26">
@@ -4771,7 +5099,7 @@
         <v>165394.618986893</v>
       </c>
       <c r="N26" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27">
@@ -4815,7 +5143,7 @@
         <v>260338.049791601</v>
       </c>
       <c r="N27" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28">
@@ -4859,7 +5187,7 @@
         <v>259586.938941306</v>
       </c>
       <c r="N28" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
@@ -4903,7 +5231,7 @@
         <v>276279.536412199</v>
       </c>
       <c r="N29" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
@@ -4947,7 +5275,7 @@
         <v>169633.925650737</v>
       </c>
       <c r="N30" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31">
@@ -4991,7 +5319,7 @@
         <v>266450.170581692</v>
       </c>
       <c r="N31" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32">
@@ -5035,7 +5363,7 @@
         <v>266503.530916191</v>
       </c>
       <c r="N32" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33">
@@ -5079,7 +5407,7 @@
         <v>283239.173813601</v>
       </c>
       <c r="N33" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34">
@@ -5123,7 +5451,7 @@
         <v>181107.659439472</v>
       </c>
       <c r="N34" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35">
@@ -5167,7 +5495,7 @@
         <v>276683.102451402</v>
       </c>
       <c r="N35" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36">
@@ -5211,7 +5539,7 @@
         <v>274530.818842023</v>
       </c>
       <c r="N36" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37">
@@ -5255,7 +5583,7 @@
         <v>288409.589888011</v>
       </c>
       <c r="N37" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38">
@@ -5299,7 +5627,7 @@
         <v>181453.273066867</v>
       </c>
       <c r="N38" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39">
@@ -5343,7 +5671,7 @@
         <v>270137.038559754</v>
       </c>
       <c r="N39" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40">
@@ -5387,7 +5715,7 @@
         <v>263887.309749712</v>
       </c>
       <c r="N40" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41">
@@ -5431,7 +5759,7 @@
         <v>272851.760296334</v>
       </c>
       <c r="N41" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42">
@@ -5475,7 +5803,7 @@
         <v>169545.047032252</v>
       </c>
       <c r="N42" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43">
@@ -5519,7 +5847,7 @@
         <v>270276.389654977</v>
       </c>
       <c r="N43" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44">
@@ -5563,7 +5891,7 @@
         <v>268450.177767919</v>
       </c>
       <c r="N44" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45">
@@ -5607,7 +5935,7 @@
         <v>288675.062132566</v>
       </c>
       <c r="N45" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46">
@@ -5651,7 +5979,7 @@
         <v>171154.966331674</v>
       </c>
       <c r="N46" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47">
@@ -5695,7 +6023,7 @@
         <v>288532.43861599</v>
       </c>
       <c r="N47" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48">
@@ -5739,7 +6067,7 @@
         <v>289609.197937181</v>
       </c>
       <c r="N48" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49">
@@ -5783,7 +6111,7 @@
         <v>308698.133653219</v>
       </c>
       <c r="N49" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50">
@@ -5827,7 +6155,7 @@
         <v>183405.338639283</v>
       </c>
       <c r="N50" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51">
@@ -5871,7 +6199,7 @@
         <v>296357.705151497</v>
       </c>
       <c r="N51" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52">
@@ -5915,7 +6243,7 @@
         <v>291988.346205212</v>
       </c>
       <c r="N52" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53">
@@ -5959,7 +6287,7 @@
         <v>307280.87912929</v>
       </c>
       <c r="N53" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54">
@@ -6003,7 +6331,7 @@
         <v>168979.656113968</v>
       </c>
       <c r="N54" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55">
@@ -6047,7 +6375,7 @@
         <v>274326.648828931</v>
       </c>
       <c r="N55" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56">
@@ -6091,7 +6419,7 @@
         <v>270052.130048637</v>
       </c>
       <c r="N56" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57">
@@ -6135,7 +6463,7 @@
         <v>285782.423599542</v>
       </c>
       <c r="N57" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58">
@@ -6179,7 +6507,7 @@
         <v>153859.861305929</v>
       </c>
       <c r="N58" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59">
@@ -6223,7 +6551,7 @@
         <v>262279.912787561</v>
       </c>
       <c r="N59" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60">
@@ -6267,7 +6595,7 @@
         <v>262568.924629638</v>
       </c>
       <c r="N60" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61">
@@ -6311,7 +6639,7 @@
         <v>283600.060277342</v>
       </c>
       <c r="N61" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62">
@@ -6355,7 +6683,7 @@
         <v>158488.907131079</v>
       </c>
       <c r="N62" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63">
@@ -6399,7 +6727,7 @@
         <v>264177.060638771</v>
       </c>
       <c r="N63" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64">
@@ -6443,7 +6771,7 @@
         <v>257066.481672453</v>
       </c>
       <c r="N64" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65">
@@ -6487,7 +6815,7 @@
         <v>263471.825692081</v>
       </c>
       <c r="N65" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66">
@@ -6531,7 +6859,7 @@
         <v>147564.500690045</v>
       </c>
       <c r="N66" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67">
@@ -6575,7 +6903,7 @@
         <v>270161.411528698</v>
       </c>
       <c r="N67" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68">
@@ -6619,7 +6947,7 @@
         <v>270234.304377337</v>
       </c>
       <c r="N68" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69">
@@ -6663,7 +6991,7 @@
         <v>302423.092650497</v>
       </c>
       <c r="N69" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70">
@@ -6707,7 +7035,7 @@
         <v>174444.138194729</v>
       </c>
       <c r="N70" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71">
@@ -6751,7 +7079,7 @@
         <v>338611.400627378</v>
       </c>
       <c r="N71" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72">
@@ -6795,7 +7123,7 @@
         <v>342392.43267135</v>
       </c>
       <c r="N72" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73">
@@ -6839,7 +7167,7 @@
         <v>365941.948099772</v>
       </c>
       <c r="N73" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74">
@@ -6883,7 +7211,7 @@
         <v>203613.132027472</v>
       </c>
       <c r="N74" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75">
@@ -6927,7 +7255,7 @@
         <v>348369.377317031</v>
       </c>
       <c r="N75" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76">
@@ -6971,7 +7299,7 @@
         <v>341264.250449751</v>
       </c>
       <c r="N76" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77">
@@ -7015,7 +7343,7 @@
         <v>362592.624853004</v>
       </c>
       <c r="N77" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78">
@@ -7059,7 +7387,7 @@
         <v>197030.492393745</v>
       </c>
       <c r="N78" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79">
@@ -7103,7 +7431,7 @@
         <v>347853.579080679</v>
       </c>
       <c r="N79" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80">
@@ -7147,7 +7475,7 @@
         <v>345871.917281142</v>
       </c>
       <c r="N80" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81">
@@ -7191,7 +7519,7 @@
         <v>371745.245478028</v>
       </c>
       <c r="N81" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82">
@@ -7235,7 +7563,7 @@
         <v>211599.92275005</v>
       </c>
       <c r="N82" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83">
@@ -7279,7 +7607,7 @@
         <v>374923.067136713</v>
       </c>
       <c r="N83" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84">
@@ -7323,7 +7651,7 @@
         <v>374356.322329157</v>
       </c>
       <c r="N84" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85">
@@ -7367,7 +7695,7 @@
         <v>402250.278875549</v>
       </c>
       <c r="N85" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86">
@@ -7411,7 +7739,7 @@
         <v>218161.678276709</v>
       </c>
       <c r="N86" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87">
@@ -7455,7 +7783,7 @@
         <v>374051.06080515</v>
       </c>
       <c r="N87" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88">
@@ -7499,7 +7827,7 @@
         <v>370119.027227681</v>
       </c>
       <c r="N88" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89">
@@ -7543,7 +7871,7 @@
         <v>392365.734514716</v>
       </c>
       <c r="N89" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90">
@@ -7587,7 +7915,7 @@
         <v>224956.246432389</v>
       </c>
       <c r="N90" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91">
@@ -7631,7 +7959,7 @@
         <v>383871.007163576</v>
       </c>
       <c r="N91" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92">
@@ -7675,7 +8003,7 @@
         <v>379616.06567199</v>
       </c>
       <c r="N92" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93">
@@ -7719,7 +8047,7 @@
         <v>405535.759795766</v>
       </c>
       <c r="N93" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94">
@@ -7763,7 +8091,7 @@
         <v>225694.867691862</v>
       </c>
       <c r="N94" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95">
@@ -7807,7 +8135,7 @@
         <v>391619.235991534</v>
       </c>
       <c r="N95" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96">
@@ -7851,7 +8179,7 @@
         <v>389280.659404153</v>
       </c>
       <c r="N96" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97">
@@ -7895,7 +8223,7 @@
         <v>415879.354786149</v>
       </c>
       <c r="N97" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -7914,37 +8242,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2">
@@ -8095,7 +8423,7 @@
         <v>6.35268053009934</v>
       </c>
       <c r="K6" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
@@ -8130,7 +8458,7 @@
         <v>6.8883698418517</v>
       </c>
       <c r="K7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
@@ -8165,7 +8493,7 @@
         <v>6.53144442053544</v>
       </c>
       <c r="K8" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9">
@@ -8200,7 +8528,7 @@
         <v>5.30747405893497</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10">
@@ -8235,7 +8563,7 @@
         <v>7.20703881858658</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
@@ -8270,7 +8598,7 @@
         <v>6.34959418775645</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
@@ -8305,7 +8633,7 @@
         <v>6.38528663170084</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
@@ -8340,7 +8668,7 @@
         <v>7.50693595379626</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
@@ -8375,7 +8703,7 @@
         <v>7.09026920629554</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
@@ -8410,7 +8738,7 @@
         <v>5.98689075777872</v>
       </c>
       <c r="K15" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
@@ -8445,7 +8773,7 @@
         <v>5.89430706056038</v>
       </c>
       <c r="K16" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17">
@@ -8480,7 +8808,7 @@
         <v>4.52292095470079</v>
       </c>
       <c r="K17" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
@@ -8515,7 +8843,7 @@
         <v>6.05051918981481</v>
       </c>
       <c r="K18" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19">
@@ -8550,7 +8878,7 @@
         <v>2.86462671548851</v>
       </c>
       <c r="K19" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20">
@@ -8585,7 +8913,7 @@
         <v>1.85583468659036</v>
       </c>
       <c r="K20" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21">
@@ -8620,7 +8948,7 @@
         <v>1.3984778779752</v>
       </c>
       <c r="K21" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22">
@@ -8655,7 +8983,7 @@
         <v>-3.60077118589522</v>
       </c>
       <c r="K22" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23">
@@ -8690,7 +9018,7 @@
         <v>-3.23555950267423</v>
       </c>
       <c r="K23" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24">
@@ -8725,7 +9053,7 @@
         <v>-2.94393907491856</v>
       </c>
       <c r="K24" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25">
@@ -8760,7 +9088,7 @@
         <v>-2.54930069352952</v>
       </c>
       <c r="K25" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26">
@@ -8795,7 +9123,7 @@
         <v>-0.337146222271845</v>
       </c>
       <c r="K26" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27">
@@ -8830,7 +9158,7 @@
         <v>2.31361667933507</v>
       </c>
       <c r="K27" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28">
@@ -8865,7 +9193,7 @@
         <v>3.07199534755114</v>
       </c>
       <c r="K28" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29">
@@ -8900,7 +9228,7 @@
         <v>4.01869971214586</v>
       </c>
       <c r="K29" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30">
@@ -8935,7 +9263,7 @@
         <v>2.56314666692996</v>
       </c>
       <c r="K30" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31">
@@ -8970,7 +9298,7 @@
         <v>2.34776314679475</v>
       </c>
       <c r="K31" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32">
@@ -9005,7 +9333,7 @@
         <v>2.66446070171831</v>
       </c>
       <c r="K32" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33">
@@ -9040,7 +9368,7 @@
         <v>2.51905642081955</v>
       </c>
       <c r="K33" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34">
@@ -9075,7 +9403,7 @@
         <v>6.7638202350859</v>
       </c>
       <c r="K34" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35">
@@ -9110,7 +9438,7 @@
         <v>3.84046737420718</v>
       </c>
       <c r="K35" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36">
@@ -9145,7 +9473,7 @@
         <v>3.0120756367604</v>
       </c>
       <c r="K36" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37">
@@ -9180,7 +9508,7 @@
         <v>1.82545938289338</v>
       </c>
       <c r="K37" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38">
@@ -9215,7 +9543,7 @@
         <v>0.190833247176903</v>
       </c>
       <c r="K38" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39">
@@ -9250,7 +9578,7 @@
         <v>-2.36590663963567</v>
       </c>
       <c r="K39" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40">
@@ -9285,7 +9613,7 @@
         <v>-3.87698151238741</v>
       </c>
       <c r="K40" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41">
@@ -9320,7 +9648,7 @@
         <v>-5.39435238534152</v>
       </c>
       <c r="K41" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42">
@@ -9355,7 +9683,7 @@
         <v>-6.5626956369236</v>
       </c>
       <c r="K42" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43">
@@ -9390,7 +9718,7 @@
         <v>0.0515853346013673</v>
       </c>
       <c r="K43" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44">
@@ -9425,7 +9753,7 @@
         <v>1.72909717505347</v>
       </c>
       <c r="K44" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45">
@@ -9460,7 +9788,7 @@
         <v>5.7992302556698</v>
       </c>
       <c r="K45" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46">
@@ -9495,7 +9823,7 @@
         <v>0.949552539340881</v>
       </c>
       <c r="K46" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47">
@@ -9530,7 +9858,7 @@
         <v>6.75458518012539</v>
       </c>
       <c r="K47" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48">
@@ -9565,7 +9893,7 @@
         <v>7.88191698928717</v>
       </c>
       <c r="K48" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49">
@@ -9600,7 +9928,7 @@
         <v>6.93619718057168</v>
       </c>
       <c r="K49" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50">
@@ -9635,7 +9963,7 @@
         <v>7.15747405416771</v>
       </c>
       <c r="K50" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51">
@@ -9670,7 +9998,7 @@
         <v>2.71209246802262</v>
       </c>
       <c r="K51" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52">
@@ -9705,7 +10033,7 @@
         <v>0.82150300645758</v>
       </c>
       <c r="K52" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
@@ -9740,7 +10068,7 @@
         <v>-0.459106929852937</v>
       </c>
       <c r="K53" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54">
@@ -9775,7 +10103,7 @@
         <v>-7.86546489450185</v>
       </c>
       <c r="K54" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55">
@@ -9810,7 +10138,7 @@
         <v>-7.43394078831292</v>
       </c>
       <c r="K55" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -9845,7 +10173,7 @@
         <v>-7.51270262723357</v>
       </c>
       <c r="K56" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -9880,7 +10208,7 @@
         <v>-6.996353170645</v>
       </c>
       <c r="K57" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -9915,7 +10243,7 @@
         <v>-8.94770125336322</v>
       </c>
       <c r="K58" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59">
@@ -9950,7 +10278,7 @@
         <v>-4.39138380933692</v>
       </c>
       <c r="K59" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
@@ -9985,7 +10313,7 @@
         <v>-2.77102254948041</v>
       </c>
       <c r="K60" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61">
@@ -10020,7 +10348,7 @@
         <v>-0.763645046714989</v>
       </c>
       <c r="K61" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
@@ -10055,7 +10383,7 @@
         <v>3.00861172359006</v>
       </c>
       <c r="K62" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63">
@@ -10090,7 +10418,7 @@
         <v>0.723329450222332</v>
       </c>
       <c r="K63" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
@@ -10125,7 +10453,7 @@
         <v>-2.09561849900781</v>
       </c>
       <c r="K64" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65">
@@ -10160,7 +10488,7 @@
         <v>-7.0974013776927</v>
       </c>
       <c r="K65" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66">
@@ -10195,7 +10523,7 @@
         <v>-6.89285240133485</v>
       </c>
       <c r="K66" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67">
@@ -10230,7 +10558,7 @@
         <v>2.26528029173192</v>
       </c>
       <c r="K67" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
@@ -10265,7 +10593,7 @@
         <v>5.12234135668546</v>
       </c>
       <c r="K68" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
@@ -10300,7 +10628,7 @@
         <v>14.7838452388977</v>
       </c>
       <c r="K69" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
@@ -10335,7 +10663,7 @@
         <v>18.2155175391026</v>
       </c>
       <c r="K70" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71">
@@ -10370,7 +10698,7 @@
         <v>25.3367010156479</v>
       </c>
       <c r="K71" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72">
@@ -10405,7 +10733,7 @@
         <v>26.702060813588</v>
       </c>
       <c r="K72" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73">
@@ -10440,7 +10768,7 @@
         <v>21.0033086073499</v>
       </c>
       <c r="K73" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
@@ -10475,7 +10803,7 @@
         <v>16.7211086222812</v>
       </c>
       <c r="K74" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
@@ -10510,7 +10838,7 @@
         <v>2.88176259617166</v>
       </c>
       <c r="K75" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
@@ -10545,7 +10873,7 @@
         <v>-0.329499753483831</v>
       </c>
       <c r="K76" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77">
@@ -10580,7 +10908,7 @@
         <v>-0.915260812311802</v>
       </c>
       <c r="K77" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78">
@@ -10615,7 +10943,7 @@
         <v>-3.23291507192113</v>
       </c>
       <c r="K78" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79">
@@ -10650,7 +10978,7 @@
         <v>-0.148060728047916</v>
       </c>
       <c r="K79" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80">
@@ -10685,7 +11013,7 @@
         <v>1.3501756557619</v>
       </c>
       <c r="K80" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81">
@@ -10720,7 +11048,7 @@
         <v>2.52421588242013</v>
       </c>
       <c r="K81" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82">
@@ -10755,7 +11083,7 @@
         <v>7.39450537797441</v>
       </c>
       <c r="K82" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83">
@@ -10790,7 +11118,7 @@
         <v>7.78186273879204</v>
       </c>
       <c r="K83" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84">
@@ -10825,7 +11153,7 @@
         <v>8.23553564912922</v>
       </c>
       <c r="K84" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85">
@@ -10860,7 +11188,7 @@
         <v>8.20589739037396</v>
       </c>
       <c r="K85" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86">
@@ -10895,7 +11223,7 @@
         <v>3.10101981200155</v>
       </c>
       <c r="K86" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87">
@@ -10930,7 +11258,7 @@
         <v>-0.232582737099241</v>
       </c>
       <c r="K87" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88">
@@ -10965,7 +11293,7 @@
         <v>-1.13188821684977</v>
       </c>
       <c r="K88" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89">
@@ -11000,7 +11328,7 @@
         <v>-2.45731199701442</v>
       </c>
       <c r="K89" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90">
@@ -11035,7 +11363,7 @@
         <v>3.11446456103146</v>
       </c>
       <c r="K90" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91">
@@ -11070,7 +11398,7 @@
         <v>2.62529568484275</v>
       </c>
       <c r="K91" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92">
@@ -11105,7 +11433,7 @@
         <v>2.56594169595781</v>
       </c>
       <c r="K92" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93">
@@ -11140,7 +11468,7 @@
         <v>3.35656866095588</v>
       </c>
       <c r="K93" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94">
@@ -11175,7 +11503,7 @@
         <v>0.328339964409663</v>
       </c>
       <c r="K94" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95">
@@ -11210,7 +11538,7 @@
         <v>2.01844595798188</v>
       </c>
       <c r="K95" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96">
@@ -11245,7 +11573,7 @@
         <v>2.54588638524968</v>
       </c>
       <c r="K96" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97">
@@ -11280,7 +11608,7 @@
         <v>2.55059997559566</v>
       </c>
       <c r="K97" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98">
@@ -11315,7 +11643,7 @@
         <v>1.01068370395561</v>
       </c>
       <c r="K98" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99">
@@ -11350,7 +11678,7 @@
         <v>-0.0113390958588089</v>
       </c>
       <c r="K99" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100">
@@ -11385,7 +11713,7 @@
         <v>0.0616160360257245</v>
       </c>
       <c r="K100" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101">
@@ -11420,7 +11748,567 @@
         <v>0.223582017041135</v>
       </c>
       <c r="K101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="n">
+        <v>370280.541931793</v>
+      </c>
+      <c r="C102" t="n">
+        <v>239321.877687495</v>
+      </c>
+      <c r="D102" t="n">
+        <v>233178.042582547</v>
+      </c>
+      <c r="E102" t="n">
+        <v>137102.499349247</v>
+      </c>
+      <c r="F102" t="n">
+        <v>16.2292212043479</v>
+      </c>
+      <c r="G102" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H102" t="n">
+        <v>14746.3562591272</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3.49131025750811</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.28186969845432</v>
+      </c>
+      <c r="K102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="n">
+        <v>629173.086197585</v>
+      </c>
+      <c r="C103" t="n">
+        <v>400613.685764224</v>
+      </c>
+      <c r="D103" t="n">
+        <v>396211.337273556</v>
+      </c>
+      <c r="E103" t="n">
+        <v>232961.74892403</v>
+      </c>
+      <c r="F103" t="n">
+        <v>33.3876970857095</v>
+      </c>
+      <c r="G103" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H103" t="n">
+        <v>11998.8415114648</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1.48320460545033</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.18406675006326</v>
+      </c>
+      <c r="K103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="n">
+        <v>626594.755150478</v>
+      </c>
+      <c r="C104" t="n">
+        <v>400262.752678334</v>
+      </c>
+      <c r="D104" t="n">
+        <v>394587.675971891</v>
+      </c>
+      <c r="E104" t="n">
+        <v>232007.079178588</v>
+      </c>
+      <c r="F104" t="n">
+        <v>33.2168144857049</v>
+      </c>
+      <c r="G104" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H104" t="n">
+        <v>12050.0041583033</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1.63169114736716</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.3008704324762</v>
+      </c>
+      <c r="K104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" t="n">
+        <v>670568.490314797</v>
+      </c>
+      <c r="C105" t="n">
+        <v>428567.21831726</v>
+      </c>
+      <c r="D105" t="n">
+        <v>422279.407860271</v>
+      </c>
+      <c r="E105" t="n">
+        <v>248289.082454527</v>
+      </c>
+      <c r="F105" t="n">
+        <v>36.1312370557721</v>
+      </c>
+      <c r="G105" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H105" t="n">
+        <v>11861.4045142082</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1.61919913129787</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.31240428591117</v>
+      </c>
+      <c r="K105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" t="n">
+        <v>378967.108664555</v>
+      </c>
+      <c r="C106" t="n">
+        <v>247811.571889555</v>
+      </c>
+      <c r="D106" t="n">
+        <v>238648.26420678</v>
+      </c>
+      <c r="E106" t="n">
+        <v>140318.844457775</v>
+      </c>
+      <c r="F106" t="n">
+        <v>16.8049359133157</v>
+      </c>
+      <c r="G106" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H106" t="n">
+        <v>14746.3562591272</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3.54739578516328</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.34594199507296</v>
+      </c>
+      <c r="K106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" t="n">
+        <v>637859.652930347</v>
+      </c>
+      <c r="C107" t="n">
+        <v>407521.595312949</v>
+      </c>
+      <c r="D107" t="n">
+        <v>401681.558897789</v>
+      </c>
+      <c r="E107" t="n">
+        <v>236178.094032558</v>
+      </c>
+      <c r="F107" t="n">
+        <v>33.9634117946774</v>
+      </c>
+      <c r="G107" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H107" t="n">
+        <v>11998.8415114648</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1.72433189234329</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.38063228121519</v>
+      </c>
+      <c r="K107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" t="n">
+        <v>635281.32188324</v>
+      </c>
+      <c r="C108" t="n">
+        <v>407200.117315393</v>
+      </c>
+      <c r="D108" t="n">
+        <v>400057.897596124</v>
+      </c>
+      <c r="E108" t="n">
+        <v>235223.424287116</v>
+      </c>
+      <c r="F108" t="n">
+        <v>33.7925291946728</v>
+      </c>
+      <c r="G108" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H108" t="n">
+        <v>12050.0041583033</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1.7332026501687</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.38631334867707</v>
+      </c>
+      <c r="K108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" t="n">
+        <v>679255.057047559</v>
+      </c>
+      <c r="C109" t="n">
+        <v>435396.003365108</v>
+      </c>
+      <c r="D109" t="n">
+        <v>427749.629484503</v>
+      </c>
+      <c r="E109" t="n">
+        <v>251505.427563055</v>
+      </c>
+      <c r="F109" t="n">
+        <v>36.70695176474</v>
+      </c>
+      <c r="G109" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H109" t="n">
+        <v>11861.4045142082</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1.59339883126388</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.29540335673743</v>
+      </c>
+      <c r="K109" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
         <v>119</v>
+      </c>
+      <c r="B110" t="n">
+        <v>387653.675397317</v>
+      </c>
+      <c r="C110" t="n">
+        <v>256301.266091615</v>
+      </c>
+      <c r="D110" t="n">
+        <v>244118.485831013</v>
+      </c>
+      <c r="E110" t="n">
+        <v>143535.189566304</v>
+      </c>
+      <c r="F110" t="n">
+        <v>17.3806506222836</v>
+      </c>
+      <c r="G110" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H110" t="n">
+        <v>14746.3562591272</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3.42586673306908</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2.29216903898923</v>
+      </c>
+      <c r="K110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" t="n">
+        <v>646546.219663109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>414429.504861673</v>
+      </c>
+      <c r="D111" t="n">
+        <v>407151.780522022</v>
+      </c>
+      <c r="E111" t="n">
+        <v>239394.439141087</v>
+      </c>
+      <c r="F111" t="n">
+        <v>34.5391265036453</v>
+      </c>
+      <c r="G111" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H111" t="n">
+        <v>11998.8415114648</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.69510269594906</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.36183041094624</v>
+      </c>
+      <c r="K111" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" t="n">
+        <v>643967.888616002</v>
+      </c>
+      <c r="C112" t="n">
+        <v>414137.481952452</v>
+      </c>
+      <c r="D112" t="n">
+        <v>405528.119220357</v>
+      </c>
+      <c r="E112" t="n">
+        <v>238439.769395645</v>
+      </c>
+      <c r="F112" t="n">
+        <v>34.3682439036406</v>
+      </c>
+      <c r="G112" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H112" t="n">
+        <v>12050.0041583033</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1.70367451826785</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.36735748927912</v>
+      </c>
+      <c r="K112" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" t="n">
+        <v>687941.62378032</v>
+      </c>
+      <c r="C113" t="n">
+        <v>442224.788412955</v>
+      </c>
+      <c r="D113" t="n">
+        <v>433219.851108736</v>
+      </c>
+      <c r="E113" t="n">
+        <v>254721.772671584</v>
+      </c>
+      <c r="F113" t="n">
+        <v>37.2826664737079</v>
+      </c>
+      <c r="G113" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H113" t="n">
+        <v>11861.4045142082</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.56840783908645</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.27883725599609</v>
+      </c>
+      <c r="K113" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" t="n">
+        <v>396340.242130078</v>
+      </c>
+      <c r="C114" t="n">
+        <v>264790.960293675</v>
+      </c>
+      <c r="D114" t="n">
+        <v>249588.707455246</v>
+      </c>
+      <c r="E114" t="n">
+        <v>146751.534674833</v>
+      </c>
+      <c r="F114" t="n">
+        <v>17.9563653312515</v>
+      </c>
+      <c r="G114" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H114" t="n">
+        <v>14746.3562591272</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3.31238871017718</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.24080597813463</v>
+      </c>
+      <c r="K114" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" t="n">
+        <v>655232.78639587</v>
+      </c>
+      <c r="C115" t="n">
+        <v>421337.414410397</v>
+      </c>
+      <c r="D115" t="n">
+        <v>412622.002146255</v>
+      </c>
+      <c r="E115" t="n">
+        <v>242610.784249615</v>
+      </c>
+      <c r="F115" t="n">
+        <v>35.1148412126131</v>
+      </c>
+      <c r="G115" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H115" t="n">
+        <v>11998.8415114648</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1.66684791205445</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.34353375962633</v>
+      </c>
+      <c r="K115" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" t="n">
+        <v>652654.455348763</v>
+      </c>
+      <c r="C116" t="n">
+        <v>421074.846589511</v>
+      </c>
+      <c r="D116" t="n">
+        <v>410998.34084459</v>
+      </c>
+      <c r="E116" t="n">
+        <v>241656.114504173</v>
+      </c>
+      <c r="F116" t="n">
+        <v>34.9439586126085</v>
+      </c>
+      <c r="G116" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H116" t="n">
+        <v>12050.0041583033</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1.67513565890074</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.34891302599427</v>
+      </c>
+      <c r="K116" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" t="n">
+        <v>696628.190513082</v>
+      </c>
+      <c r="C117" t="n">
+        <v>449053.573460803</v>
+      </c>
+      <c r="D117" t="n">
+        <v>438690.07273297</v>
+      </c>
+      <c r="E117" t="n">
+        <v>257938.117780113</v>
+      </c>
+      <c r="F117" t="n">
+        <v>37.8583811826757</v>
+      </c>
+      <c r="G117" t="n">
+        <v>66460.5912471754</v>
+      </c>
+      <c r="H117" t="n">
+        <v>11861.4045142082</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1.54418866304495</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.26268951208794</v>
+      </c>
+      <c r="K117" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -11439,10 +12327,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2">
@@ -12243,6 +13131,134 @@
       </c>
       <c r="B101" t="n">
         <v>421738.433269413</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="n">
+        <v>239321.877687495</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="n">
+        <v>400613.685764224</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="n">
+        <v>400262.752678334</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" t="n">
+        <v>428567.21831726</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" t="n">
+        <v>247811.571889555</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" t="n">
+        <v>407521.595312949</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" t="n">
+        <v>407200.117315393</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" t="n">
+        <v>435396.003365108</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" t="n">
+        <v>256301.266091615</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" t="n">
+        <v>414429.504861673</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" t="n">
+        <v>414137.481952452</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" t="n">
+        <v>442224.788412955</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" t="n">
+        <v>264790.960293675</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" t="n">
+        <v>421337.414410397</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" t="n">
+        <v>421074.846589511</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" t="n">
+        <v>449053.573460803</v>
       </c>
     </row>
   </sheetData>
